--- a/specifications/5_Insects/ScriptRules_Insects.xlsx
+++ b/specifications/5_Insects/ScriptRules_Insects.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HgRepos\landfiredisturbance\specifications\5_Insects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HgRepos\LANDFIRE\landfiredisturbance-clone\specifications\5_Insects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1180,12 +1180,6 @@
     <t>* = 2</t>
   </si>
   <si>
-    <t>* = (1/1.5)</t>
-  </si>
-  <si>
-    <t>* = (1/2)</t>
-  </si>
-  <si>
     <t>* = 1.25, min = 4</t>
   </si>
   <si>
@@ -1721,6 +1715,12 @@
   </si>
   <si>
     <t>* = 0.75</t>
+  </si>
+  <si>
+    <t>* = 1/1.5</t>
+  </si>
+  <si>
+    <t>* = 1/2</t>
   </si>
 </sst>
 </file>
@@ -2923,23 +2923,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K952"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" style="37" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="48.5703125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="50.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="48.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="35" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="36" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="35" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="36" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="2" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>15</v>
@@ -2998,7 +2998,7 @@
         <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3032,13 +3032,13 @@
         <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>13</v>
@@ -3052,7 +3052,7 @@
         <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
         <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3120,13 +3120,13 @@
         <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>13</v>
@@ -3140,7 +3140,7 @@
         <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
         <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3208,7 +3208,7 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3216,7 +3216,7 @@
         <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3224,7 +3224,7 @@
         <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3232,7 +3232,7 @@
         <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3240,25 +3240,25 @@
         <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K19" s="44" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3266,25 +3266,25 @@
         <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3292,25 +3292,25 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K21" s="44" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3318,26 +3318,26 @@
         <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3345,26 +3345,26 @@
         <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="31" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J23" s="43" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3372,26 +3372,26 @@
         <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3399,26 +3399,26 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="45" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I25" s="45" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3426,34 +3426,34 @@
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C26" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="F26" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="D26" s="43" t="s">
-        <v>393</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="F26" s="31" t="s">
+      <c r="G26" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="I26" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="G26" s="43" t="s">
-        <v>392</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>396</v>
-      </c>
       <c r="J26" s="43" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3461,25 +3461,25 @@
         <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J27" s="32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K27" s="44" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3487,25 +3487,25 @@
         <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K28" s="44" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3513,25 +3513,25 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K29" s="44" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3539,25 +3539,25 @@
         <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H30" s="44" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K30" s="44" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3565,25 +3565,25 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K31" s="44" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3591,25 +3591,25 @@
         <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K32" s="44" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3617,7 +3617,7 @@
         <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3625,7 +3625,7 @@
         <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3633,7 +3633,7 @@
         <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E35" s="33"/>
       <c r="J35" s="32"/>
@@ -3644,7 +3644,7 @@
         <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E36" s="33"/>
       <c r="J36" s="32" t="s">
@@ -3657,7 +3657,7 @@
         <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E37" s="33"/>
       <c r="J37" s="32"/>
@@ -3668,7 +3668,7 @@
         <v>141</v>
       </c>
       <c r="B38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E38" s="33"/>
       <c r="J38" s="32"/>
@@ -3679,7 +3679,7 @@
         <v>142</v>
       </c>
       <c r="B39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E39" s="33"/>
       <c r="J39" s="32" t="s">
@@ -3692,7 +3692,7 @@
         <v>143</v>
       </c>
       <c r="B40" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E40" s="33"/>
       <c r="J40" s="32"/>
@@ -3703,7 +3703,7 @@
         <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D41" s="32"/>
       <c r="G41" s="32"/>
@@ -3715,7 +3715,7 @@
         <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D42" s="32"/>
       <c r="G42" s="35" t="s">
@@ -3731,7 +3731,7 @@
         <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D43" s="32"/>
       <c r="G43" s="35" t="s">
@@ -3747,7 +3747,7 @@
         <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D44" s="32"/>
       <c r="G44" s="32"/>
@@ -3759,7 +3759,7 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D45" s="32"/>
       <c r="J45" s="32"/>
@@ -3770,7 +3770,7 @@
         <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D46" s="32"/>
       <c r="G46" s="35" t="s">
@@ -3786,7 +3786,7 @@
         <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D47" s="32"/>
       <c r="G47" s="35" t="s">
@@ -3802,7 +3802,7 @@
         <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D48" s="32"/>
       <c r="G48" s="32"/>
@@ -3814,7 +3814,7 @@
         <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D49" s="32" t="s">
         <v>1</v>
@@ -3838,7 +3838,7 @@
         <v>145</v>
       </c>
       <c r="B50" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D50" s="32" t="s">
         <v>1</v>
@@ -3862,7 +3862,7 @@
         <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D51" s="32" t="s">
         <v>1</v>
@@ -3877,10 +3877,10 @@
         <v>225</v>
       </c>
       <c r="J51" s="32" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K51" s="33" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3888,7 +3888,7 @@
         <v>150</v>
       </c>
       <c r="B52" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D52" s="32" t="s">
         <v>1</v>
@@ -3903,10 +3903,10 @@
         <v>224</v>
       </c>
       <c r="J52" s="32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K52" s="33" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3914,7 +3914,7 @@
         <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D53" s="32" t="s">
         <v>1</v>
@@ -3929,10 +3929,10 @@
         <v>223</v>
       </c>
       <c r="J53" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K53" s="33" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3940,17 +3940,17 @@
         <v>193</v>
       </c>
       <c r="B54" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G54" s="46"/>
       <c r="H54" s="36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K54" s="36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3958,17 +3958,17 @@
         <v>194</v>
       </c>
       <c r="B55" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G55" s="46"/>
       <c r="H55" s="36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K55" s="36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3976,17 +3976,17 @@
         <v>195</v>
       </c>
       <c r="B56" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G56" s="46"/>
       <c r="H56" s="36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K56" s="36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3994,16 +3994,16 @@
         <v>196</v>
       </c>
       <c r="B57" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H57" s="33" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K57" s="33" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4011,16 +4011,16 @@
         <v>197</v>
       </c>
       <c r="B58" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H58" s="33" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K58" s="33" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -4028,16 +4028,16 @@
         <v>198</v>
       </c>
       <c r="B59" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K59" s="33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4045,7 +4045,7 @@
         <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4053,7 +4053,7 @@
         <v>159</v>
       </c>
       <c r="B61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4061,7 +4061,7 @@
         <v>160</v>
       </c>
       <c r="B62" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4069,7 +4069,7 @@
         <v>155</v>
       </c>
       <c r="B63" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4077,7 +4077,7 @@
         <v>156</v>
       </c>
       <c r="B64" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -4085,7 +4085,7 @@
         <v>157</v>
       </c>
       <c r="B65" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -4093,7 +4093,7 @@
         <v>152</v>
       </c>
       <c r="B66" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -4101,7 +4101,7 @@
         <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -4109,7 +4109,7 @@
         <v>154</v>
       </c>
       <c r="B68" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -4117,7 +4117,7 @@
         <v>146</v>
       </c>
       <c r="B69" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -4125,7 +4125,7 @@
         <v>147</v>
       </c>
       <c r="B70" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -4133,7 +4133,7 @@
         <v>148</v>
       </c>
       <c r="B71" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -4141,7 +4141,7 @@
         <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -4149,7 +4149,7 @@
         <v>125</v>
       </c>
       <c r="B73" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -4157,7 +4157,7 @@
         <v>126</v>
       </c>
       <c r="B74" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -4165,7 +4165,7 @@
         <v>127</v>
       </c>
       <c r="B75" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -4173,7 +4173,7 @@
         <v>128</v>
       </c>
       <c r="B76" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4181,7 +4181,7 @@
         <v>129</v>
       </c>
       <c r="B77" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4189,7 +4189,7 @@
         <v>130</v>
       </c>
       <c r="B78" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4197,7 +4197,7 @@
         <v>131</v>
       </c>
       <c r="B79" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D79" s="32"/>
       <c r="J79" s="32"/>
@@ -4207,7 +4207,7 @@
         <v>132</v>
       </c>
       <c r="B80" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D80" s="32"/>
       <c r="J80" s="32"/>
@@ -4217,25 +4217,25 @@
         <v>133</v>
       </c>
       <c r="B81" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D81" s="32" t="s">
         <v>1</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G81" s="35" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="33" t="s">
-        <v>228</v>
+        <v>407</v>
       </c>
       <c r="J81" s="32" t="s">
         <v>227</v>
       </c>
       <c r="K81" s="33" t="s">
-        <v>229</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4243,25 +4243,25 @@
         <v>134</v>
       </c>
       <c r="B82" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D82" s="32" t="s">
         <v>1</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G82" s="35" t="s">
         <v>14</v>
       </c>
       <c r="H82" s="33" t="s">
-        <v>228</v>
+        <v>407</v>
       </c>
       <c r="J82" s="32" t="s">
         <v>227</v>
       </c>
       <c r="K82" s="33" t="s">
-        <v>229</v>
+        <v>408</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4269,7 +4269,7 @@
         <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D83" s="32"/>
       <c r="J83" s="32"/>
@@ -4279,7 +4279,7 @@
         <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D84" s="32"/>
       <c r="J84" s="32"/>
@@ -4289,7 +4289,7 @@
         <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D85" s="32"/>
     </row>
@@ -4298,7 +4298,7 @@
         <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D86" s="32"/>
     </row>
@@ -4307,7 +4307,7 @@
         <v>111</v>
       </c>
       <c r="B87" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D87" s="32"/>
       <c r="E87" s="33"/>
@@ -4323,7 +4323,7 @@
         <v>112</v>
       </c>
       <c r="B88" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D88" s="32"/>
       <c r="H88" s="33" t="s">
@@ -4338,7 +4338,7 @@
         <v>106</v>
       </c>
       <c r="B89" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D89" s="32"/>
     </row>
@@ -4347,7 +4347,7 @@
         <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D90" s="32"/>
     </row>
@@ -4356,7 +4356,7 @@
         <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D91" s="32"/>
     </row>
@@ -4365,7 +4365,7 @@
         <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D92" s="32"/>
     </row>
@@ -4374,7 +4374,7 @@
         <v>114</v>
       </c>
       <c r="B93" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D93" s="32"/>
     </row>
@@ -4383,7 +4383,7 @@
         <v>115</v>
       </c>
       <c r="B94" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D94" s="32"/>
     </row>
@@ -7736,7 +7736,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>212</v>
@@ -7826,7 +7826,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="5">
         <v>0.9</v>
@@ -7926,7 +7926,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
@@ -8022,7 +8022,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C4" s="5">
         <v>1.1000000000000001</v>
@@ -8122,7 +8122,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
@@ -8218,7 +8218,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" s="5">
         <v>0.9</v>
@@ -8318,7 +8318,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C7" s="5">
         <v>0.9</v>
@@ -8418,7 +8418,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -8505,7 +8505,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C9" s="5">
         <v>1.1000000000000001</v>
@@ -8596,7 +8596,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -8683,7 +8683,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C11" s="5">
         <v>0.9</v>
@@ -8774,7 +8774,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C12" s="5">
         <v>0.9</v>
@@ -8865,7 +8865,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
@@ -8958,7 +8958,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -9051,7 +9051,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -9144,7 +9144,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
@@ -9237,7 +9237,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
@@ -9330,14 +9330,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="49" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G18" s="14">
         <f>F18</f>
@@ -9424,14 +9424,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="49" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G19" s="14">
         <f>F19</f>
@@ -9518,14 +9518,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C20" s="53"/>
       <c r="D20" s="49" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G20" s="14">
         <f>F20</f>
@@ -9612,13 +9612,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E21" s="41">
         <v>0</v>
@@ -9705,13 +9705,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E22" s="41">
         <v>0</v>
@@ -9798,13 +9798,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E23" s="41">
         <v>0</v>
@@ -9891,13 +9891,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E24" s="41">
         <v>0</v>
@@ -9984,13 +9984,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E25" s="41">
         <v>0</v>
@@ -10077,14 +10077,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="49" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G26" s="14">
         <f t="shared" ref="G26:G33" si="54">F26</f>
@@ -10174,14 +10174,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C27" s="54"/>
       <c r="D27" s="49" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G27" s="14">
         <f t="shared" si="54"/>
@@ -10271,14 +10271,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="49" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E28" s="50" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G28" s="14">
         <f t="shared" si="54"/>
@@ -10368,14 +10368,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="49" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F29" s="13">
         <v>9</v>
@@ -10468,14 +10468,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="49" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F30" s="13">
         <v>60</v>
@@ -10568,14 +10568,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F31" s="13">
         <v>3</v>
@@ -10668,7 +10668,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
@@ -10758,7 +10758,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
@@ -10848,7 +10848,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
@@ -10950,7 +10950,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
@@ -11052,7 +11052,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
@@ -11154,7 +11154,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
@@ -11247,7 +11247,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
@@ -11340,7 +11340,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
@@ -11433,7 +11433,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
@@ -11532,7 +11532,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
@@ -11631,7 +11631,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
@@ -11730,7 +11730,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
@@ -11829,7 +11829,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
@@ -11925,7 +11925,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
@@ -12021,7 +12021,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
@@ -12117,7 +12117,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
@@ -12213,7 +12213,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6">
@@ -12316,7 +12316,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="6">
@@ -12419,7 +12419,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6">
@@ -12522,7 +12522,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="6">
@@ -12625,7 +12625,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="6">
@@ -12728,7 +12728,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
@@ -12829,7 +12829,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
@@ -12930,7 +12930,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
@@ -13031,12 +13031,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="41" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F56" s="13">
         <v>5</v>
@@ -13126,12 +13126,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="41" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F57" s="13">
         <v>11</v>
@@ -13221,12 +13221,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="41" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F58" s="13">
         <v>0</v>
@@ -13316,7 +13316,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
@@ -13406,7 +13406,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
@@ -13496,7 +13496,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
@@ -13586,7 +13586,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
@@ -13682,7 +13682,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
@@ -13778,7 +13778,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
@@ -13874,7 +13874,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
@@ -13958,7 +13958,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
@@ -14042,7 +14042,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
@@ -14126,7 +14126,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
@@ -14228,7 +14228,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
@@ -14330,7 +14330,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
@@ -14432,7 +14432,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
@@ -14519,7 +14519,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
@@ -14606,7 +14606,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
@@ -14693,7 +14693,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
@@ -14786,7 +14786,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
@@ -14876,7 +14876,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
@@ -14963,7 +14963,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
@@ -15047,7 +15047,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
@@ -15134,7 +15134,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="6"/>
@@ -15221,7 +15221,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="6">
@@ -15328,7 +15328,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="6">
@@ -15435,7 +15435,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="6"/>
@@ -15525,7 +15525,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6"/>
@@ -15615,7 +15615,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="6"/>
@@ -15705,7 +15705,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
@@ -15795,7 +15795,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
@@ -15897,7 +15897,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="6"/>
@@ -15999,7 +15999,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="6"/>
@@ -16083,7 +16083,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="6"/>
@@ -16167,7 +16167,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="6"/>
@@ -16251,7 +16251,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="6"/>
@@ -16338,7 +16338,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6"/>
@@ -16425,7 +16425,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="6"/>
@@ -16554,7 +16554,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>215</v>
@@ -16644,7 +16644,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="5">
         <v>0.6</v>
@@ -16744,7 +16744,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="9"/>
@@ -16840,7 +16840,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C4" s="5">
         <v>1.2</v>
@@ -16938,7 +16938,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="9"/>
@@ -17034,7 +17034,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" s="5">
         <v>0.6</v>
@@ -17134,7 +17134,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C7" s="5">
         <v>0.6</v>
@@ -17234,7 +17234,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="9"/>
@@ -17321,7 +17321,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C9" s="5">
         <v>1.2</v>
@@ -17410,7 +17410,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
@@ -17497,7 +17497,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C11" s="5">
         <v>0.6</v>
@@ -17588,7 +17588,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C12" s="5">
         <v>0.6</v>
@@ -17679,7 +17679,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="9"/>
@@ -17772,7 +17772,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
@@ -17865,7 +17865,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C15" s="57"/>
       <c r="D15" s="9"/>
@@ -17958,7 +17958,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="9"/>
@@ -18051,7 +18051,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="9"/>
@@ -18144,14 +18144,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="49" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G18" s="14">
         <f t="shared" si="6"/>
@@ -18238,14 +18238,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="49" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G19" s="14">
         <f t="shared" si="6"/>
@@ -18332,14 +18332,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="49" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G20" s="14">
         <f t="shared" si="6"/>
@@ -18426,13 +18426,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E21" s="41">
         <v>0</v>
@@ -18519,13 +18519,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E22" s="41">
         <v>0</v>
@@ -18612,13 +18612,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E23" s="41">
         <v>0</v>
@@ -18705,13 +18705,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E24" s="41">
         <v>0</v>
@@ -18798,13 +18798,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E25" s="41">
         <v>0</v>
@@ -18891,14 +18891,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="49" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G26" s="14">
         <f t="shared" ref="G26:I44" si="28">F26</f>
@@ -18988,14 +18988,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="49" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G27" s="14">
         <f t="shared" si="28"/>
@@ -19085,14 +19085,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="49" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E28" s="50" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G28" s="14">
         <f t="shared" si="28"/>
@@ -19182,14 +19182,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="49" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F29" s="13">
         <v>9</v>
@@ -19282,14 +19282,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="49" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F30" s="13">
         <v>60</v>
@@ -19382,14 +19382,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F31" s="13">
         <v>3</v>
@@ -19482,7 +19482,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="9"/>
@@ -19572,7 +19572,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="9"/>
@@ -19662,7 +19662,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="9"/>
@@ -19764,7 +19764,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="9"/>
@@ -19866,7 +19866,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="9"/>
@@ -19968,7 +19968,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="9"/>
@@ -20061,7 +20061,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="9"/>
@@ -20154,7 +20154,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="9"/>
@@ -20247,7 +20247,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="9"/>
@@ -20346,7 +20346,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="9">
@@ -20447,7 +20447,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="9">
@@ -20548,7 +20548,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="9"/>
@@ -20647,7 +20647,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="9"/>
@@ -20743,7 +20743,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="9">
@@ -20841,7 +20841,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="9">
@@ -20939,7 +20939,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="9"/>
@@ -21035,7 +21035,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="9">
@@ -21138,7 +21138,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="9">
@@ -21241,7 +21241,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="9">
@@ -21344,7 +21344,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="9">
@@ -21447,7 +21447,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="9">
@@ -21550,7 +21550,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="9"/>
@@ -21651,7 +21651,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="9"/>
@@ -21752,7 +21752,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="9"/>
@@ -21853,12 +21853,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="9"/>
       <c r="E56" s="41" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F56" s="13">
         <v>5</v>
@@ -21948,12 +21948,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="9"/>
       <c r="E57" s="41" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F57" s="13">
         <v>11</v>
@@ -22043,12 +22043,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="9"/>
       <c r="E58" s="41" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F58" s="13">
         <v>0</v>
@@ -22138,7 +22138,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="9"/>
@@ -22228,7 +22228,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="9"/>
@@ -22318,7 +22318,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="9"/>
@@ -22408,7 +22408,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="9"/>
@@ -22504,7 +22504,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="9"/>
@@ -22600,7 +22600,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="9"/>
@@ -22696,7 +22696,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="9"/>
@@ -22780,7 +22780,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="9"/>
@@ -22864,7 +22864,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="9"/>
@@ -22948,7 +22948,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="9"/>
@@ -23050,7 +23050,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="9"/>
@@ -23152,7 +23152,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="9"/>
@@ -23254,7 +23254,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="9"/>
@@ -23341,7 +23341,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="9"/>
@@ -23428,7 +23428,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="9"/>
@@ -23515,7 +23515,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="9"/>
@@ -23608,7 +23608,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="9"/>
@@ -23698,7 +23698,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="9"/>
@@ -23785,7 +23785,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="9"/>
@@ -23869,7 +23869,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="9"/>
@@ -23956,7 +23956,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="9"/>
@@ -24043,7 +24043,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="9">
@@ -24150,7 +24150,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="9">
@@ -24257,7 +24257,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="9"/>
@@ -24347,7 +24347,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="9"/>
@@ -24437,7 +24437,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="9"/>
@@ -24527,7 +24527,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="9"/>
@@ -24617,7 +24617,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="9"/>
@@ -24721,7 +24721,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="9"/>
@@ -24825,7 +24825,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="9"/>
@@ -24909,7 +24909,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="9"/>
@@ -24993,7 +24993,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="9"/>
@@ -25077,7 +25077,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="9"/>
@@ -25164,7 +25164,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="9"/>
@@ -25251,7 +25251,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="9"/>
@@ -25397,7 +25397,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>219</v>
@@ -25487,7 +25487,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C3" s="5">
         <v>0.25</v>
@@ -25587,7 +25587,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
@@ -25683,7 +25683,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C5" s="5">
         <v>1.3</v>
@@ -25781,7 +25781,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -25877,7 +25877,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C7" s="5">
         <v>0.25</v>
@@ -25977,7 +25977,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C8" s="5">
         <v>0.25</v>
@@ -26077,7 +26077,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -26164,7 +26164,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C10" s="5">
         <v>1.3</v>
@@ -26253,7 +26253,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -26340,7 +26340,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C12" s="5">
         <v>0.25</v>
@@ -26431,7 +26431,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C13" s="5">
         <v>0.25</v>
@@ -26522,7 +26522,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -26615,7 +26615,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -26708,7 +26708,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
@@ -26801,7 +26801,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
@@ -26894,7 +26894,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
@@ -26987,14 +26987,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="49" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G19" s="14">
         <f t="shared" si="16"/>
@@ -27081,14 +27081,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="49" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G20" s="14">
         <f t="shared" si="16"/>
@@ -27175,14 +27175,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C21" s="53"/>
       <c r="D21" s="49" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G21" s="14">
         <f t="shared" si="16"/>
@@ -27269,13 +27269,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E22" s="42">
         <v>0</v>
@@ -27362,13 +27362,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E23" s="42">
         <v>0</v>
@@ -27455,13 +27455,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E24" s="42">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E25" s="42">
         <v>0</v>
@@ -27641,13 +27641,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E26" s="42">
         <v>0</v>
@@ -27734,14 +27734,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C27" s="54"/>
       <c r="D27" s="49" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G27" s="14">
         <f>F27</f>
@@ -27831,14 +27831,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="49" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E28" s="50" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G28" s="14">
         <f>F28</f>
@@ -27928,14 +27928,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B29" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C29" s="47"/>
       <c r="D29" s="49" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G29" s="14">
         <f t="shared" ref="G29:I92" si="38">F29</f>
@@ -28025,14 +28025,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="49" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F30" s="13">
         <v>9</v>
@@ -28125,14 +28125,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="49" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F31" s="13">
         <v>60</v>
@@ -28225,14 +28225,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B32" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F32" s="13">
         <v>3</v>
@@ -28325,7 +28325,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
@@ -28415,7 +28415,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
@@ -28505,7 +28505,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="9"/>
@@ -28607,7 +28607,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B36" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="9">
@@ -28711,7 +28711,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="9"/>
@@ -28813,7 +28813,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="9"/>
@@ -28906,7 +28906,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="9">
@@ -29001,7 +29001,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B40" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="9"/>
@@ -29094,7 +29094,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B41" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="9"/>
@@ -29193,7 +29193,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B42" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="9">
@@ -29294,7 +29294,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B43" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="9">
@@ -29395,7 +29395,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="9"/>
@@ -29494,7 +29494,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B45" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="9"/>
@@ -29590,7 +29590,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B46" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="9">
@@ -29688,7 +29688,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B47" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="9">
@@ -29786,7 +29786,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B48" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="9"/>
@@ -29882,7 +29882,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B49" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="9">
@@ -29983,7 +29983,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B50" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="9">
@@ -30084,7 +30084,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B51" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="9">
@@ -30187,7 +30187,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="9">
@@ -30290,7 +30290,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B53" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="9">
@@ -30393,7 +30393,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
@@ -30494,7 +30494,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
@@ -30595,7 +30595,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
@@ -30696,12 +30696,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="41" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F57" s="13">
         <v>5</v>
@@ -30791,12 +30791,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="41" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F58" s="13">
         <v>11</v>
@@ -30886,12 +30886,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B59" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="41" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F59" s="13">
         <v>0</v>
@@ -30981,7 +30981,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B60" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
@@ -31071,7 +31071,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
@@ -31161,7 +31161,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B62" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
@@ -31251,7 +31251,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B63" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
@@ -31347,7 +31347,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B64" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
@@ -31443,7 +31443,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B65" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
@@ -31539,7 +31539,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B66" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
@@ -31623,7 +31623,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B67" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
@@ -31707,7 +31707,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B68" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
@@ -31791,7 +31791,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="6"/>
@@ -31893,7 +31893,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
@@ -31995,7 +31995,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B71" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6"/>
@@ -32097,7 +32097,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="6"/>
@@ -32184,7 +32184,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
@@ -32271,7 +32271,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6"/>
@@ -32358,7 +32358,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="6"/>
@@ -32451,7 +32451,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
@@ -32541,7 +32541,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6"/>
@@ -32628,7 +32628,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B78" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
@@ -32712,7 +32712,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B79" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="9"/>
@@ -32799,7 +32799,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B80" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="9"/>
@@ -32886,7 +32886,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B81" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="9">
@@ -32992,7 +32992,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B82" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="9">
@@ -33098,7 +33098,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B83" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="9"/>
@@ -33188,7 +33188,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B84" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="9"/>
@@ -33278,7 +33278,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B85" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="6"/>
@@ -33368,7 +33368,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B86" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
@@ -33458,7 +33458,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B87" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="6"/>
@@ -33562,7 +33562,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B88" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="6"/>
@@ -33666,7 +33666,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B89" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="6"/>
@@ -33750,7 +33750,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B90" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="6"/>
@@ -33834,7 +33834,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B91" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="6"/>
@@ -33918,7 +33918,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B92" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6"/>
@@ -34005,7 +34005,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B93" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="6"/>
@@ -34092,7 +34092,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B94" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="6"/>
@@ -34212,181 +34212,181 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" t="s">
         <v>232</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>233</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>234</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>235</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>236</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>237</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>238</v>
-      </c>
-      <c r="J1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K1" t="s">
-        <v>240</v>
       </c>
       <c r="L1" t="s">
         <v>20</v>
       </c>
       <c r="M1" t="s">
+        <v>239</v>
+      </c>
+      <c r="N1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O1" t="s">
         <v>241</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>242</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>243</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>244</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>245</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>246</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>247</v>
-      </c>
-      <c r="T1" t="s">
-        <v>248</v>
-      </c>
-      <c r="U1" t="s">
-        <v>249</v>
       </c>
       <c r="V1" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
+        <v>248</v>
+      </c>
+      <c r="X1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y1" t="s">
         <v>250</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>251</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>252</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>253</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>254</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>255</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>256</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>258</v>
       </c>
       <c r="AF1" t="s">
         <v>26</v>
       </c>
       <c r="AG1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AI1" t="s">
         <v>259</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>260</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>261</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>262</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>263</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>264</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>265</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>267</v>
       </c>
       <c r="AP1" t="s">
         <v>27</v>
       </c>
       <c r="AQ1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS1" t="s">
         <v>268</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>269</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>270</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>271</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>272</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>273</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>274</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>276</v>
       </c>
       <c r="AZ1" t="s">
         <v>32</v>
       </c>
       <c r="BA1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BC1" t="s">
         <v>277</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>278</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>279</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>280</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>281</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>282</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>283</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>284</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">

--- a/specifications/5_Insects/ScriptRules_Insects.xlsx
+++ b/specifications/5_Insects/ScriptRules_Insects.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="10260" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -7709,8 +7709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8146,11 +8146,11 @@
         <v>100</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" ref="K5" si="14">J5</f>
+        <f t="shared" ref="K5:K17" si="14">J5</f>
         <v>0</v>
       </c>
       <c r="L5" s="15">
-        <f t="shared" ref="L5" si="15">K5</f>
+        <f t="shared" ref="L5:L17" si="15">K5</f>
         <v>0</v>
       </c>
       <c r="M5" s="16">
@@ -8158,11 +8158,11 @@
         <v>0</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5" si="16">N5</f>
+        <f t="shared" ref="O5:O17" si="16">N5</f>
         <v>0</v>
       </c>
       <c r="P5" s="15">
-        <f t="shared" ref="P5" si="17">O5</f>
+        <f t="shared" ref="P5:P17" si="17">O5</f>
         <v>0</v>
       </c>
       <c r="Q5" s="16">
@@ -8173,11 +8173,11 @@
         <v>25</v>
       </c>
       <c r="S5" s="12">
-        <f t="shared" ref="S5" si="18">R5</f>
+        <f t="shared" ref="S5:S17" si="18">R5</f>
         <v>25</v>
       </c>
       <c r="T5" s="15">
-        <f t="shared" ref="T5" si="19">S5</f>
+        <f t="shared" ref="T5:T17" si="19">S5</f>
         <v>25</v>
       </c>
       <c r="U5" s="16">
@@ -8188,11 +8188,11 @@
         <v>60</v>
       </c>
       <c r="W5" s="12">
-        <f t="shared" ref="W5" si="20">V5</f>
+        <f t="shared" ref="W5:W17" si="20">V5</f>
         <v>60</v>
       </c>
       <c r="X5" s="15">
-        <f t="shared" ref="X5" si="21">W5</f>
+        <f t="shared" ref="X5:X17" si="21">W5</f>
         <v>60</v>
       </c>
       <c r="Y5" s="16">
@@ -8203,11 +8203,11 @@
         <v>78</v>
       </c>
       <c r="AA5" s="12">
-        <f t="shared" ref="AA5" si="22">Z5</f>
+        <f t="shared" ref="AA5:AA17" si="22">Z5</f>
         <v>78</v>
       </c>
       <c r="AB5" s="15">
-        <f t="shared" ref="AB5" si="23">AA5</f>
+        <f t="shared" ref="AB5:AB17" si="23">AA5</f>
         <v>78</v>
       </c>
       <c r="AC5" s="16">
@@ -8439,11 +8439,11 @@
         <v>0</v>
       </c>
       <c r="K8" s="12">
-        <f t="shared" ref="K8" si="24">J8</f>
+        <f t="shared" ref="K8:K20" si="24">J8</f>
         <v>0</v>
       </c>
       <c r="L8" s="15">
-        <f t="shared" ref="L8" si="25">K8</f>
+        <f t="shared" ref="L8:L20" si="25">K8</f>
         <v>0</v>
       </c>
       <c r="M8" s="16">
@@ -8451,11 +8451,11 @@
         <v>0</v>
       </c>
       <c r="O8" s="12">
-        <f t="shared" ref="O8" si="26">N8</f>
+        <f t="shared" ref="O8:O20" si="26">N8</f>
         <v>0</v>
       </c>
       <c r="P8" s="15">
-        <f t="shared" ref="P8" si="27">O8</f>
+        <f t="shared" ref="P8:P20" si="27">O8</f>
         <v>0</v>
       </c>
       <c r="Q8" s="16">
@@ -8463,11 +8463,11 @@
         <v>0</v>
       </c>
       <c r="S8" s="12">
-        <f t="shared" ref="S8" si="28">R8</f>
+        <f t="shared" ref="S8:S20" si="28">R8</f>
         <v>0</v>
       </c>
       <c r="T8" s="15">
-        <f t="shared" ref="T8" si="29">S8</f>
+        <f t="shared" ref="T8:T20" si="29">S8</f>
         <v>0</v>
       </c>
       <c r="U8" s="16">
@@ -8478,11 +8478,11 @@
         <v>7.5</v>
       </c>
       <c r="W8" s="12">
-        <f t="shared" ref="W8" si="30">V8</f>
+        <f t="shared" ref="W8:W20" si="30">V8</f>
         <v>7.5</v>
       </c>
       <c r="X8" s="15">
-        <f t="shared" ref="X8" si="31">W8</f>
+        <f t="shared" ref="X8:X20" si="31">W8</f>
         <v>7.5</v>
       </c>
       <c r="Y8" s="16">
@@ -8490,11 +8490,11 @@
         <v>7.5</v>
       </c>
       <c r="AA8" s="12">
-        <f t="shared" ref="AA8" si="32">Z8</f>
+        <f t="shared" ref="AA8:AA20" si="32">Z8</f>
         <v>0</v>
       </c>
       <c r="AB8" s="15">
-        <f t="shared" ref="AB8" si="33">AA8</f>
+        <f t="shared" ref="AB8:AB20" si="33">AA8</f>
         <v>0</v>
       </c>
       <c r="AC8" s="16">
@@ -8617,11 +8617,11 @@
         <v>0</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" ref="K10" si="34">J10</f>
+        <f t="shared" ref="K10:K22" si="34">J10</f>
         <v>0</v>
       </c>
       <c r="L10" s="15">
-        <f t="shared" ref="L10" si="35">K10</f>
+        <f t="shared" ref="L10:L22" si="35">K10</f>
         <v>0</v>
       </c>
       <c r="M10" s="16">
@@ -8629,11 +8629,11 @@
         <v>0</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" ref="O10" si="36">N10</f>
+        <f t="shared" ref="O10:O22" si="36">N10</f>
         <v>0</v>
       </c>
       <c r="P10" s="15">
-        <f t="shared" ref="P10" si="37">O10</f>
+        <f t="shared" ref="P10:P22" si="37">O10</f>
         <v>0</v>
       </c>
       <c r="Q10" s="16">
@@ -8641,11 +8641,11 @@
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" ref="S10" si="38">R10</f>
+        <f t="shared" ref="S10:S22" si="38">R10</f>
         <v>0</v>
       </c>
       <c r="T10" s="15">
-        <f t="shared" ref="T10" si="39">S10</f>
+        <f t="shared" ref="T10:T22" si="39">S10</f>
         <v>0</v>
       </c>
       <c r="U10" s="16">
@@ -8656,11 +8656,11 @@
         <v>44</v>
       </c>
       <c r="W10" s="12">
-        <f t="shared" ref="W10" si="40">V10</f>
+        <f t="shared" ref="W10:W22" si="40">V10</f>
         <v>44</v>
       </c>
       <c r="X10" s="15">
-        <f t="shared" ref="X10" si="41">W10</f>
+        <f t="shared" ref="X10:X22" si="41">W10</f>
         <v>44</v>
       </c>
       <c r="Y10" s="16">
@@ -8668,11 +8668,11 @@
         <v>44</v>
       </c>
       <c r="AA10" s="12">
-        <f t="shared" ref="AA10" si="42">Z10</f>
+        <f t="shared" ref="AA10:AA22" si="42">Z10</f>
         <v>0</v>
       </c>
       <c r="AB10" s="15">
-        <f t="shared" ref="AB10" si="43">AA10</f>
+        <f t="shared" ref="AB10:AB22" si="43">AA10</f>
         <v>0</v>
       </c>
       <c r="AC10" s="16">
@@ -8886,11 +8886,11 @@
         <v>0</v>
       </c>
       <c r="K13" s="12">
-        <f t="shared" ref="K13:K17" si="44">J13</f>
+        <f t="shared" ref="K13:K25" si="44">J13</f>
         <v>0</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" ref="L13:L17" si="45">K13</f>
+        <f t="shared" ref="L13:L25" si="45">K13</f>
         <v>0</v>
       </c>
       <c r="M13" s="16">
@@ -8898,11 +8898,11 @@
         <v>0</v>
       </c>
       <c r="O13" s="12">
-        <f t="shared" ref="O13:O17" si="46">N13</f>
+        <f t="shared" ref="O13:O25" si="46">N13</f>
         <v>0</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" ref="P13:P17" si="47">O13</f>
+        <f t="shared" ref="P13:P25" si="47">O13</f>
         <v>0</v>
       </c>
       <c r="Q13" s="16">
@@ -8913,11 +8913,11 @@
         <v>0.5</v>
       </c>
       <c r="S13" s="12">
-        <f t="shared" ref="S13:S17" si="48">R13</f>
+        <f t="shared" ref="S13:S25" si="48">R13</f>
         <v>0.5</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" ref="T13:T17" si="49">S13</f>
+        <f t="shared" ref="T13:T25" si="49">S13</f>
         <v>0.5</v>
       </c>
       <c r="U13" s="16">
@@ -8928,11 +8928,11 @@
         <v>1.7</v>
       </c>
       <c r="W13" s="12">
-        <f t="shared" ref="W13:W17" si="50">V13</f>
+        <f t="shared" ref="W13:W25" si="50">V13</f>
         <v>1.7</v>
       </c>
       <c r="X13" s="15">
-        <f t="shared" ref="X13:X17" si="51">W13</f>
+        <f t="shared" ref="X13:X25" si="51">W13</f>
         <v>1.7</v>
       </c>
       <c r="Y13" s="16">
@@ -8943,11 +8943,11 @@
         <v>1</v>
       </c>
       <c r="AA13" s="12">
-        <f t="shared" ref="AA13:AA17" si="52">Z13</f>
+        <f t="shared" ref="AA13:AA25" si="52">Z13</f>
         <v>1</v>
       </c>
       <c r="AB13" s="15">
-        <f t="shared" ref="AB13:AB17" si="53">AA13</f>
+        <f t="shared" ref="AB13:AB25" si="53">AA13</f>
         <v>1</v>
       </c>
       <c r="AC13" s="16">
@@ -9590,7 +9590,7 @@
       </c>
       <c r="X20" s="15">
         <f>W25</f>
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="Y20" s="20">
         <f>X24</f>
@@ -9918,11 +9918,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="12">
-        <f>J24+J2*0.1</f>
+        <f>J24+(J2*0.1)</f>
         <v>0</v>
       </c>
       <c r="L24" s="15">
-        <f>K24+K2*0.05</f>
+        <f>K24+(K2*0.05)</f>
         <v>0</v>
       </c>
       <c r="M24" s="16">
@@ -9930,11 +9930,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="12">
-        <f>N24+N2*0.1</f>
+        <f>N24+(N2*0.1)</f>
         <v>0</v>
       </c>
       <c r="P24" s="15">
-        <f>O24+O2*0.05</f>
+        <f>O24+(O2*0.05)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="16">
@@ -9942,11 +9942,11 @@
         <v>0</v>
       </c>
       <c r="S24" s="12">
-        <f>R24+R2*0.1</f>
+        <f>R24+(R2*0.1)</f>
         <v>8</v>
       </c>
       <c r="T24" s="15">
-        <f>S24+S2*0.05</f>
+        <f>S24+(S2*0.05)</f>
         <v>11.6</v>
       </c>
       <c r="U24" s="16">
@@ -9957,11 +9957,11 @@
         <v>0.5071</v>
       </c>
       <c r="W24" s="12">
-        <f>V24+V2*0.1</f>
+        <f>V24+(V2*0.1)</f>
         <v>9.0070999999999994</v>
       </c>
       <c r="X24" s="15">
-        <f>W24+W2*0.05</f>
+        <f>W24+(W2*0.05)</f>
         <v>12.832100000000001</v>
       </c>
       <c r="Y24" s="16">
@@ -9969,11 +9969,11 @@
         <v>0</v>
       </c>
       <c r="AA24" s="12">
-        <f>Z24+Z2*0.1</f>
+        <f>Z24+(Z2*0.1)</f>
         <v>6</v>
       </c>
       <c r="AB24" s="15">
-        <f>AA24+AA2*0.05</f>
+        <f>AA24+(AA2*0.05)</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="AC24" s="16">
@@ -9999,23 +9999,23 @@
         <v>0</v>
       </c>
       <c r="G25" s="12">
-        <f>(0.1*F7)+(0.1*F12)</f>
+        <f>F25+(0.1*F7)+(0.1*F12)</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="H25" s="15">
-        <f>(0.05*G7)+(0.05*G12)</f>
-        <v>0.54</v>
+        <f>G25+(0.05*G7)+(0.05*G12)</f>
+        <v>1.7400000000000002</v>
       </c>
       <c r="I25" s="16">
         <f>H25*$E25</f>
         <v>0</v>
       </c>
       <c r="K25" s="12">
-        <f>(0.1*J7)+(0.1*J12)</f>
+        <f>J25+(0.1*J7)+(0.1*J12)</f>
         <v>0</v>
       </c>
       <c r="L25" s="15">
-        <f>(0.05*K7)+(0.05*K12)</f>
+        <f>K25+(0.05*K7)+(0.05*K12)</f>
         <v>0</v>
       </c>
       <c r="M25" s="16">
@@ -10023,11 +10023,11 @@
         <v>0</v>
       </c>
       <c r="O25" s="12">
-        <f>(0.1*N7)+(0.1*N12)</f>
+        <f>N25+(0.1*N7)+(0.1*N12)</f>
         <v>0</v>
       </c>
       <c r="P25" s="15">
-        <f>(0.05*O7)+(0.05*O12)</f>
+        <f>O25+(0.05*O7)+(0.05*O12)</f>
         <v>0</v>
       </c>
       <c r="Q25" s="16">
@@ -10035,12 +10035,12 @@
         <v>0</v>
       </c>
       <c r="S25" s="12">
-        <f>(0.1*R7)+(0.1*R12)</f>
+        <f>R25+(0.1*R7)+(0.1*R12)</f>
         <v>350</v>
       </c>
       <c r="T25" s="15">
-        <f>(0.05*S7)+(0.05*S12)</f>
-        <v>157.5</v>
+        <f>S25+(0.05*S7)+(0.05*S12)</f>
+        <v>507.5</v>
       </c>
       <c r="U25" s="16">
         <f>T25*$E25</f>
@@ -10050,24 +10050,24 @@
         <v>5</v>
       </c>
       <c r="W25" s="12">
-        <f>(0.1*V7)+(0.1*V12)</f>
-        <v>19.5</v>
+        <f>V25+(0.1*V7)+(0.1*V12)</f>
+        <v>24.5</v>
       </c>
       <c r="X25" s="15">
-        <f>(0.05*W7)+(0.05*W12)</f>
-        <v>8.7750000000000004</v>
+        <f>W25+(0.05*W7)+(0.05*W12)</f>
+        <v>33.274999999999999</v>
       </c>
       <c r="Y25" s="16">
         <f>X25*$E25</f>
         <v>0</v>
       </c>
       <c r="AA25" s="12">
-        <f>(0.1*Z7)+(0.1*Z12)</f>
+        <f>Z25+(0.1*Z7)+(0.1*Z12)</f>
         <v>10</v>
       </c>
       <c r="AB25" s="15">
-        <f>(0.05*AA7)+(0.05*AA12)</f>
-        <v>4.5</v>
+        <f>AA25+(0.05*AA7)+(0.05*AA12)</f>
+        <v>14.5</v>
       </c>
       <c r="AC25" s="16">
         <f>AB25*$E25</f>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="Y28" s="16">
         <f t="shared" si="67"/>
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="Z28" s="11">
         <v>3</v>
@@ -12761,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="15">
-        <f t="shared" ref="L53:L79" si="106">K53</f>
+        <f t="shared" ref="L53:L93" si="106">K53</f>
         <v>0</v>
       </c>
       <c r="M53" s="16">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="15">
-        <f t="shared" ref="P53:P79" si="107">O53</f>
+        <f t="shared" ref="P53:P93" si="107">O53</f>
         <v>0</v>
       </c>
       <c r="Q53" s="16">
@@ -12788,7 +12788,7 @@
         <v>1</v>
       </c>
       <c r="T53" s="15">
-        <f t="shared" ref="T53:T79" si="108">S53</f>
+        <f t="shared" ref="T53:T93" si="108">S53</f>
         <v>1</v>
       </c>
       <c r="U53" s="16">
@@ -12803,7 +12803,7 @@
         <v>1.2</v>
       </c>
       <c r="X53" s="15">
-        <f t="shared" ref="X53:X79" si="109">W53</f>
+        <f t="shared" ref="X53:X93" si="109">W53</f>
         <v>1.2</v>
       </c>
       <c r="Y53" s="16">
@@ -12818,7 +12818,7 @@
         <v>0.5</v>
       </c>
       <c r="AB53" s="15">
-        <f t="shared" ref="AB53:AB79" si="110">AA53</f>
+        <f t="shared" ref="AB53:AB93" si="110">AA53</f>
         <v>0.5</v>
       </c>
       <c r="AC53" s="16">
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="16">
-        <f t="shared" ref="M59:M79" si="112">L56</f>
+        <f t="shared" ref="M59:M93" si="112">L56</f>
         <v>0</v>
       </c>
       <c r="O59" s="12">
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f t="shared" ref="Q59:Q79" si="113">P56</f>
+        <f t="shared" ref="Q59:Q93" si="113">P56</f>
         <v>0</v>
       </c>
       <c r="R59" s="11">
@@ -13375,7 +13375,7 @@
         <v>3.5</v>
       </c>
       <c r="U59" s="16">
-        <f t="shared" ref="U59:U79" si="114">T56</f>
+        <f t="shared" ref="U59:U93" si="114">T56</f>
         <v>0.5</v>
       </c>
       <c r="W59" s="12">
@@ -13387,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="16">
-        <f t="shared" ref="Y59:Y79" si="115">X56</f>
+        <f t="shared" ref="Y59:Y93" si="115">X56</f>
         <v>0.75</v>
       </c>
       <c r="AA59" s="12">
@@ -13399,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="16">
-        <f t="shared" ref="AC59:AC79" si="116">AB56</f>
+        <f t="shared" ref="AC59:AC93" si="116">AB56</f>
         <v>0</v>
       </c>
     </row>
@@ -16520,7 +16520,7 @@
   <dimension ref="A1:AC93"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25349,8 +25349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38980,7 +38980,7 @@
       </c>
       <c r="AR20">
         <f>'51_Insects_LowSeverity'!X20</f>
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="AS20">
         <f>'51_Insects_LowSeverity'!Y20</f>
@@ -40050,7 +40050,7 @@
       </c>
       <c r="D25">
         <f>'51_Insects_LowSeverity'!H25</f>
-        <v>0.54</v>
+        <v>1.7400000000000002</v>
       </c>
       <c r="E25">
         <f>'51_Insects_LowSeverity'!I25</f>
@@ -40170,7 +40170,7 @@
       </c>
       <c r="AH25">
         <f>'51_Insects_LowSeverity'!T25</f>
-        <v>157.5</v>
+        <v>507.5</v>
       </c>
       <c r="AI25">
         <f>'51_Insects_LowSeverity'!U25</f>
@@ -40206,11 +40206,11 @@
       </c>
       <c r="AQ25">
         <f>'51_Insects_LowSeverity'!W25</f>
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="AR25">
         <f>'51_Insects_LowSeverity'!X25</f>
-        <v>8.7750000000000004</v>
+        <v>33.274999999999999</v>
       </c>
       <c r="AS25">
         <f>'51_Insects_LowSeverity'!Y25</f>
@@ -40250,7 +40250,7 @@
       </c>
       <c r="BB25">
         <f>'51_Insects_LowSeverity'!AB25</f>
-        <v>4.5</v>
+        <v>14.5</v>
       </c>
       <c r="BC25">
         <f>'51_Insects_LowSeverity'!AC25</f>
@@ -40952,7 +40952,7 @@
       </c>
       <c r="AS28">
         <f>'51_Insects_LowSeverity'!Y28</f>
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="AT28">
         <f>'52_Insects_ModSeverity'!W28</f>

--- a/specifications/5_Insects/ScriptRules_Insects.xlsx
+++ b/specifications/5_Insects/ScriptRules_Insects.xlsx
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="426">
   <si>
     <t>* = 0.9</t>
   </si>
@@ -1147,25 +1147,10 @@
     <t>* = 1.4</t>
   </si>
   <si>
-    <t>* = 1.25 , min = 1</t>
-  </si>
-  <si>
-    <t>* = 1.25 , min = 2</t>
-  </si>
-  <si>
-    <t>* = 1.25 , min = 3</t>
-  </si>
-  <si>
     <t>* = 1.75</t>
   </si>
   <si>
     <t>* = 2</t>
-  </si>
-  <si>
-    <t>* = 1.25, min = 4</t>
-  </si>
-  <si>
-    <t>* = 2, min = 4</t>
   </si>
   <si>
     <t>FB_0029_FCCS_511</t>
@@ -1615,9 +1600,6 @@
     <t xml:space="preserve"> + =  Canopy_TotalCover * = 0.05</t>
   </si>
   <si>
-    <t xml:space="preserve"> * = 0 (MAKE EMPTY)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> = C1FSnag_Diameter</t>
   </si>
   <si>
@@ -1663,24 +1645,6 @@
     <t xml:space="preserve"> + = (OTree_Density * = 0.75) + (MTree_Density * = 0.75)</t>
   </si>
   <si>
-    <t>* = 1.75 , min = 3</t>
-  </si>
-  <si>
-    <t>* = 1.75 , min = 2</t>
-  </si>
-  <si>
-    <t>* = 1.75 , min = 1</t>
-  </si>
-  <si>
-    <t>* = 1.5 , min = 3</t>
-  </si>
-  <si>
-    <t>* = 1.5 , min = 2</t>
-  </si>
-  <si>
-    <t>* = 1.5 , min = 1</t>
-  </si>
-  <si>
     <t>* = 1/1.1</t>
   </si>
   <si>
@@ -1703,6 +1667,111 @@
   </si>
   <si>
     <t>* = 1/2</t>
+  </si>
+  <si>
+    <t>| = C1FSnag_Diameter</t>
+  </si>
+  <si>
+    <t>| = C1FSnag_Height</t>
+  </si>
+  <si>
+    <t>| = C1FSnag_Density</t>
+  </si>
+  <si>
+    <t>|If not present = OTree_HeightLiveCrown</t>
+  </si>
+  <si>
+    <t>|If not present = OTree_Diameter</t>
+  </si>
+  <si>
+    <t>|If not present = OTree_Height</t>
+  </si>
+  <si>
+    <t>| + =  Canopy_TotalCover * = 0.1</t>
+  </si>
+  <si>
+    <t>| + = (OTree_Density * = 0.1) + (MTree_Density * = 0.1)</t>
+  </si>
+  <si>
+    <t>| + =  Canopy_TotalCover * = 0.05</t>
+  </si>
+  <si>
+    <t>| + = (OTree_Density * = 0.05) + (MTree_Density * = 0.05)</t>
+  </si>
+  <si>
+    <t>| = 0</t>
+  </si>
+  <si>
+    <t>| = C1Snag_Diameter</t>
+  </si>
+  <si>
+    <t>| = C1Snag_Height</t>
+  </si>
+  <si>
+    <t>| = C1Snag_Density</t>
+  </si>
+  <si>
+    <t>| = C2Snag_Diameter</t>
+  </si>
+  <si>
+    <t>| = C2_Height</t>
+  </si>
+  <si>
+    <t>| = C2_Density</t>
+  </si>
+  <si>
+    <t>| + =  Canopy_TotalCover * = 0.4</t>
+  </si>
+  <si>
+    <t>| + = (OTree_Density * = 0.4) + (MTree_Density * = 0.4)</t>
+  </si>
+  <si>
+    <t>| + =  Canopy_TotalCover * = 0.75</t>
+  </si>
+  <si>
+    <t>| + = (OTree_Density * = 0.75) + (MTree_Density * = 0.75)</t>
+  </si>
+  <si>
+    <t>| + = SWood_1000hr * 0.25</t>
+  </si>
+  <si>
+    <t>| + = SWood_10_000hr * 0.25</t>
+  </si>
+  <si>
+    <t>| + = SWood_GT10_000hr * 0.25</t>
+  </si>
+  <si>
+    <t>* = 1.25 , min 3</t>
+  </si>
+  <si>
+    <t>* = 1.25 , min 2</t>
+  </si>
+  <si>
+    <t>* = 1.25 , min 1</t>
+  </si>
+  <si>
+    <t>* = 1.25, min 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* = 1.75 , min 3 </t>
+  </si>
+  <si>
+    <t>* = 1.75 , min 2</t>
+  </si>
+  <si>
+    <t>* = 1.75 , min 1</t>
+  </si>
+  <si>
+    <t>* = 1.5 , min 3</t>
+  </si>
+  <si>
+    <t>* = 1.5 , min 2</t>
+  </si>
+  <si>
+    <t>* = 1.5 , min 1</t>
+  </si>
+  <si>
+    <t>* = 2, min 4</t>
   </si>
 </sst>
 </file>
@@ -2883,29 +2952,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" style="29" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="27" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="27" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="27" customWidth="1"/>
     <col min="11" max="11" width="28.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C1" s="23">
         <v>511</v>
@@ -2940,7 +3009,7 @@
         <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>0</v>
@@ -2966,7 +3035,7 @@
         <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2974,13 +3043,13 @@
         <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>13</v>
@@ -2994,7 +3063,7 @@
         <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3002,7 +3071,7 @@
         <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>0</v>
@@ -3028,7 +3097,7 @@
         <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>0</v>
@@ -3054,7 +3123,7 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3062,13 +3131,13 @@
         <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>13</v>
@@ -3082,7 +3151,7 @@
         <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3090,7 +3159,7 @@
         <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>0</v>
@@ -3116,7 +3185,7 @@
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>0</v>
@@ -3142,7 +3211,7 @@
         <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3150,7 +3219,7 @@
         <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3158,7 +3227,7 @@
         <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3166,7 +3235,7 @@
         <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3174,7 +3243,7 @@
         <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3182,25 +3251,25 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3208,25 +3277,25 @@
         <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3234,25 +3303,25 @@
         <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3260,26 +3329,26 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="23" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3287,26 +3356,26 @@
         <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="23" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3314,26 +3383,26 @@
         <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="23" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3341,26 +3410,26 @@
         <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="37" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3368,34 +3437,34 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3403,25 +3472,25 @@
         <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="K26" s="36" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3429,25 +3498,25 @@
         <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3455,25 +3524,25 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3481,25 +3550,25 @@
         <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3507,25 +3576,25 @@
         <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3533,25 +3602,25 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3559,7 +3628,7 @@
         <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3567,7 +3636,7 @@
         <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3575,7 +3644,7 @@
         <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E34" s="25"/>
       <c r="J34" s="24"/>
@@ -3586,7 +3655,7 @@
         <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E35" s="25"/>
       <c r="J35" s="24" t="s">
@@ -3599,7 +3668,7 @@
         <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E36" s="25"/>
       <c r="J36" s="24"/>
@@ -3610,7 +3679,7 @@
         <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E37" s="25"/>
       <c r="J37" s="24"/>
@@ -3621,7 +3690,7 @@
         <v>139</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E38" s="25"/>
       <c r="J38" s="24" t="s">
@@ -3634,7 +3703,7 @@
         <v>140</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E39" s="25"/>
       <c r="J39" s="24"/>
@@ -3645,7 +3714,7 @@
         <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D40" s="24"/>
       <c r="G40" s="24"/>
@@ -3657,7 +3726,7 @@
         <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D41" s="24"/>
       <c r="G41" s="27" t="s">
@@ -3673,7 +3742,7 @@
         <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D42" s="24"/>
       <c r="G42" s="27" t="s">
@@ -3689,7 +3758,7 @@
         <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D43" s="24"/>
       <c r="G43" s="24"/>
@@ -3701,7 +3770,7 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D44" s="24"/>
       <c r="J44" s="24"/>
@@ -3712,7 +3781,7 @@
         <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D45" s="24"/>
       <c r="G45" s="27" t="s">
@@ -3728,7 +3797,7 @@
         <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D46" s="24"/>
       <c r="G46" s="27" t="s">
@@ -3744,7 +3813,7 @@
         <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D47" s="24"/>
       <c r="G47" s="24"/>
@@ -3756,7 +3825,7 @@
         <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>1</v>
@@ -3771,7 +3840,7 @@
         <v>11</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K48" s="25"/>
     </row>
@@ -3780,7 +3849,7 @@
         <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>1</v>
@@ -3795,7 +3864,7 @@
         <v>11</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K49" s="25"/>
     </row>
@@ -3804,7 +3873,7 @@
         <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>1</v>
@@ -3813,16 +3882,16 @@
         <v>1</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>219</v>
+        <v>415</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>219</v>
+        <v>415</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="K50" s="25" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3830,7 +3899,7 @@
         <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>1</v>
@@ -3839,16 +3908,16 @@
         <v>1</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="H51" s="28" t="s">
-        <v>218</v>
+        <v>416</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>416</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="K51" s="25" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3856,7 +3925,7 @@
         <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>1</v>
@@ -3865,16 +3934,16 @@
         <v>1</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="K52" s="25" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3882,17 +3951,17 @@
         <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G53" s="38"/>
-      <c r="H53" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="K53" s="28" t="s">
-        <v>223</v>
+      <c r="H53" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="K53" s="25" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3900,17 +3969,17 @@
         <v>191</v>
       </c>
       <c r="B54" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G54" s="38"/>
-      <c r="H54" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="K54" s="28" t="s">
-        <v>223</v>
+      <c r="H54" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="K54" s="25" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3918,17 +3987,17 @@
         <v>192</v>
       </c>
       <c r="B55" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G55" s="38"/>
-      <c r="H55" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="K55" s="28" t="s">
-        <v>223</v>
+      <c r="H55" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="K55" s="25" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3936,16 +4005,16 @@
         <v>193</v>
       </c>
       <c r="B56" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="K56" s="25" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3953,16 +4022,16 @@
         <v>194</v>
       </c>
       <c r="B57" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="K57" s="25" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3970,16 +4039,16 @@
         <v>195</v>
       </c>
       <c r="B58" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="K58" s="25" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3987,7 +4056,7 @@
         <v>155</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3995,7 +4064,7 @@
         <v>156</v>
       </c>
       <c r="B60" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4003,7 +4072,7 @@
         <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4011,7 +4080,7 @@
         <v>152</v>
       </c>
       <c r="B62" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4019,7 +4088,7 @@
         <v>153</v>
       </c>
       <c r="B63" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4027,7 +4096,7 @@
         <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4035,7 +4104,7 @@
         <v>149</v>
       </c>
       <c r="B65" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4043,7 +4112,7 @@
         <v>150</v>
       </c>
       <c r="B66" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4051,7 +4120,7 @@
         <v>151</v>
       </c>
       <c r="B67" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -4059,7 +4128,7 @@
         <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4067,7 +4136,7 @@
         <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4075,7 +4144,7 @@
         <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4083,7 +4152,7 @@
         <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4091,7 +4160,7 @@
         <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4099,7 +4168,7 @@
         <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4107,7 +4176,7 @@
         <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4115,7 +4184,7 @@
         <v>125</v>
       </c>
       <c r="B75" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4123,7 +4192,7 @@
         <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4131,7 +4200,7 @@
         <v>127</v>
       </c>
       <c r="B77" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4139,7 +4208,7 @@
         <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D78" s="24"/>
       <c r="J78" s="24"/>
@@ -4149,7 +4218,7 @@
         <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D79" s="24"/>
       <c r="J79" s="24"/>
@@ -4159,25 +4228,25 @@
         <v>130</v>
       </c>
       <c r="B80" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>1</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="G80" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J80" s="24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K80" s="25" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4185,25 +4254,25 @@
         <v>131</v>
       </c>
       <c r="B81" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>1</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="G81" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K81" s="25" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4211,7 +4280,7 @@
         <v>132</v>
       </c>
       <c r="B82" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D82" s="24"/>
       <c r="J82" s="24"/>
@@ -4221,7 +4290,7 @@
         <v>133</v>
       </c>
       <c r="B83" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D83" s="24"/>
       <c r="J83" s="24"/>
@@ -4231,7 +4300,7 @@
         <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D84" s="24"/>
     </row>
@@ -4240,7 +4309,7 @@
         <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D85" s="24"/>
     </row>
@@ -4249,7 +4318,7 @@
         <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D86" s="24"/>
       <c r="E86" s="25"/>
@@ -4265,7 +4334,7 @@
         <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D87" s="24"/>
       <c r="H87" s="25" t="s">
@@ -4280,7 +4349,7 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D88" s="24"/>
     </row>
@@ -4289,7 +4358,7 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D89" s="24"/>
     </row>
@@ -4298,7 +4367,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D90" s="24"/>
     </row>
@@ -4307,7 +4376,7 @@
         <v>110</v>
       </c>
       <c r="B91" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D91" s="24"/>
     </row>
@@ -4316,7 +4385,7 @@
         <v>111</v>
       </c>
       <c r="B92" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D92" s="24"/>
     </row>
@@ -4325,7 +4394,7 @@
         <v>112</v>
       </c>
       <c r="B93" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D93" s="24"/>
     </row>
@@ -7688,7 +7757,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>206</v>
@@ -7703,73 +7772,73 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J1" t="s">
         <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N1" t="s">
         <v>18</v>
       </c>
       <c r="O1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="T1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="U1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="V1" t="s">
         <v>24</v>
       </c>
       <c r="W1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="X1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Y1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Z1" t="s">
         <v>29</v>
       </c>
       <c r="AA1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AB1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AC1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -7778,7 +7847,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C2" s="4">
         <v>0.9</v>
@@ -7878,7 +7947,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -7974,7 +8043,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C4" s="4">
         <v>1.1000000000000001</v>
@@ -8074,7 +8143,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -8170,7 +8239,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C6" s="4">
         <v>0.9</v>
@@ -8270,7 +8339,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C7" s="4">
         <v>0.9</v>
@@ -8370,7 +8439,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -8457,7 +8526,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C9" s="4">
         <v>1.1000000000000001</v>
@@ -8548,7 +8617,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
@@ -8635,7 +8704,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C11" s="4">
         <v>0.9</v>
@@ -8726,7 +8795,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C12" s="4">
         <v>0.9</v>
@@ -8817,7 +8886,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -8910,7 +8979,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
@@ -9003,7 +9072,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
@@ -9096,7 +9165,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -9189,7 +9258,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
@@ -9282,14 +9351,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="41" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G18" s="12">
         <f>F18</f>
@@ -9376,14 +9445,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="41" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G19" s="12">
         <f>F19</f>
@@ -9470,14 +9539,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="41" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G20" s="12">
         <f>F20</f>
@@ -9564,13 +9633,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E21" s="33">
         <v>0</v>
@@ -9657,13 +9726,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E22" s="33">
         <v>0</v>
@@ -9750,13 +9819,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E23" s="33">
         <v>0</v>
@@ -9843,13 +9912,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E24" s="33">
         <v>0</v>
@@ -9936,13 +10005,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E25" s="33">
         <v>0</v>
@@ -10029,14 +10098,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="41" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" ref="G26:G33" si="54">F26</f>
@@ -10126,14 +10195,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="41" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="54"/>
@@ -10223,14 +10292,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="41" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="54"/>
@@ -10320,14 +10389,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="41" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F29" s="11">
         <v>9</v>
@@ -10420,14 +10489,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C30" s="39"/>
       <c r="D30" s="41" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F30" s="11">
         <v>60</v>
@@ -10520,14 +10589,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C31" s="39"/>
       <c r="D31" s="41" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F31" s="11">
         <v>3</v>
@@ -10620,7 +10689,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
@@ -10710,7 +10779,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
@@ -10800,7 +10869,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -10902,7 +10971,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
@@ -11004,7 +11073,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
@@ -11106,7 +11175,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
@@ -11199,7 +11268,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
@@ -11292,7 +11361,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
@@ -11385,7 +11454,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -11484,7 +11553,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
@@ -11583,7 +11652,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
@@ -11682,7 +11751,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
@@ -11781,7 +11850,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
@@ -11877,7 +11946,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
@@ -11973,7 +12042,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
@@ -12069,7 +12138,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
@@ -12165,7 +12234,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="5">
@@ -12268,7 +12337,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="5">
@@ -12371,7 +12440,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="5">
@@ -12474,7 +12543,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="5">
@@ -12577,7 +12646,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="5">
@@ -12680,7 +12749,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
@@ -12781,7 +12850,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
@@ -12882,7 +12951,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
@@ -12983,12 +13052,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="33" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F56" s="11">
         <v>5</v>
@@ -13078,12 +13147,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="33" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="F57" s="11">
         <v>11</v>
@@ -13173,12 +13242,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="33" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F58" s="11">
         <v>0</v>
@@ -13268,7 +13337,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
@@ -13358,7 +13427,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
@@ -13448,7 +13517,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
@@ -13538,7 +13607,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
@@ -13634,7 +13703,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
@@ -13730,7 +13799,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
@@ -13826,7 +13895,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
@@ -13910,7 +13979,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
@@ -13994,7 +14063,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
@@ -14078,7 +14147,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
@@ -14180,7 +14249,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
@@ -14282,7 +14351,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
@@ -14384,7 +14453,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
@@ -14471,7 +14540,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
@@ -14558,7 +14627,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
@@ -14645,7 +14714,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
@@ -14738,7 +14807,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
@@ -14828,7 +14897,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
@@ -14915,7 +14984,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
@@ -14999,7 +15068,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
@@ -15086,7 +15155,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
@@ -15173,7 +15242,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="5">
@@ -15280,7 +15349,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="5">
@@ -15387,7 +15456,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
@@ -15477,7 +15546,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
@@ -15567,7 +15636,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
@@ -15657,7 +15726,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
@@ -15747,7 +15816,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
@@ -15849,7 +15918,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
@@ -15951,7 +16020,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
@@ -16035,7 +16104,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
@@ -16119,7 +16188,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
@@ -16203,7 +16272,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
@@ -16290,7 +16359,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
@@ -16377,7 +16446,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
@@ -16510,7 +16579,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>209</v>
@@ -16525,73 +16594,73 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J1" t="s">
         <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N1" t="s">
         <v>18</v>
       </c>
       <c r="O1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="T1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="U1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="V1" t="s">
         <v>24</v>
       </c>
       <c r="W1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="X1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Y1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Z1" t="s">
         <v>29</v>
       </c>
       <c r="AA1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AB1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AC1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -16600,7 +16669,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C2" s="4">
         <v>0.6</v>
@@ -16700,7 +16769,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="8"/>
@@ -16796,7 +16865,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C4" s="4">
         <v>1.2</v>
@@ -16894,7 +16963,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="8"/>
@@ -16990,7 +17059,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C6" s="4">
         <v>0.6</v>
@@ -17090,7 +17159,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C7" s="4">
         <v>0.6</v>
@@ -17190,7 +17259,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="8"/>
@@ -17277,7 +17346,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C9" s="4">
         <v>1.2</v>
@@ -17366,7 +17435,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="8"/>
@@ -17453,7 +17522,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C11" s="4">
         <v>0.6</v>
@@ -17544,7 +17613,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C12" s="4">
         <v>0.6</v>
@@ -17635,7 +17704,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="8"/>
@@ -17728,7 +17797,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="8"/>
@@ -17821,7 +17890,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="8"/>
@@ -17914,7 +17983,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="8"/>
@@ -18007,7 +18076,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="8"/>
@@ -18100,14 +18169,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="41" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="6"/>
@@ -18194,14 +18263,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="41" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="6"/>
@@ -18288,14 +18357,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="41" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" si="6"/>
@@ -18382,13 +18451,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E21" s="33">
         <v>0</v>
@@ -18475,13 +18544,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E22" s="33">
         <v>0</v>
@@ -18568,13 +18637,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E23" s="33">
         <v>0</v>
@@ -18661,13 +18730,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E24" s="33">
         <v>0</v>
@@ -18754,13 +18823,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E25" s="33">
         <v>0</v>
@@ -18847,14 +18916,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="41" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" ref="G26:I44" si="28">F26</f>
@@ -18944,14 +19013,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="41" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="28"/>
@@ -19041,14 +19110,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="41" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="28"/>
@@ -19138,14 +19207,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="41" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F29" s="11">
         <v>9</v>
@@ -19238,14 +19307,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C30" s="39"/>
       <c r="D30" s="41" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F30" s="11">
         <v>60</v>
@@ -19338,14 +19407,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C31" s="39"/>
       <c r="D31" s="41" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F31" s="11">
         <v>3</v>
@@ -19438,7 +19507,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="8"/>
@@ -19528,7 +19597,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="8"/>
@@ -19618,7 +19687,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
@@ -19720,7 +19789,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="8"/>
@@ -19822,7 +19891,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="8"/>
@@ -19924,7 +19993,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="8"/>
@@ -20017,7 +20086,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="8"/>
@@ -20110,7 +20179,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="8"/>
@@ -20203,7 +20272,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="8"/>
@@ -20302,7 +20371,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="8">
@@ -20403,7 +20472,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="8">
@@ -20504,7 +20573,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="8"/>
@@ -20603,7 +20672,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="8"/>
@@ -20699,7 +20768,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="8">
@@ -20797,7 +20866,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="8">
@@ -20895,7 +20964,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="8"/>
@@ -20991,7 +21060,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="8">
@@ -21094,7 +21163,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="8">
@@ -21197,7 +21266,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="8">
@@ -21300,7 +21369,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="8">
@@ -21403,7 +21472,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="8">
@@ -21506,7 +21575,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="8"/>
@@ -21607,7 +21676,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="8"/>
@@ -21708,7 +21777,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="8"/>
@@ -21809,12 +21878,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="8"/>
       <c r="E56" s="33" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F56" s="11">
         <v>5</v>
@@ -21904,12 +21973,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="8"/>
       <c r="E57" s="33" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="F57" s="11">
         <v>11</v>
@@ -21999,12 +22068,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="8"/>
       <c r="E58" s="33" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F58" s="11">
         <v>0</v>
@@ -22094,7 +22163,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="8"/>
@@ -22184,7 +22253,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="8"/>
@@ -22274,7 +22343,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="8"/>
@@ -22364,7 +22433,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="8"/>
@@ -22460,7 +22529,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="8"/>
@@ -22556,7 +22625,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="8"/>
@@ -22652,7 +22721,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="8"/>
@@ -22736,7 +22805,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="8"/>
@@ -22820,7 +22889,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="8"/>
@@ -22904,7 +22973,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="8"/>
@@ -23006,7 +23075,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="8"/>
@@ -23108,7 +23177,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="8"/>
@@ -23210,7 +23279,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="8"/>
@@ -23297,7 +23366,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="8"/>
@@ -23384,7 +23453,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="8"/>
@@ -23471,7 +23540,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="8"/>
@@ -23564,7 +23633,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="8"/>
@@ -23654,7 +23723,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="8"/>
@@ -23741,7 +23810,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="8"/>
@@ -23825,7 +23894,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="8"/>
@@ -23912,7 +23981,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="8"/>
@@ -23999,7 +24068,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="8">
@@ -24106,7 +24175,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="8">
@@ -24213,7 +24282,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="8"/>
@@ -24303,7 +24372,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="8"/>
@@ -24393,7 +24462,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="8"/>
@@ -24483,7 +24552,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="8"/>
@@ -24573,7 +24642,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="8"/>
@@ -24677,7 +24746,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="8"/>
@@ -24781,7 +24850,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="8"/>
@@ -24865,7 +24934,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="8"/>
@@ -24949,7 +25018,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="8"/>
@@ -25033,7 +25102,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="8"/>
@@ -25120,7 +25189,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="8"/>
@@ -25207,7 +25276,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="8"/>
@@ -25334,7 +25403,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>213</v>
@@ -25349,73 +25418,73 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J1" t="s">
         <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N1" t="s">
         <v>18</v>
       </c>
       <c r="O1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="R1" t="s">
         <v>23</v>
       </c>
       <c r="S1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="T1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="U1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="V1" t="s">
         <v>24</v>
       </c>
       <c r="W1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="X1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Y1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Z1" t="s">
         <v>29</v>
       </c>
       <c r="AA1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AB1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AC1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -25424,7 +25493,7 @@
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C2" s="4">
         <v>0.25</v>
@@ -25524,7 +25593,7 @@
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -25620,7 +25689,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C4" s="4">
         <v>1.3</v>
@@ -25718,7 +25787,7 @@
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -25814,7 +25883,7 @@
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C6" s="4">
         <v>0.25</v>
@@ -25914,7 +25983,7 @@
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C7" s="4">
         <v>0.25</v>
@@ -26014,7 +26083,7 @@
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -26101,7 +26170,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C9" s="4">
         <v>1.3</v>
@@ -26190,7 +26259,7 @@
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
@@ -26277,7 +26346,7 @@
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C11" s="4">
         <v>0.25</v>
@@ -26368,7 +26437,7 @@
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C12" s="4">
         <v>0.25</v>
@@ -26459,7 +26528,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -26552,7 +26621,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
@@ -26645,7 +26714,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
@@ -26738,7 +26807,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -26831,7 +26900,7 @@
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
@@ -26924,14 +26993,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="41" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="16"/>
@@ -27018,14 +27087,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="41" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="16"/>
@@ -27112,14 +27181,14 @@
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
       </c>
       <c r="B20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="41" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" si="16"/>
@@ -27206,13 +27275,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E21" s="34">
         <v>0</v>
@@ -27299,13 +27368,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E22" s="34">
         <v>0</v>
@@ -27392,13 +27461,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
       </c>
       <c r="B23" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E23" s="34">
         <v>0</v>
@@ -27485,13 +27554,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
       </c>
       <c r="B24" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E24" s="34">
         <v>0</v>
@@ -27578,13 +27647,13 @@
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
       </c>
       <c r="B25" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E25" s="34">
         <v>0</v>
@@ -27671,14 +27740,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="41" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G26" s="12">
         <f>F26</f>
@@ -27768,14 +27837,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
       </c>
       <c r="B27" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="41" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G27" s="12">
         <f>F27</f>
@@ -27865,14 +27934,14 @@
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="41" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" ref="G28:I91" si="38">F28</f>
@@ -27962,14 +28031,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
       </c>
       <c r="B29" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="41" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F29" s="11">
         <v>9</v>
@@ -28062,14 +28131,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C30" s="39"/>
       <c r="D30" s="41" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F30" s="11">
         <v>60</v>
@@ -28162,14 +28231,14 @@
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
       </c>
       <c r="B31" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C31" s="39"/>
       <c r="D31" s="41" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F31" s="11">
         <v>3</v>
@@ -28262,7 +28331,7 @@
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
       </c>
       <c r="B32" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
@@ -28352,7 +28421,7 @@
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
       </c>
       <c r="B33" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
@@ -28442,7 +28511,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B34" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="8"/>
@@ -28544,7 +28613,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B35" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="8">
@@ -28648,7 +28717,7 @@
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B36" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="8"/>
@@ -28750,7 +28819,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B37" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="8"/>
@@ -28843,7 +28912,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="8">
@@ -28938,7 +29007,7 @@
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="8"/>
@@ -29031,7 +29100,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
       </c>
       <c r="B40" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="8"/>
@@ -29130,7 +29199,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="8">
@@ -29231,7 +29300,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B42" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="8">
@@ -29332,7 +29401,7 @@
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B43" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="8"/>
@@ -29431,7 +29500,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
       </c>
       <c r="B44" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="8"/>
@@ -29527,7 +29596,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
       </c>
       <c r="B45" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="8">
@@ -29625,7 +29694,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
       </c>
       <c r="B46" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="8">
@@ -29723,7 +29792,7 @@
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="8"/>
@@ -29819,7 +29888,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
       </c>
       <c r="B48" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="8">
@@ -29920,7 +29989,7 @@
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
       </c>
       <c r="B49" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="8">
@@ -30021,7 +30090,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
       </c>
       <c r="B50" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="8">
@@ -30124,7 +30193,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
       </c>
       <c r="B51" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="8">
@@ -30227,7 +30296,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
       </c>
       <c r="B52" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="8">
@@ -30330,7 +30399,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B53" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
@@ -30431,7 +30500,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B54" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
@@ -30532,7 +30601,7 @@
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B55" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
@@ -30633,12 +30702,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
       </c>
       <c r="B56" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="33" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F56" s="11">
         <v>5</v>
@@ -30728,12 +30797,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
       </c>
       <c r="B57" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="33" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="F57" s="11">
         <v>11</v>
@@ -30823,12 +30892,12 @@
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
       </c>
       <c r="B58" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="33" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F58" s="11">
         <v>0</v>
@@ -30918,7 +30987,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
@@ -31008,7 +31077,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
       </c>
       <c r="B60" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
@@ -31098,7 +31167,7 @@
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
       </c>
       <c r="B61" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
@@ -31188,7 +31257,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
       </c>
       <c r="B62" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
@@ -31284,7 +31353,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
       </c>
       <c r="B63" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
@@ -31380,7 +31449,7 @@
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
       </c>
       <c r="B64" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
@@ -31476,7 +31545,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
       </c>
       <c r="B65" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
@@ -31560,7 +31629,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
       </c>
       <c r="B66" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
@@ -31644,7 +31713,7 @@
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
       </c>
       <c r="B67" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
@@ -31728,7 +31797,7 @@
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
       </c>
       <c r="B68" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
@@ -31830,7 +31899,7 @@
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
       </c>
       <c r="B69" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
@@ -31932,7 +32001,7 @@
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
       </c>
       <c r="B70" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
@@ -32034,7 +32103,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
       </c>
       <c r="B71" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
@@ -32121,7 +32190,7 @@
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
       </c>
       <c r="B72" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
@@ -32208,7 +32277,7 @@
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
       </c>
       <c r="B73" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
@@ -32295,7 +32364,7 @@
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B74" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
@@ -32388,7 +32457,7 @@
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
       </c>
       <c r="B75" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
@@ -32478,7 +32547,7 @@
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
       </c>
       <c r="B76" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
@@ -32565,7 +32634,7 @@
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
       </c>
       <c r="B77" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
@@ -32649,7 +32718,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
       </c>
       <c r="B78" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="8"/>
@@ -32736,7 +32805,7 @@
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
       </c>
       <c r="B79" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="8"/>
@@ -32823,7 +32892,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
       </c>
       <c r="B80" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="8">
@@ -32929,7 +32998,7 @@
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
       </c>
       <c r="B81" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="8">
@@ -33035,7 +33104,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
       </c>
       <c r="B82" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="8"/>
@@ -33125,7 +33194,7 @@
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
       </c>
       <c r="B83" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="8"/>
@@ -33215,7 +33284,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
       </c>
       <c r="B84" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
@@ -33305,7 +33374,7 @@
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
       </c>
       <c r="B85" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
@@ -33395,7 +33464,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
       </c>
       <c r="B86" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
@@ -33499,7 +33568,7 @@
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
       </c>
       <c r="B87" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
@@ -33603,7 +33672,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
       </c>
       <c r="B88" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
@@ -33687,7 +33756,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B89" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
@@ -33771,7 +33840,7 @@
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
       </c>
       <c r="B90" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
@@ -33855,7 +33924,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
       </c>
       <c r="B91" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
@@ -33942,7 +34011,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
       </c>
       <c r="B92" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
@@ -34029,7 +34098,7 @@
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
       </c>
       <c r="B93" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
@@ -34149,181 +34218,181 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" t="s">
         <v>224</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>225</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>226</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>227</v>
-      </c>
-      <c r="G1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K1" t="s">
-        <v>232</v>
       </c>
       <c r="L1" t="s">
         <v>17</v>
       </c>
       <c r="M1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R1" t="s">
         <v>233</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>234</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>235</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>236</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>237</v>
-      </c>
-      <c r="R1" t="s">
-        <v>238</v>
-      </c>
-      <c r="S1" t="s">
-        <v>239</v>
-      </c>
-      <c r="T1" t="s">
-        <v>240</v>
-      </c>
-      <c r="U1" t="s">
-        <v>241</v>
       </c>
       <c r="V1" t="s">
         <v>18</v>
       </c>
       <c r="W1" t="s">
+        <v>237</v>
+      </c>
+      <c r="X1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB1" t="s">
         <v>242</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AC1" t="s">
         <v>243</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AD1" t="s">
         <v>244</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AE1" t="s">
         <v>245</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>250</v>
       </c>
       <c r="AF1" t="s">
         <v>23</v>
       </c>
       <c r="AG1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL1" t="s">
         <v>251</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AM1" t="s">
         <v>252</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AN1" t="s">
         <v>253</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AO1" t="s">
         <v>254</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>259</v>
       </c>
       <c r="AP1" t="s">
         <v>24</v>
       </c>
       <c r="AQ1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AV1" t="s">
         <v>260</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AW1" t="s">
         <v>261</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AX1" t="s">
         <v>262</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AY1" t="s">
         <v>263</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>268</v>
       </c>
       <c r="AZ1" t="s">
         <v>29</v>
       </c>
       <c r="BA1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BF1" t="s">
         <v>269</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BG1" t="s">
         <v>270</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BH1" t="s">
         <v>271</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BI1" t="s">
         <v>272</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>275</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">

--- a/specifications/5_Insects/ScriptRules_Insects.xlsx
+++ b/specifications/5_Insects/ScriptRules_Insects.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12180" windowHeight="7215" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12180" windowHeight="7215" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -2953,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7728,23 +7728,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="H33" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.42578125" customWidth="1"/>
+    <col min="1" max="1" width="80.42578125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="4" width="38.5703125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="17" width="18.5703125" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
@@ -10113,80 +10113,80 @@
         <v>0</v>
       </c>
       <c r="H26" s="15">
-        <f>G18</f>
+        <f t="shared" ref="H26:I28" si="55">G18</f>
         <v>0</v>
       </c>
       <c r="I26" s="16">
-        <f>H18</f>
+        <f t="shared" si="55"/>
         <v>9.6</v>
       </c>
       <c r="K26" s="12">
-        <f t="shared" ref="K26:K33" si="55">J26</f>
+        <f t="shared" ref="K26:K33" si="56">J26</f>
         <v>0</v>
       </c>
       <c r="L26" s="15">
-        <f>K18</f>
+        <f t="shared" ref="L26:M26" si="57">K18</f>
         <v>0</v>
       </c>
       <c r="M26" s="16">
-        <f>L18</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="O26" s="12">
-        <f t="shared" ref="O26:O33" si="56">N26</f>
+        <f t="shared" ref="O26:O33" si="58">N26</f>
         <v>0</v>
       </c>
       <c r="P26" s="15">
-        <f>O18</f>
+        <f t="shared" ref="P26:Q26" si="59">O18</f>
         <v>0</v>
       </c>
       <c r="Q26" s="16">
-        <f>P18</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="R26" s="11">
         <v>3.5</v>
       </c>
       <c r="S26" s="12">
-        <f t="shared" ref="S26:S33" si="57">R26</f>
+        <f t="shared" ref="S26:S33" si="60">R26</f>
         <v>3.5</v>
       </c>
       <c r="T26" s="15">
-        <f>S18</f>
+        <f t="shared" ref="T26:U26" si="61">S18</f>
         <v>3.5</v>
       </c>
       <c r="U26" s="16">
-        <f>T18</f>
+        <f t="shared" si="61"/>
         <v>2.9</v>
       </c>
       <c r="V26" s="11">
         <v>11</v>
       </c>
       <c r="W26" s="12">
-        <f t="shared" ref="W26:W33" si="58">V26</f>
+        <f t="shared" ref="W26:W33" si="62">V26</f>
         <v>11</v>
       </c>
       <c r="X26" s="15">
-        <f>W18</f>
+        <f t="shared" ref="X26:Y26" si="63">W18</f>
         <v>13</v>
       </c>
       <c r="Y26" s="16">
-        <f>X18</f>
+        <f t="shared" si="63"/>
         <v>9</v>
       </c>
       <c r="Z26" s="11">
         <v>12</v>
       </c>
       <c r="AA26" s="12">
-        <f t="shared" ref="AA26:AA33" si="59">Z26</f>
+        <f t="shared" ref="AA26:AA33" si="64">Z26</f>
         <v>12</v>
       </c>
       <c r="AB26" s="15">
-        <f>AA18</f>
+        <f t="shared" ref="AB26:AC26" si="65">AA18</f>
         <v>0</v>
       </c>
       <c r="AC26" s="16">
-        <f>AB18</f>
+        <f t="shared" si="65"/>
         <v>12</v>
       </c>
     </row>
@@ -10210,80 +10210,80 @@
         <v>0</v>
       </c>
       <c r="H27" s="15">
-        <f>G19</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I27" s="16">
-        <f>H19</f>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="K27" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="L27" s="15">
-        <f>K19</f>
+        <f t="shared" ref="L27:M27" si="66">K19</f>
         <v>0</v>
       </c>
       <c r="M27" s="16">
-        <f>L19</f>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="O27" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="P27" s="15">
-        <f>O19</f>
+        <f t="shared" ref="P27:Q27" si="67">O19</f>
         <v>0</v>
       </c>
       <c r="Q27" s="16">
-        <f>P19</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="R27" s="11">
         <v>20</v>
       </c>
       <c r="S27" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>20</v>
       </c>
       <c r="T27" s="15">
-        <f>S19</f>
+        <f t="shared" ref="T27:U27" si="68">S19</f>
         <v>25</v>
       </c>
       <c r="U27" s="16">
-        <f>T19</f>
+        <f t="shared" si="68"/>
         <v>25</v>
       </c>
       <c r="V27" s="11">
         <v>50</v>
       </c>
       <c r="W27" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>50</v>
       </c>
       <c r="X27" s="15">
-        <f>W19</f>
+        <f t="shared" ref="X27:Y27" si="69">W19</f>
         <v>55</v>
       </c>
       <c r="Y27" s="16">
-        <f>X19</f>
+        <f t="shared" si="69"/>
         <v>50</v>
       </c>
       <c r="Z27" s="11">
         <v>70</v>
       </c>
       <c r="AA27" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>70</v>
       </c>
       <c r="AB27" s="15">
-        <f>AA19</f>
+        <f t="shared" ref="AB27:AC27" si="70">AA19</f>
         <v>0</v>
       </c>
       <c r="AC27" s="16">
-        <f>AB19</f>
+        <f t="shared" si="70"/>
         <v>78</v>
       </c>
     </row>
@@ -10307,80 +10307,80 @@
         <v>0</v>
       </c>
       <c r="H28" s="15">
-        <f>G20</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I28" s="16">
-        <f>H20</f>
+        <f t="shared" si="55"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="K28" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="L28" s="15">
-        <f>K20</f>
+        <f t="shared" ref="L28:M28" si="71">K20</f>
         <v>0</v>
       </c>
       <c r="M28" s="16">
-        <f>L20</f>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="O28" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="P28" s="15">
-        <f>O20</f>
+        <f t="shared" ref="P28:Q28" si="72">O20</f>
         <v>0</v>
       </c>
       <c r="Q28" s="16">
-        <f>P20</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R28" s="11">
         <v>150</v>
       </c>
       <c r="S28" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>150</v>
       </c>
       <c r="T28" s="15">
-        <f>S20</f>
+        <f t="shared" ref="T28:U28" si="73">S20</f>
         <v>100</v>
       </c>
       <c r="U28" s="16">
-        <f>T20</f>
+        <f t="shared" si="73"/>
         <v>350</v>
       </c>
       <c r="V28" s="11">
         <v>10</v>
       </c>
       <c r="W28" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>10</v>
       </c>
       <c r="X28" s="15">
-        <f>W20</f>
+        <f t="shared" ref="X28:Y28" si="74">W20</f>
         <v>5</v>
       </c>
       <c r="Y28" s="16">
-        <f>X20</f>
+        <f t="shared" si="74"/>
         <v>24.5</v>
       </c>
       <c r="Z28" s="11">
         <v>3</v>
       </c>
       <c r="AA28" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
       <c r="AB28" s="15">
-        <f>AA20</f>
+        <f t="shared" ref="AB28:AC28" si="75">AA20</f>
         <v>0</v>
       </c>
       <c r="AC28" s="16">
-        <f>AB20</f>
+        <f t="shared" si="75"/>
         <v>10</v>
       </c>
     </row>
@@ -10407,80 +10407,80 @@
         <v>9</v>
       </c>
       <c r="H29" s="15">
-        <f>G26</f>
+        <f t="shared" ref="H29:I31" si="76">G26</f>
         <v>0</v>
       </c>
       <c r="I29" s="16">
-        <f>H26</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="L29" s="15">
-        <f>K26</f>
+        <f t="shared" ref="L29:M29" si="77">K26</f>
         <v>0</v>
       </c>
       <c r="M29" s="16">
-        <f>L26</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="O29" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="P29" s="15">
-        <f>O26</f>
+        <f t="shared" ref="P29:Q29" si="78">O26</f>
         <v>0</v>
       </c>
       <c r="Q29" s="16">
-        <f>P26</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="R29" s="11">
         <v>3.5</v>
       </c>
       <c r="S29" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>3.5</v>
       </c>
       <c r="T29" s="15">
-        <f>S26</f>
+        <f t="shared" ref="T29:U29" si="79">S26</f>
         <v>3.5</v>
       </c>
       <c r="U29" s="16">
-        <f>T26</f>
+        <f t="shared" si="79"/>
         <v>3.5</v>
       </c>
       <c r="V29" s="11">
         <v>11</v>
       </c>
       <c r="W29" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>11</v>
       </c>
       <c r="X29" s="15">
-        <f>W26</f>
+        <f t="shared" ref="X29:Y29" si="80">W26</f>
         <v>11</v>
       </c>
       <c r="Y29" s="16">
-        <f>X26</f>
+        <f t="shared" si="80"/>
         <v>13</v>
       </c>
       <c r="Z29" s="11">
         <v>10</v>
       </c>
       <c r="AA29" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="AB29" s="15">
-        <f>AA26</f>
+        <f t="shared" ref="AB29:AC29" si="81">AA26</f>
         <v>12</v>
       </c>
       <c r="AC29" s="16">
-        <f>AB26</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
     </row>
@@ -10507,80 +10507,80 @@
         <v>60</v>
       </c>
       <c r="H30" s="15">
-        <f>G27</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="I30" s="16">
-        <f>H27</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="L30" s="15">
-        <f>K27</f>
+        <f t="shared" ref="L30:M30" si="82">K27</f>
         <v>0</v>
       </c>
       <c r="M30" s="16">
-        <f>L27</f>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="O30" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="P30" s="15">
-        <f>O27</f>
+        <f t="shared" ref="P30:Q30" si="83">O27</f>
         <v>0</v>
       </c>
       <c r="Q30" s="16">
-        <f>P27</f>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="R30" s="11">
         <v>15</v>
       </c>
       <c r="S30" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>15</v>
       </c>
       <c r="T30" s="15">
-        <f>S27</f>
+        <f t="shared" ref="T30:U30" si="84">S27</f>
         <v>20</v>
       </c>
       <c r="U30" s="16">
-        <f>T27</f>
+        <f t="shared" si="84"/>
         <v>25</v>
       </c>
       <c r="V30" s="11">
         <v>40</v>
       </c>
       <c r="W30" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>40</v>
       </c>
       <c r="X30" s="15">
-        <f>W27</f>
+        <f t="shared" ref="X30:Y30" si="85">W27</f>
         <v>50</v>
       </c>
       <c r="Y30" s="16">
-        <f>X27</f>
+        <f t="shared" si="85"/>
         <v>55</v>
       </c>
       <c r="Z30" s="11">
         <v>60</v>
       </c>
       <c r="AA30" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>60</v>
       </c>
       <c r="AB30" s="15">
-        <f>AA27</f>
+        <f t="shared" ref="AB30:AC30" si="86">AA27</f>
         <v>70</v>
       </c>
       <c r="AC30" s="16">
-        <f>AB27</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
     </row>
@@ -10607,80 +10607,80 @@
         <v>3</v>
       </c>
       <c r="H31" s="15">
-        <f>G28</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="I31" s="16">
-        <f>H28</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="L31" s="15">
-        <f>K28</f>
+        <f t="shared" ref="L31:M31" si="87">K28</f>
         <v>0</v>
       </c>
       <c r="M31" s="16">
-        <f>L28</f>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="O31" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="P31" s="15">
-        <f>O28</f>
+        <f t="shared" ref="P31:Q31" si="88">O28</f>
         <v>0</v>
       </c>
       <c r="Q31" s="16">
-        <f>P28</f>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="R31" s="11">
         <v>150</v>
       </c>
       <c r="S31" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>150</v>
       </c>
       <c r="T31" s="15">
-        <f>S28</f>
+        <f t="shared" ref="T31:U31" si="89">S28</f>
         <v>150</v>
       </c>
       <c r="U31" s="16">
-        <f>T28</f>
+        <f t="shared" si="89"/>
         <v>100</v>
       </c>
       <c r="V31" s="11">
         <v>5</v>
       </c>
       <c r="W31" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>5</v>
       </c>
       <c r="X31" s="15">
-        <f>W28</f>
+        <f t="shared" ref="X31:Y31" si="90">W28</f>
         <v>10</v>
       </c>
       <c r="Y31" s="16">
-        <f>X28</f>
+        <f t="shared" si="90"/>
         <v>5</v>
       </c>
       <c r="Z31" s="11">
         <v>3</v>
       </c>
       <c r="AA31" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
       <c r="AB31" s="15">
-        <f>AA28</f>
+        <f t="shared" ref="AB31:AC31" si="91">AA28</f>
         <v>3</v>
       </c>
       <c r="AC31" s="16">
-        <f>AB28</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
     </row>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="15">
-        <f t="shared" ref="H32:H47" si="60">G32</f>
+        <f t="shared" ref="H32:H47" si="92">G32</f>
         <v>0</v>
       </c>
       <c r="I32" s="16">
@@ -10708,11 +10708,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="L32" s="15">
-        <f t="shared" ref="L32:L47" si="61">K32</f>
+        <f t="shared" ref="L32:L47" si="93">K32</f>
         <v>0</v>
       </c>
       <c r="M32" s="16">
@@ -10720,11 +10720,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="P32" s="15">
-        <f t="shared" ref="P32:P47" si="62">O32</f>
+        <f t="shared" ref="P32:P47" si="94">O32</f>
         <v>0</v>
       </c>
       <c r="Q32" s="16">
@@ -10735,11 +10735,11 @@
         <v>4</v>
       </c>
       <c r="S32" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="T32" s="15">
-        <f t="shared" ref="T32:T47" si="63">S32</f>
+        <f t="shared" ref="T32:T47" si="95">S32</f>
         <v>4</v>
       </c>
       <c r="U32" s="16">
@@ -10750,11 +10750,11 @@
         <v>15</v>
       </c>
       <c r="W32" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>15</v>
       </c>
       <c r="X32" s="15">
-        <f t="shared" ref="X32:X47" si="64">W32</f>
+        <f t="shared" ref="X32:X47" si="96">W32</f>
         <v>15</v>
       </c>
       <c r="Y32" s="16">
@@ -10762,11 +10762,11 @@
         <v>15</v>
       </c>
       <c r="AA32" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AB32" s="15">
-        <f t="shared" ref="AB32:AB47" si="65">AA32</f>
+        <f t="shared" ref="AB32:AB47" si="97">AA32</f>
         <v>0</v>
       </c>
       <c r="AC32" s="16">
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="I33" s="16">
@@ -10798,11 +10798,11 @@
         <v>0</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="L33" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M33" s="16">
@@ -10810,11 +10810,11 @@
         <v>0</v>
       </c>
       <c r="O33" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="P33" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="Q33" s="16">
@@ -10825,11 +10825,11 @@
         <v>0</v>
       </c>
       <c r="S33" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="T33" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="U33" s="16">
@@ -10840,11 +10840,11 @@
         <v>5</v>
       </c>
       <c r="W33" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>5</v>
       </c>
       <c r="X33" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>5</v>
       </c>
       <c r="Y33" s="16">
@@ -10852,11 +10852,11 @@
         <v>5</v>
       </c>
       <c r="AA33" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="AB33" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AC33" s="16">
@@ -10883,11 +10883,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H34" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="I34" s="16">
-        <f t="shared" ref="I34:I47" si="66">H34</f>
+        <f t="shared" ref="I34:I47" si="98">H34</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="J34" s="11">
@@ -10898,11 +10898,11 @@
         <v>5</v>
       </c>
       <c r="L34" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>5</v>
       </c>
       <c r="M34" s="16">
-        <f t="shared" ref="M34:M47" si="67">L34</f>
+        <f t="shared" ref="M34:M47" si="99">L34</f>
         <v>5</v>
       </c>
       <c r="N34" s="11">
@@ -10913,11 +10913,11 @@
         <v>3</v>
       </c>
       <c r="P34" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>3</v>
       </c>
       <c r="Q34" s="16">
-        <f t="shared" ref="Q34:Q47" si="68">P34</f>
+        <f t="shared" ref="Q34:Q47" si="100">P34</f>
         <v>3</v>
       </c>
       <c r="R34" s="11">
@@ -10928,11 +10928,11 @@
         <v>5</v>
       </c>
       <c r="T34" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>5</v>
       </c>
       <c r="U34" s="16">
-        <f t="shared" ref="U34:U47" si="69">T34</f>
+        <f t="shared" ref="U34:U47" si="101">T34</f>
         <v>5</v>
       </c>
       <c r="V34" s="11">
@@ -10943,11 +10943,11 @@
         <v>6</v>
       </c>
       <c r="X34" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>6</v>
       </c>
       <c r="Y34" s="16">
-        <f t="shared" ref="Y34:Y47" si="70">X34</f>
+        <f t="shared" ref="Y34:Y47" si="102">X34</f>
         <v>6</v>
       </c>
       <c r="Z34" s="11">
@@ -10958,11 +10958,11 @@
         <v>5</v>
       </c>
       <c r="AB34" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>5</v>
       </c>
       <c r="AC34" s="16">
-        <f t="shared" ref="AC34:AC47" si="71">AB34</f>
+        <f t="shared" ref="AC34:AC47" si="103">AB34</f>
         <v>5</v>
       </c>
     </row>
@@ -10981,90 +10981,90 @@
         <v>21.6</v>
       </c>
       <c r="G35" s="12">
-        <f t="shared" ref="G35:G47" si="72">F35</f>
+        <f t="shared" ref="G35:G47" si="104">F35</f>
         <v>21.6</v>
       </c>
       <c r="H35" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>21.6</v>
       </c>
       <c r="I35" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="98"/>
         <v>21.6</v>
       </c>
       <c r="J35" s="11">
         <v>70</v>
       </c>
       <c r="K35" s="12">
-        <f t="shared" ref="K35:K47" si="73">J35</f>
+        <f t="shared" ref="K35:K47" si="105">J35</f>
         <v>70</v>
       </c>
       <c r="L35" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>70</v>
       </c>
       <c r="M35" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="99"/>
         <v>70</v>
       </c>
       <c r="N35" s="11">
         <v>2</v>
       </c>
       <c r="O35" s="12">
-        <f t="shared" ref="O35:O47" si="74">N35</f>
+        <f t="shared" ref="O35:O47" si="106">N35</f>
         <v>2</v>
       </c>
       <c r="P35" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>2</v>
       </c>
       <c r="Q35" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="100"/>
         <v>2</v>
       </c>
       <c r="R35" s="11">
         <v>10</v>
       </c>
       <c r="S35" s="12">
-        <f t="shared" ref="S35:S47" si="75">R35</f>
+        <f t="shared" ref="S35:S47" si="107">R35</f>
         <v>10</v>
       </c>
       <c r="T35" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>10</v>
       </c>
       <c r="U35" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="101"/>
         <v>10</v>
       </c>
       <c r="V35" s="11">
         <v>30</v>
       </c>
       <c r="W35" s="12">
-        <f t="shared" ref="W35:W47" si="76">V35</f>
+        <f t="shared" ref="W35:W47" si="108">V35</f>
         <v>30</v>
       </c>
       <c r="X35" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>30</v>
       </c>
       <c r="Y35" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="102"/>
         <v>30</v>
       </c>
       <c r="Z35" s="11">
         <v>80</v>
       </c>
       <c r="AA35" s="12">
-        <f t="shared" ref="AA35:AA47" si="77">Z35</f>
+        <f t="shared" ref="AA35:AA47" si="109">Z35</f>
         <v>80</v>
       </c>
       <c r="AB35" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>80</v>
       </c>
       <c r="AC35" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="103"/>
         <v>80</v>
       </c>
     </row>
@@ -11083,90 +11083,90 @@
         <v>85</v>
       </c>
       <c r="G36" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="104"/>
         <v>85</v>
       </c>
       <c r="H36" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>85</v>
       </c>
       <c r="I36" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="98"/>
         <v>85</v>
       </c>
       <c r="J36" s="11">
         <v>85</v>
       </c>
       <c r="K36" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="105"/>
         <v>85</v>
       </c>
       <c r="L36" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>85</v>
       </c>
       <c r="M36" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="99"/>
         <v>85</v>
       </c>
       <c r="N36" s="11">
         <v>100</v>
       </c>
       <c r="O36" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="106"/>
         <v>100</v>
       </c>
       <c r="P36" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>100</v>
       </c>
       <c r="Q36" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="100"/>
         <v>100</v>
       </c>
       <c r="R36" s="11">
         <v>90</v>
       </c>
       <c r="S36" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="107"/>
         <v>90</v>
       </c>
       <c r="T36" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>90</v>
       </c>
       <c r="U36" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="101"/>
         <v>90</v>
       </c>
       <c r="V36" s="11">
         <v>85</v>
       </c>
       <c r="W36" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="108"/>
         <v>85</v>
       </c>
       <c r="X36" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>85</v>
       </c>
       <c r="Y36" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="102"/>
         <v>85</v>
       </c>
       <c r="Z36" s="11">
         <v>90</v>
       </c>
       <c r="AA36" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="109"/>
         <v>90</v>
       </c>
       <c r="AB36" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>90</v>
       </c>
       <c r="AC36" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="103"/>
         <v>90</v>
       </c>
     </row>
@@ -11185,81 +11185,81 @@
         <v>0.3</v>
       </c>
       <c r="G37" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="104"/>
         <v>0.3</v>
       </c>
       <c r="H37" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0.3</v>
       </c>
       <c r="I37" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="98"/>
         <v>0.3</v>
       </c>
       <c r="J37" s="11">
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="105"/>
         <v>2</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>2</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="99"/>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="Q37" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>1</v>
       </c>
       <c r="U37" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="X37" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Y37" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AB37" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AC37" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
     </row>
@@ -11278,81 +11278,81 @@
         <v>1.2</v>
       </c>
       <c r="G38" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="104"/>
         <v>1.2</v>
       </c>
       <c r="H38" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>1.2</v>
       </c>
       <c r="I38" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="98"/>
         <v>1.2</v>
       </c>
       <c r="J38" s="11">
         <v>5</v>
       </c>
       <c r="K38" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="105"/>
         <v>5</v>
       </c>
       <c r="L38" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>5</v>
       </c>
       <c r="M38" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="99"/>
         <v>5</v>
       </c>
       <c r="O38" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="P38" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="R38" s="11">
         <v>20</v>
       </c>
       <c r="S38" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="107"/>
         <v>20</v>
       </c>
       <c r="T38" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>20</v>
       </c>
       <c r="U38" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="101"/>
         <v>20</v>
       </c>
       <c r="W38" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="X38" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Y38" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="AA38" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AB38" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AC38" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
     </row>
@@ -11371,81 +11371,81 @@
         <v>95</v>
       </c>
       <c r="G39" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="104"/>
         <v>95</v>
       </c>
       <c r="H39" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>95</v>
       </c>
       <c r="I39" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="98"/>
         <v>95</v>
       </c>
       <c r="J39" s="11">
         <v>85</v>
       </c>
       <c r="K39" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="105"/>
         <v>85</v>
       </c>
       <c r="L39" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>85</v>
       </c>
       <c r="M39" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="99"/>
         <v>85</v>
       </c>
       <c r="O39" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="P39" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="Q39" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="R39" s="11">
         <v>90</v>
       </c>
       <c r="S39" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="107"/>
         <v>90</v>
       </c>
       <c r="T39" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>90</v>
       </c>
       <c r="U39" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="101"/>
         <v>90</v>
       </c>
       <c r="W39" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="X39" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Y39" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="AA39" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AB39" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="AC39" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
     </row>
@@ -11464,87 +11464,87 @@
         <v>0.9</v>
       </c>
       <c r="G40" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="104"/>
         <v>0.9</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0.9</v>
       </c>
       <c r="I40" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="98"/>
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="N40" s="11">
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="106"/>
         <v>2</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>2</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="100"/>
         <v>2</v>
       </c>
       <c r="R40" s="11">
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="107"/>
         <v>1</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>1</v>
       </c>
       <c r="U40" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="V40" s="11">
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="108"/>
         <v>2.5</v>
       </c>
       <c r="X40" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>2.5</v>
       </c>
       <c r="Y40" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="102"/>
         <v>2.5</v>
       </c>
       <c r="Z40" s="11">
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="109"/>
         <v>2</v>
       </c>
       <c r="AB40" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>2</v>
       </c>
       <c r="AC40" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="103"/>
         <v>2</v>
       </c>
     </row>
@@ -11563,87 +11563,87 @@
         <v>0.1</v>
       </c>
       <c r="G41" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="104"/>
         <v>0.1</v>
       </c>
       <c r="H41" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0.1</v>
       </c>
       <c r="I41" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="98"/>
         <v>0.1</v>
       </c>
       <c r="K41" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="L41" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M41" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="N41" s="11">
         <v>1</v>
       </c>
       <c r="O41" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="106"/>
         <v>1</v>
       </c>
       <c r="P41" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
       <c r="Q41" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="100"/>
         <v>1</v>
       </c>
       <c r="R41" s="11">
         <v>0.01</v>
       </c>
       <c r="S41" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="107"/>
         <v>0.01</v>
       </c>
       <c r="T41" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>0.01</v>
       </c>
       <c r="U41" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="101"/>
         <v>0.01</v>
       </c>
       <c r="V41" s="11">
         <v>0.4</v>
       </c>
       <c r="W41" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="108"/>
         <v>0.4</v>
       </c>
       <c r="X41" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0.4</v>
       </c>
       <c r="Y41" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="102"/>
         <v>0.4</v>
       </c>
       <c r="Z41" s="11">
         <v>0.1</v>
       </c>
       <c r="AA41" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="109"/>
         <v>0.1</v>
       </c>
       <c r="AB41" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>0.1</v>
       </c>
       <c r="AC41" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="103"/>
         <v>0.1</v>
       </c>
     </row>
@@ -11662,87 +11662,87 @@
         <v>0.7</v>
       </c>
       <c r="G42" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="104"/>
         <v>0.7</v>
       </c>
       <c r="H42" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0.7</v>
       </c>
       <c r="I42" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="98"/>
         <v>0.7</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="L42" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M42" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="N42" s="11">
         <v>90</v>
       </c>
       <c r="O42" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="106"/>
         <v>90</v>
       </c>
       <c r="P42" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>90</v>
       </c>
       <c r="Q42" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="100"/>
         <v>90</v>
       </c>
       <c r="R42" s="11">
         <v>2</v>
       </c>
       <c r="S42" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="107"/>
         <v>2</v>
       </c>
       <c r="T42" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>2</v>
       </c>
       <c r="U42" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="101"/>
         <v>2</v>
       </c>
       <c r="V42" s="11">
         <v>30</v>
       </c>
       <c r="W42" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="108"/>
         <v>30</v>
       </c>
       <c r="X42" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>30</v>
       </c>
       <c r="Y42" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="102"/>
         <v>30</v>
       </c>
       <c r="Z42" s="11">
         <v>20</v>
       </c>
       <c r="AA42" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="109"/>
         <v>20</v>
       </c>
       <c r="AB42" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>20</v>
       </c>
       <c r="AC42" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="103"/>
         <v>20</v>
       </c>
     </row>
@@ -11761,87 +11761,87 @@
         <v>95</v>
       </c>
       <c r="G43" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="104"/>
         <v>95</v>
       </c>
       <c r="H43" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>95</v>
       </c>
       <c r="I43" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="98"/>
         <v>95</v>
       </c>
       <c r="K43" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="L43" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M43" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="N43" s="11">
         <v>85</v>
       </c>
       <c r="O43" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="106"/>
         <v>85</v>
       </c>
       <c r="P43" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>85</v>
       </c>
       <c r="Q43" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="100"/>
         <v>85</v>
       </c>
       <c r="R43" s="11">
         <v>90</v>
       </c>
       <c r="S43" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="107"/>
         <v>90</v>
       </c>
       <c r="T43" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>90</v>
       </c>
       <c r="U43" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="101"/>
         <v>90</v>
       </c>
       <c r="V43" s="11">
         <v>80</v>
       </c>
       <c r="W43" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="108"/>
         <v>80</v>
       </c>
       <c r="X43" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>80</v>
       </c>
       <c r="Y43" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="102"/>
         <v>80</v>
       </c>
       <c r="Z43" s="11">
         <v>60</v>
       </c>
       <c r="AA43" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="109"/>
         <v>60</v>
       </c>
       <c r="AB43" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>60</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="103"/>
         <v>60</v>
       </c>
     </row>
@@ -11860,84 +11860,84 @@
         <v>0.9</v>
       </c>
       <c r="G44" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="104"/>
         <v>0.9</v>
       </c>
       <c r="H44" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0.9</v>
       </c>
       <c r="I44" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="98"/>
         <v>0.9</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="N44" s="11">
         <v>1</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="106"/>
         <v>1</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
       <c r="Q44" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="100"/>
         <v>1</v>
       </c>
       <c r="R44" s="11">
         <v>0.5</v>
       </c>
       <c r="S44" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="107"/>
         <v>0.5</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>0.5</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="101"/>
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="X44" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Y44" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="Z44" s="11">
         <v>1</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="109"/>
         <v>1</v>
       </c>
       <c r="AB44" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
       <c r="AC44" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="103"/>
         <v>1</v>
       </c>
     </row>
@@ -11956,84 +11956,84 @@
         <v>0.1</v>
       </c>
       <c r="G45" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="104"/>
         <v>0.1</v>
       </c>
       <c r="H45" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0.1</v>
       </c>
       <c r="I45" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="98"/>
         <v>0.1</v>
       </c>
       <c r="K45" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="L45" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M45" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="N45" s="11">
         <v>0.01</v>
       </c>
       <c r="O45" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="106"/>
         <v>0.01</v>
       </c>
       <c r="P45" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0.01</v>
       </c>
       <c r="Q45" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="100"/>
         <v>0.01</v>
       </c>
       <c r="R45" s="11">
         <v>0.02</v>
       </c>
       <c r="S45" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="107"/>
         <v>0.02</v>
       </c>
       <c r="T45" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>0.02</v>
       </c>
       <c r="U45" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="101"/>
         <v>0.02</v>
       </c>
       <c r="W45" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="X45" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Y45" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="Z45" s="11">
         <v>0.1</v>
       </c>
       <c r="AA45" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="109"/>
         <v>0.1</v>
       </c>
       <c r="AB45" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>0.1</v>
       </c>
       <c r="AC45" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="103"/>
         <v>0.1</v>
       </c>
     </row>
@@ -12052,84 +12052,84 @@
         <v>0.2</v>
       </c>
       <c r="G46" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="104"/>
         <v>0.2</v>
       </c>
       <c r="H46" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>0.2</v>
       </c>
       <c r="I46" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="98"/>
         <v>0.2</v>
       </c>
       <c r="K46" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="L46" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M46" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="N46" s="11">
         <v>8</v>
       </c>
       <c r="O46" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="106"/>
         <v>8</v>
       </c>
       <c r="P46" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>8</v>
       </c>
       <c r="Q46" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="100"/>
         <v>8</v>
       </c>
       <c r="R46" s="11">
         <v>5</v>
       </c>
       <c r="S46" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="107"/>
         <v>5</v>
       </c>
       <c r="T46" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>5</v>
       </c>
       <c r="U46" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="101"/>
         <v>5</v>
       </c>
       <c r="W46" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="X46" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Y46" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="Z46" s="11">
         <v>20</v>
       </c>
       <c r="AA46" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="109"/>
         <v>20</v>
       </c>
       <c r="AB46" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>20</v>
       </c>
       <c r="AC46" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="103"/>
         <v>20</v>
       </c>
     </row>
@@ -12148,84 +12148,84 @@
         <v>85</v>
       </c>
       <c r="G47" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="104"/>
         <v>85</v>
       </c>
       <c r="H47" s="15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="92"/>
         <v>85</v>
       </c>
       <c r="I47" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="98"/>
         <v>85</v>
       </c>
       <c r="K47" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="L47" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M47" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="N47" s="11">
         <v>70</v>
       </c>
       <c r="O47" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="106"/>
         <v>70</v>
       </c>
       <c r="P47" s="15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>70</v>
       </c>
       <c r="Q47" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="100"/>
         <v>70</v>
       </c>
       <c r="R47" s="11">
         <v>90</v>
       </c>
       <c r="S47" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="107"/>
         <v>90</v>
       </c>
       <c r="T47" s="15">
-        <f t="shared" si="63"/>
+        <f t="shared" si="95"/>
         <v>90</v>
       </c>
       <c r="U47" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="101"/>
         <v>90</v>
       </c>
       <c r="W47" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="X47" s="15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
         <v>60</v>
       </c>
       <c r="AA47" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="109"/>
         <v>60</v>
       </c>
       <c r="AB47" s="15">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>60</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="103"/>
         <v>60</v>
       </c>
     </row>
@@ -12351,7 +12351,7 @@
         <v>70</v>
       </c>
       <c r="G49" s="12">
-        <f t="shared" ref="G49:I93" si="78">F49</f>
+        <f t="shared" ref="G49:I93" si="110">F49</f>
         <v>70</v>
       </c>
       <c r="H49" s="15">
@@ -12366,7 +12366,7 @@
         <v>50</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" ref="K49:K93" si="79">J49</f>
+        <f t="shared" ref="K49:K93" si="111">J49</f>
         <v>50</v>
       </c>
       <c r="L49" s="15">
@@ -12378,7 +12378,7 @@
         <v>60.500000000000014</v>
       </c>
       <c r="O49" s="12">
-        <f t="shared" ref="O49:O93" si="80">N49</f>
+        <f t="shared" ref="O49:O93" si="112">N49</f>
         <v>0</v>
       </c>
       <c r="P49" s="15">
@@ -12393,7 +12393,7 @@
         <v>30</v>
       </c>
       <c r="S49" s="12">
-        <f t="shared" ref="S49:S93" si="81">R49</f>
+        <f t="shared" ref="S49:S93" si="113">R49</f>
         <v>30</v>
       </c>
       <c r="T49" s="15">
@@ -12408,7 +12408,7 @@
         <v>40</v>
       </c>
       <c r="W49" s="12">
-        <f t="shared" ref="W49:W93" si="82">V49</f>
+        <f t="shared" ref="W49:W93" si="114">V49</f>
         <v>40</v>
       </c>
       <c r="X49" s="15">
@@ -12423,7 +12423,7 @@
         <v>15</v>
       </c>
       <c r="AA49" s="12">
-        <f t="shared" ref="AA49:AA93" si="83">Z49</f>
+        <f t="shared" ref="AA49:AA93" si="115">Z49</f>
         <v>15</v>
       </c>
       <c r="AB49" s="15">
@@ -12454,7 +12454,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>2</v>
       </c>
       <c r="H50" s="15">
@@ -12469,7 +12469,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
       <c r="L50" s="15">
@@ -12481,7 +12481,7 @@
         <v>1.2100000000000002</v>
       </c>
       <c r="O50" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P50" s="15">
@@ -12496,7 +12496,7 @@
         <v>0.5</v>
       </c>
       <c r="S50" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0.5</v>
       </c>
       <c r="T50" s="15">
@@ -12511,7 +12511,7 @@
         <v>1</v>
       </c>
       <c r="W50" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="X50" s="15">
@@ -12526,7 +12526,7 @@
         <v>0.3</v>
       </c>
       <c r="AA50" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0.3</v>
       </c>
       <c r="AB50" s="15">
@@ -12557,7 +12557,7 @@
         <v>1.5</v>
       </c>
       <c r="G51" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>1.5</v>
       </c>
       <c r="H51" s="15">
@@ -12572,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
       <c r="L51" s="15">
@@ -12584,7 +12584,7 @@
         <v>1.2100000000000002</v>
       </c>
       <c r="O51" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P51" s="15">
@@ -12599,7 +12599,7 @@
         <v>0.2</v>
       </c>
       <c r="S51" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0.2</v>
       </c>
       <c r="T51" s="15">
@@ -12614,7 +12614,7 @@
         <v>0.5</v>
       </c>
       <c r="W51" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0.5</v>
       </c>
       <c r="X51" s="15">
@@ -12629,7 +12629,7 @@
         <v>0.4</v>
       </c>
       <c r="AA51" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0.4</v>
       </c>
       <c r="AB51" s="15">
@@ -12660,7 +12660,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
       <c r="H52" s="15">
@@ -12675,7 +12675,7 @@
         <v>0.5</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0.5</v>
       </c>
       <c r="L52" s="15">
@@ -12687,7 +12687,7 @@
         <v>0.60500000000000009</v>
       </c>
       <c r="O52" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P52" s="15">
@@ -12702,7 +12702,7 @@
         <v>0.1</v>
       </c>
       <c r="S52" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0.1</v>
       </c>
       <c r="T52" s="15">
@@ -12717,7 +12717,7 @@
         <v>0.3</v>
       </c>
       <c r="W52" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0.3</v>
       </c>
       <c r="X52" s="15">
@@ -12732,7 +12732,7 @@
         <v>0.02</v>
       </c>
       <c r="AA52" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0.02</v>
       </c>
       <c r="AB52" s="15">
@@ -12761,11 +12761,11 @@
         <v>6</v>
       </c>
       <c r="G53" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>6</v>
       </c>
       <c r="H53" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>6</v>
       </c>
       <c r="I53" s="16">
@@ -12776,11 +12776,11 @@
         <v>0</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L53" s="15">
-        <f t="shared" ref="L53:M93" si="84">K53</f>
+        <f t="shared" ref="L53:M93" si="116">K53</f>
         <v>0</v>
       </c>
       <c r="M53" s="16">
@@ -12788,11 +12788,11 @@
         <v>0</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P53" s="15">
-        <f t="shared" ref="P53:Q93" si="85">O53</f>
+        <f t="shared" ref="P53:Q93" si="117">O53</f>
         <v>0</v>
       </c>
       <c r="Q53" s="16">
@@ -12803,11 +12803,11 @@
         <v>1</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="T53" s="15">
-        <f t="shared" ref="T53:U93" si="86">S53</f>
+        <f t="shared" ref="T53:U93" si="118">S53</f>
         <v>1</v>
       </c>
       <c r="U53" s="16">
@@ -12818,11 +12818,11 @@
         <v>1.2</v>
       </c>
       <c r="W53" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>1.2</v>
       </c>
       <c r="X53" s="15">
-        <f t="shared" ref="X53:Y93" si="87">W53</f>
+        <f t="shared" ref="X53:Y93" si="119">W53</f>
         <v>1.2</v>
       </c>
       <c r="Y53" s="16">
@@ -12833,11 +12833,11 @@
         <v>0.5</v>
       </c>
       <c r="AA53" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0.5</v>
       </c>
       <c r="AB53" s="15">
-        <f t="shared" ref="AB53:AC93" si="88">AA53</f>
+        <f t="shared" ref="AB53:AC93" si="120">AA53</f>
         <v>0.5</v>
       </c>
       <c r="AC53" s="16">
@@ -12862,11 +12862,11 @@
         <v>12</v>
       </c>
       <c r="G54" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>12</v>
       </c>
       <c r="H54" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>12</v>
       </c>
       <c r="I54" s="16">
@@ -12877,11 +12877,11 @@
         <v>0</v>
       </c>
       <c r="K54" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L54" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M54" s="16">
@@ -12889,11 +12889,11 @@
         <v>0</v>
       </c>
       <c r="O54" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P54" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q54" s="16">
@@ -12904,11 +12904,11 @@
         <v>0</v>
       </c>
       <c r="S54" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T54" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U54" s="16">
@@ -12919,11 +12919,11 @@
         <v>0.5</v>
       </c>
       <c r="W54" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0.5</v>
       </c>
       <c r="X54" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0.5</v>
       </c>
       <c r="Y54" s="16">
@@ -12934,11 +12934,11 @@
         <v>0</v>
       </c>
       <c r="AA54" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB54" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC54" s="16">
@@ -12963,11 +12963,11 @@
         <v>0</v>
       </c>
       <c r="G55" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H55" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I55" s="16">
@@ -12978,11 +12978,11 @@
         <v>0</v>
       </c>
       <c r="K55" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L55" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M55" s="16">
@@ -12990,11 +12990,11 @@
         <v>0</v>
       </c>
       <c r="O55" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P55" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q55" s="16">
@@ -13005,11 +13005,11 @@
         <v>0</v>
       </c>
       <c r="S55" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T55" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U55" s="16">
@@ -13020,11 +13020,11 @@
         <v>0.5</v>
       </c>
       <c r="W55" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0.5</v>
       </c>
       <c r="X55" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0.5</v>
       </c>
       <c r="Y55" s="16">
@@ -13035,11 +13035,11 @@
         <v>0</v>
       </c>
       <c r="AA55" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB55" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC55" s="16">
@@ -13064,11 +13064,11 @@
         <v>5</v>
       </c>
       <c r="G56" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>5</v>
       </c>
       <c r="H56" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>5</v>
       </c>
       <c r="I56" s="16">
@@ -13076,11 +13076,11 @@
         <v>6.5</v>
       </c>
       <c r="K56" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L56" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M56" s="16">
@@ -13088,11 +13088,11 @@
         <v>0</v>
       </c>
       <c r="O56" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P56" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q56" s="16">
@@ -13103,11 +13103,11 @@
         <v>0.5</v>
       </c>
       <c r="S56" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0.5</v>
       </c>
       <c r="T56" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0.5</v>
       </c>
       <c r="U56" s="16">
@@ -13118,11 +13118,11 @@
         <v>0.75</v>
       </c>
       <c r="W56" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0.75</v>
       </c>
       <c r="X56" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0.75</v>
       </c>
       <c r="Y56" s="16">
@@ -13130,11 +13130,11 @@
         <v>1.05</v>
       </c>
       <c r="AA56" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB56" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC56" s="16">
@@ -13159,11 +13159,11 @@
         <v>11</v>
       </c>
       <c r="G57" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>11</v>
       </c>
       <c r="H57" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>11</v>
       </c>
       <c r="I57" s="16">
@@ -13171,11 +13171,11 @@
         <v>14</v>
       </c>
       <c r="K57" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L57" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M57" s="16">
@@ -13183,11 +13183,11 @@
         <v>0</v>
       </c>
       <c r="O57" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P57" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q57" s="16">
@@ -13198,11 +13198,11 @@
         <v>0</v>
       </c>
       <c r="S57" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T57" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U57" s="16">
@@ -13213,11 +13213,11 @@
         <v>0.3</v>
       </c>
       <c r="W57" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0.3</v>
       </c>
       <c r="X57" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0.3</v>
       </c>
       <c r="Y57" s="16">
@@ -13225,11 +13225,11 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="AA57" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB57" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC57" s="16">
@@ -13254,11 +13254,11 @@
         <v>0</v>
       </c>
       <c r="G58" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H58" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I58" s="16">
@@ -13266,11 +13266,11 @@
         <v>0</v>
       </c>
       <c r="K58" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L58" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M58" s="16">
@@ -13278,11 +13278,11 @@
         <v>0</v>
       </c>
       <c r="O58" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P58" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q58" s="16">
@@ -13293,11 +13293,11 @@
         <v>0</v>
       </c>
       <c r="S58" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T58" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U58" s="16">
@@ -13308,11 +13308,11 @@
         <v>0</v>
       </c>
       <c r="W58" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X58" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y58" s="16">
@@ -13320,11 +13320,11 @@
         <v>0.125</v>
       </c>
       <c r="AA58" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB58" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC58" s="16">
@@ -13347,78 +13347,78 @@
         <v>9.6</v>
       </c>
       <c r="G59" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>9.6</v>
       </c>
       <c r="H59" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>9.6</v>
       </c>
       <c r="I59" s="16">
-        <f>H59</f>
+        <f t="shared" ref="I59:I65" si="121">H59</f>
         <v>9.6</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L59" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M59" s="16">
-        <f>L59</f>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P59" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q59" s="16">
-        <f>P59</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="R59" s="11">
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>3.5</v>
       </c>
       <c r="T59" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>3.5</v>
       </c>
       <c r="U59" s="16">
-        <f>T59</f>
+        <f t="shared" si="118"/>
         <v>3.5</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X59" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y59" s="16">
-        <f>X59</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB59" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC59" s="16">
-        <f>AB59</f>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -13437,78 +13437,78 @@
         <v>0.4</v>
       </c>
       <c r="G60" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0.4</v>
       </c>
       <c r="H60" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0.4</v>
       </c>
       <c r="I60" s="16">
-        <f>H60</f>
+        <f t="shared" si="121"/>
         <v>0.4</v>
       </c>
       <c r="K60" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L60" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M60" s="16">
-        <f>L60</f>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O60" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P60" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q60" s="16">
-        <f>P60</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="R60" s="11">
         <v>2</v>
       </c>
       <c r="S60" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>2</v>
       </c>
       <c r="T60" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>2</v>
       </c>
       <c r="U60" s="16">
-        <f>T60</f>
+        <f t="shared" si="118"/>
         <v>2</v>
       </c>
       <c r="W60" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X60" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y60" s="16">
-        <f>X60</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AA60" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB60" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC60" s="16">
-        <f>AB60</f>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -13527,78 +13527,78 @@
         <v>115</v>
       </c>
       <c r="G61" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>115</v>
       </c>
       <c r="H61" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>115</v>
       </c>
       <c r="I61" s="16">
-        <f>H61</f>
+        <f t="shared" si="121"/>
         <v>115</v>
       </c>
       <c r="K61" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L61" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M61" s="16">
-        <f>L61</f>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O61" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P61" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q61" s="16">
-        <f>P61</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="R61" s="11">
         <v>50</v>
       </c>
       <c r="S61" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>50</v>
       </c>
       <c r="T61" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>50</v>
       </c>
       <c r="U61" s="16">
-        <f>T61</f>
+        <f t="shared" si="118"/>
         <v>50</v>
       </c>
       <c r="W61" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X61" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y61" s="16">
-        <f>X61</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AA61" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB61" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC61" s="16">
-        <f>AB61</f>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -13617,84 +13617,84 @@
         <v>9.6</v>
       </c>
       <c r="G62" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>9.6</v>
       </c>
       <c r="H62" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>9.6</v>
       </c>
       <c r="I62" s="16">
-        <f>H62</f>
+        <f t="shared" si="121"/>
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L62" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M62" s="16">
-        <f>L62</f>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P62" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q62" s="16">
-        <f>P62</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="R62" s="11">
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>3.5</v>
       </c>
       <c r="T62" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>3.5</v>
       </c>
       <c r="U62" s="16">
-        <f>T62</f>
+        <f t="shared" si="118"/>
         <v>3.5</v>
       </c>
       <c r="V62" s="11">
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>10</v>
       </c>
       <c r="X62" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>10</v>
       </c>
       <c r="Y62" s="16">
-        <f>X62</f>
+        <f t="shared" si="119"/>
         <v>10</v>
       </c>
       <c r="Z62" s="11">
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>10</v>
       </c>
       <c r="AB62" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>10</v>
       </c>
       <c r="AC62" s="16">
-        <f>AB62</f>
+        <f t="shared" si="120"/>
         <v>10</v>
       </c>
     </row>
@@ -13713,84 +13713,84 @@
         <v>0.4</v>
       </c>
       <c r="G63" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0.4</v>
       </c>
       <c r="H63" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0.4</v>
       </c>
       <c r="I63" s="16">
-        <f>H63</f>
+        <f t="shared" si="121"/>
         <v>0.4</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L63" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M63" s="16">
-        <f>L63</f>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O63" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P63" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q63" s="16">
-        <f>P63</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="R63" s="11">
         <v>2</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>2</v>
       </c>
       <c r="T63" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>2</v>
       </c>
       <c r="U63" s="16">
-        <f>T63</f>
+        <f t="shared" si="118"/>
         <v>2</v>
       </c>
       <c r="V63" s="11">
         <v>1</v>
       </c>
       <c r="W63" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
       <c r="X63" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>1</v>
       </c>
       <c r="Y63" s="16">
-        <f>X63</f>
+        <f t="shared" si="119"/>
         <v>1</v>
       </c>
       <c r="Z63" s="11">
         <v>1</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>1</v>
       </c>
       <c r="AB63" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>1</v>
       </c>
       <c r="AC63" s="16">
-        <f>AB63</f>
+        <f t="shared" si="120"/>
         <v>1</v>
       </c>
     </row>
@@ -13809,84 +13809,84 @@
         <v>115</v>
       </c>
       <c r="G64" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>115</v>
       </c>
       <c r="H64" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>115</v>
       </c>
       <c r="I64" s="16">
-        <f>H64</f>
+        <f t="shared" si="121"/>
         <v>115</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L64" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M64" s="16">
-        <f>L64</f>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O64" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P64" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q64" s="16">
-        <f>P64</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="R64" s="11">
         <v>50</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>50</v>
       </c>
       <c r="T64" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>50</v>
       </c>
       <c r="U64" s="16">
-        <f>T64</f>
+        <f t="shared" si="118"/>
         <v>50</v>
       </c>
       <c r="V64" s="11">
         <v>5</v>
       </c>
       <c r="W64" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>5</v>
       </c>
       <c r="X64" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>5</v>
       </c>
       <c r="Y64" s="16">
-        <f>X64</f>
+        <f t="shared" si="119"/>
         <v>5</v>
       </c>
       <c r="Z64" s="11">
         <v>3</v>
       </c>
       <c r="AA64" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>3</v>
       </c>
       <c r="AB64" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>3</v>
       </c>
       <c r="AC64" s="16">
-        <f>AB64</f>
+        <f t="shared" si="120"/>
         <v>3</v>
       </c>
     </row>
@@ -13902,75 +13902,75 @@
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
       <c r="G65" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H65" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I65" s="16">
-        <f>H65</f>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L65" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M65" s="16">
-        <f>L65</f>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O65" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P65" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q65" s="16">
-        <f>P65</f>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="S65" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T65" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U65" s="16">
-        <f>T65</f>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="W65" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X65" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y65" s="16">
-        <f>X65</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AA65" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB65" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC65" s="16">
-        <f>AB65</f>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -13986,75 +13986,75 @@
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
       <c r="G66" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H66" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I66" s="16">
-        <f t="shared" ref="I66:I79" si="89">H66</f>
+        <f t="shared" ref="I66:I79" si="122">H66</f>
         <v>0</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L66" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M66" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O66" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P66" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q66" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="S66" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T66" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U66" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="W66" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X66" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y66" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AA66" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB66" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC66" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -14070,75 +14070,75 @@
       <c r="D67" s="5"/>
       <c r="E67" s="6"/>
       <c r="G67" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H67" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L67" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M67" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O67" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P67" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q67" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="S67" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T67" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U67" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="W67" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X67" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y67" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AA67" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB67" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC67" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -14157,90 +14157,90 @@
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="H68" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="122"/>
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L68" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M68" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
         <v>0</v>
       </c>
       <c r="O68" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P68" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q68" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="S68" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="T68" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="U68" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="V68" s="11">
         <v>0.13589300000000001</v>
       </c>
       <c r="W68" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0.13589300000000001</v>
       </c>
       <c r="X68" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0.13589300000000001</v>
       </c>
       <c r="Y68" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0.13589300000000001</v>
       </c>
       <c r="Z68" s="11">
         <v>0</v>
       </c>
       <c r="AA68" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB68" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC68" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -14259,90 +14259,90 @@
         <v>0</v>
       </c>
       <c r="G69" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H69" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I69" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="J69" s="11">
         <v>0</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L69" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M69" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="N69" s="11">
         <v>0</v>
       </c>
       <c r="O69" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P69" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q69" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="R69" s="11">
         <v>0</v>
       </c>
       <c r="S69" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T69" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U69" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="V69" s="11">
         <v>0</v>
       </c>
       <c r="W69" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X69" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y69" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Z69" s="11">
         <v>0</v>
       </c>
       <c r="AA69" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB69" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC69" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -14361,90 +14361,90 @@
         <v>0</v>
       </c>
       <c r="G70" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H70" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I70" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="J70" s="11">
         <v>0</v>
       </c>
       <c r="K70" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L70" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M70" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="N70" s="11">
         <v>0</v>
       </c>
       <c r="O70" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P70" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q70" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="R70" s="11">
         <v>0</v>
       </c>
       <c r="S70" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T70" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U70" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="V70" s="11">
         <v>0</v>
       </c>
       <c r="W70" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X70" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y70" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Z70" s="11">
         <v>0</v>
       </c>
       <c r="AA70" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB70" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC70" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -14460,78 +14460,78 @@
       <c r="D71" s="5"/>
       <c r="E71" s="6"/>
       <c r="G71" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H71" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I71" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L71" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M71" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P71" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q71" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T71" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U71" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="V71" s="11">
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>90</v>
       </c>
       <c r="X71" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>90</v>
       </c>
       <c r="Y71" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>90</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB71" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC71" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -14547,78 +14547,78 @@
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
       <c r="G72" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H72" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="J72" s="11">
         <v>100</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>100</v>
       </c>
       <c r="L72" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>100</v>
       </c>
       <c r="M72" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>100</v>
       </c>
       <c r="O72" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P72" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q72" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="S72" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T72" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U72" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="W72" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X72" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y72" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AA72" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB72" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC72" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -14634,78 +14634,78 @@
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
       <c r="G73" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H73" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I73" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L73" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M73" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="N73" s="11">
         <v>100</v>
       </c>
       <c r="O73" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>100</v>
       </c>
       <c r="P73" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>100</v>
       </c>
       <c r="Q73" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>100</v>
       </c>
       <c r="S73" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T73" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U73" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="W73" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X73" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y73" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AA73" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB73" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC73" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -14724,81 +14724,81 @@
         <v>50</v>
       </c>
       <c r="G74" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>50</v>
       </c>
       <c r="H74" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>50</v>
       </c>
       <c r="I74" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="122"/>
         <v>50</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L74" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M74" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O74" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P74" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q74" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="S74" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T74" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U74" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="V74" s="11">
         <v>10</v>
       </c>
       <c r="W74" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>10</v>
       </c>
       <c r="X74" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>10</v>
       </c>
       <c r="Y74" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>10</v>
       </c>
       <c r="Z74" s="11">
         <v>40</v>
       </c>
       <c r="AA74" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>40</v>
       </c>
       <c r="AB74" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>40</v>
       </c>
       <c r="AC74" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>40</v>
       </c>
     </row>
@@ -14817,78 +14817,78 @@
         <v>50</v>
       </c>
       <c r="G75" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>50</v>
       </c>
       <c r="H75" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>50</v>
       </c>
       <c r="I75" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="122"/>
         <v>50</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L75" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M75" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O75" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P75" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q75" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="R75" s="11">
         <v>100</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>100</v>
       </c>
       <c r="T75" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>100</v>
       </c>
       <c r="U75" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>100</v>
       </c>
       <c r="W75" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X75" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y75" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AA75" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB75" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC75" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -14904,78 +14904,78 @@
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
       <c r="G76" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H76" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I76" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L76" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M76" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O76" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P76" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q76" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T76" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U76" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="W76" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X76" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y76" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Z76" s="11">
         <v>60</v>
       </c>
       <c r="AA76" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>60</v>
       </c>
       <c r="AB76" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>60</v>
       </c>
       <c r="AC76" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>60</v>
       </c>
     </row>
@@ -14991,75 +14991,75 @@
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
       <c r="G77" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H77" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I77" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="K77" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L77" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M77" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O77" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P77" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q77" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="S77" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T77" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U77" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="W77" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X77" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y77" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AA77" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB77" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC77" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -15075,78 +15075,78 @@
       <c r="D78" s="5"/>
       <c r="E78" s="6"/>
       <c r="G78" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H78" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I78" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L78" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M78" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O78" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P78" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q78" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="R78" s="11">
         <v>2</v>
       </c>
       <c r="S78" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>2</v>
       </c>
       <c r="T78" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>2</v>
       </c>
       <c r="U78" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>2</v>
       </c>
       <c r="W78" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X78" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y78" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB78" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC78" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -15162,78 +15162,78 @@
       <c r="D79" s="5"/>
       <c r="E79" s="6"/>
       <c r="G79" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H79" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I79" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L79" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M79" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O79" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P79" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="Q79" s="16">
-        <f t="shared" si="85"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="R79" s="11">
         <v>5</v>
       </c>
       <c r="S79" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="113"/>
         <v>5</v>
       </c>
       <c r="T79" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>5</v>
       </c>
       <c r="U79" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="118"/>
         <v>5</v>
       </c>
       <c r="W79" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
       <c r="X79" s="15">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Y79" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="AA79" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="AB79" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="AC79" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
     </row>
@@ -15257,7 +15257,7 @@
         <v>0.2</v>
       </c>
       <c r="G80" s="12">
-        <f t="shared" si="78"/>
+        <f>F80</f>
         <v>0.2</v>
       </c>
       <c r="H80" s="15">
@@ -15265,14 +15265,14 @@
         <v>0.22000000000000003</v>
       </c>
       <c r="I80" s="16">
-        <f>$H80*E80</f>
+        <f>$E80*H80</f>
         <v>0.2</v>
       </c>
       <c r="J80" s="11">
         <v>1</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="79"/>
+        <f>J80</f>
         <v>1</v>
       </c>
       <c r="L80" s="15">
@@ -15280,14 +15280,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M80" s="16">
-        <f>$H80*I80</f>
-        <v>4.4000000000000011E-2</v>
+        <f>$E80*L80</f>
+        <v>1</v>
       </c>
       <c r="N80" s="11">
         <v>2.5</v>
       </c>
       <c r="O80" s="12">
-        <f t="shared" si="80"/>
+        <f>N80</f>
         <v>2.5</v>
       </c>
       <c r="P80" s="15">
@@ -15295,14 +15295,14 @@
         <v>2.75</v>
       </c>
       <c r="Q80" s="16">
-        <f>$H80*M80</f>
-        <v>9.6800000000000046E-3</v>
+        <f>$E80*P80</f>
+        <v>2.5</v>
       </c>
       <c r="R80" s="11">
         <v>1</v>
       </c>
       <c r="S80" s="12">
-        <f t="shared" si="81"/>
+        <f>R80</f>
         <v>1</v>
       </c>
       <c r="T80" s="15">
@@ -15310,14 +15310,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="U80" s="16">
-        <f>$H80*Q80</f>
-        <v>2.1296000000000015E-3</v>
+        <f>$E80*T80</f>
+        <v>1</v>
       </c>
       <c r="V80" s="11">
         <v>1.5</v>
       </c>
       <c r="W80" s="12">
-        <f t="shared" si="82"/>
+        <f>V80</f>
         <v>1.5</v>
       </c>
       <c r="X80" s="15">
@@ -15325,14 +15325,14 @@
         <v>1.6500000000000001</v>
       </c>
       <c r="Y80" s="16">
-        <f>$H80*U80</f>
-        <v>4.6851200000000036E-4</v>
+        <f>$E80*X80</f>
+        <v>1.5</v>
       </c>
       <c r="Z80" s="11">
         <v>2</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="83"/>
+        <f>Z80</f>
         <v>2</v>
       </c>
       <c r="AB80" s="15">
@@ -15340,8 +15340,8 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AC80" s="16">
-        <f>$H80*Y80</f>
-        <v>1.0307264000000009E-4</v>
+        <f>$E80*AB80</f>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -15364,7 +15364,7 @@
         <v>70</v>
       </c>
       <c r="G81" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>70</v>
       </c>
       <c r="H81" s="15">
@@ -15372,14 +15372,14 @@
         <v>77</v>
       </c>
       <c r="I81" s="16">
-        <f>$H81*E81</f>
+        <f>$E81*H81</f>
         <v>70</v>
       </c>
       <c r="J81" s="11">
         <v>60</v>
       </c>
       <c r="K81" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="K81:K93" si="123">J81</f>
         <v>60</v>
       </c>
       <c r="L81" s="15">
@@ -15387,14 +15387,14 @@
         <v>66</v>
       </c>
       <c r="M81" s="16">
-        <f>$H81*I81</f>
-        <v>5390</v>
+        <f>$E81*L81</f>
+        <v>60</v>
       </c>
       <c r="N81" s="11">
         <v>5</v>
       </c>
       <c r="O81" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="O81:O93" si="124">N81</f>
         <v>5</v>
       </c>
       <c r="P81" s="15">
@@ -15402,14 +15402,14 @@
         <v>5.5</v>
       </c>
       <c r="Q81" s="16">
-        <f>$H81*M81</f>
-        <v>415030</v>
+        <f>$E81*P81</f>
+        <v>5</v>
       </c>
       <c r="R81" s="11">
         <v>15</v>
       </c>
       <c r="S81" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="S81:S93" si="125">R81</f>
         <v>15</v>
       </c>
       <c r="T81" s="15">
@@ -15417,14 +15417,14 @@
         <v>16.5</v>
       </c>
       <c r="U81" s="16">
-        <f>$H81*Q81</f>
-        <v>31957310</v>
+        <f>$E81*T81</f>
+        <v>15</v>
       </c>
       <c r="V81" s="11">
         <v>90</v>
       </c>
       <c r="W81" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="W81:W93" si="126">V81</f>
         <v>90</v>
       </c>
       <c r="X81" s="15">
@@ -15432,14 +15432,14 @@
         <v>99.000000000000014</v>
       </c>
       <c r="Y81" s="16">
-        <f>$H81*U81</f>
-        <v>2460712870</v>
+        <f>$E81*X81</f>
+        <v>90.000000000000014</v>
       </c>
       <c r="Z81" s="11">
         <v>70</v>
       </c>
       <c r="AA81" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" ref="AA81:AA93" si="127">Z81</f>
         <v>70</v>
       </c>
       <c r="AB81" s="15">
@@ -15447,8 +15447,8 @@
         <v>77</v>
       </c>
       <c r="AC81" s="16">
-        <f>$H81*Y81</f>
-        <v>189474890990</v>
+        <f>$E81*AB81</f>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -15463,81 +15463,81 @@
       <c r="D82" s="5"/>
       <c r="E82" s="6"/>
       <c r="G82" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H82" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I82" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L82" s="15">
-        <f t="shared" ref="L82:L93" si="90">K82</f>
+        <f t="shared" ref="L82:L93" si="128">K82</f>
         <v>0</v>
       </c>
       <c r="M82" s="16">
-        <f t="shared" ref="M82:M93" si="91">L82</f>
+        <f t="shared" ref="M82:M93" si="129">L82</f>
         <v>0</v>
       </c>
       <c r="O82" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P82" s="15">
-        <f t="shared" ref="P82:P93" si="92">O82</f>
+        <f t="shared" ref="P82:P93" si="130">O82</f>
         <v>0</v>
       </c>
       <c r="Q82" s="16">
-        <f t="shared" ref="Q82:Q93" si="93">P82</f>
+        <f t="shared" ref="Q82:Q93" si="131">P82</f>
         <v>0</v>
       </c>
       <c r="R82" s="11">
         <v>2.5</v>
       </c>
       <c r="S82" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>2.5</v>
       </c>
       <c r="T82" s="15">
-        <f t="shared" ref="T82:T93" si="94">S82</f>
+        <f t="shared" ref="T82:T93" si="132">S82</f>
         <v>2.5</v>
       </c>
       <c r="U82" s="16">
-        <f t="shared" ref="U82:U93" si="95">T82</f>
+        <f t="shared" ref="U82:U93" si="133">T82</f>
         <v>2.5</v>
       </c>
       <c r="V82" s="11">
         <v>1</v>
       </c>
       <c r="W82" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="126"/>
         <v>1</v>
       </c>
       <c r="X82" s="15">
-        <f t="shared" ref="X82:X93" si="96">W82</f>
+        <f t="shared" ref="X82:X93" si="134">W82</f>
         <v>1</v>
       </c>
       <c r="Y82" s="16">
-        <f t="shared" ref="Y82:Y93" si="97">X82</f>
+        <f t="shared" ref="Y82:Y93" si="135">X82</f>
         <v>1</v>
       </c>
       <c r="AA82" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB82" s="15">
-        <f t="shared" ref="AB82:AB93" si="98">AA82</f>
+        <f t="shared" ref="AB82:AB93" si="136">AA82</f>
         <v>0</v>
       </c>
       <c r="AC82" s="16">
-        <f t="shared" ref="AC82:AC93" si="99">AB82</f>
+        <f t="shared" ref="AC82:AC93" si="137">AB82</f>
         <v>0</v>
       </c>
     </row>
@@ -15553,81 +15553,81 @@
       <c r="D83" s="5"/>
       <c r="E83" s="6"/>
       <c r="G83" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H83" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I83" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L83" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="M83" s="16">
-        <f t="shared" si="91"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="O83" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P83" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="Q83" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="R83" s="11">
         <v>80</v>
       </c>
       <c r="S83" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>80</v>
       </c>
       <c r="T83" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="132"/>
         <v>80</v>
       </c>
       <c r="U83" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="133"/>
         <v>80</v>
       </c>
       <c r="V83" s="11">
         <v>5</v>
       </c>
       <c r="W83" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="126"/>
         <v>5</v>
       </c>
       <c r="X83" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="134"/>
         <v>5</v>
       </c>
       <c r="Y83" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="135"/>
         <v>5</v>
       </c>
       <c r="AA83" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB83" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC83" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
     </row>
@@ -15643,81 +15643,81 @@
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
       <c r="G84" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H84" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I84" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="J84" s="11">
         <v>0.2</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="123"/>
         <v>0.2</v>
       </c>
       <c r="L84" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="128"/>
         <v>0.2</v>
       </c>
       <c r="M84" s="16">
-        <f t="shared" si="91"/>
+        <f t="shared" si="129"/>
         <v>0.2</v>
       </c>
       <c r="O84" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P84" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="Q84" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="R84" s="11">
         <v>2</v>
       </c>
       <c r="S84" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>2</v>
       </c>
       <c r="T84" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="132"/>
         <v>2</v>
       </c>
       <c r="U84" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="133"/>
         <v>2</v>
       </c>
       <c r="W84" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X84" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="Y84" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="AA84" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB84" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC84" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
     </row>
@@ -15733,81 +15733,81 @@
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="G85" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H85" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I85" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="J85" s="11">
         <v>60</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="123"/>
         <v>60</v>
       </c>
       <c r="L85" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="128"/>
         <v>60</v>
       </c>
       <c r="M85" s="16">
-        <f t="shared" si="91"/>
+        <f t="shared" si="129"/>
         <v>60</v>
       </c>
       <c r="O85" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="Q85" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="R85" s="11">
         <v>90</v>
       </c>
       <c r="S85" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>90</v>
       </c>
       <c r="T85" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="132"/>
         <v>90</v>
       </c>
       <c r="U85" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="133"/>
         <v>90</v>
       </c>
       <c r="W85" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X85" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="Y85" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="AA85" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB85" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC85" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
     </row>
@@ -15826,90 +15826,90 @@
         <v>0.5</v>
       </c>
       <c r="G86" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0.5</v>
       </c>
       <c r="H86" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0.5</v>
       </c>
       <c r="I86" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0.5</v>
       </c>
       <c r="J86" s="11">
         <v>0.4</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="123"/>
         <v>0.4</v>
       </c>
       <c r="L86" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="128"/>
         <v>0.4</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" si="91"/>
+        <f t="shared" si="129"/>
         <v>0.4</v>
       </c>
       <c r="N86" s="11">
         <v>0.2</v>
       </c>
       <c r="O86" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="124"/>
         <v>0.2</v>
       </c>
       <c r="P86" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="130"/>
         <v>0.2</v>
       </c>
       <c r="Q86" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="131"/>
         <v>0.2</v>
       </c>
       <c r="R86" s="11">
         <v>4</v>
       </c>
       <c r="S86" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>4</v>
       </c>
       <c r="T86" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="132"/>
         <v>4</v>
       </c>
       <c r="U86" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="133"/>
         <v>4</v>
       </c>
       <c r="V86" s="11">
         <v>1</v>
       </c>
       <c r="W86" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="126"/>
         <v>1</v>
       </c>
       <c r="X86" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="134"/>
         <v>1</v>
       </c>
       <c r="Y86" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="135"/>
         <v>1</v>
       </c>
       <c r="Z86" s="11">
         <v>1.5</v>
       </c>
       <c r="AA86" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>1.5</v>
       </c>
       <c r="AB86" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="136"/>
         <v>1.5</v>
       </c>
       <c r="AC86" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="137"/>
         <v>1.5</v>
       </c>
     </row>
@@ -15928,90 +15928,90 @@
         <v>70</v>
       </c>
       <c r="G87" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>70</v>
       </c>
       <c r="H87" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>70</v>
       </c>
       <c r="I87" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>70</v>
       </c>
       <c r="J87" s="11">
         <v>60</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="123"/>
         <v>60</v>
       </c>
       <c r="L87" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="128"/>
         <v>60</v>
       </c>
       <c r="M87" s="16">
-        <f t="shared" si="91"/>
+        <f t="shared" si="129"/>
         <v>60</v>
       </c>
       <c r="N87" s="11">
         <v>70</v>
       </c>
       <c r="O87" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="124"/>
         <v>70</v>
       </c>
       <c r="P87" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="130"/>
         <v>70</v>
       </c>
       <c r="Q87" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="131"/>
         <v>70</v>
       </c>
       <c r="R87" s="11">
         <v>100</v>
       </c>
       <c r="S87" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>100</v>
       </c>
       <c r="T87" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="132"/>
         <v>100</v>
       </c>
       <c r="U87" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="133"/>
         <v>100</v>
       </c>
       <c r="V87" s="11">
         <v>90</v>
       </c>
       <c r="W87" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="126"/>
         <v>90</v>
       </c>
       <c r="X87" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="134"/>
         <v>90</v>
       </c>
       <c r="Y87" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="135"/>
         <v>90</v>
       </c>
       <c r="Z87" s="11">
         <v>70</v>
       </c>
       <c r="AA87" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>70</v>
       </c>
       <c r="AB87" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="136"/>
         <v>70</v>
       </c>
       <c r="AC87" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="137"/>
         <v>70</v>
       </c>
     </row>
@@ -16027,75 +16027,75 @@
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
       <c r="G88" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H88" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I88" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="K88" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L88" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="M88" s="16">
-        <f t="shared" si="91"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="O88" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P88" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="Q88" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="S88" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="T88" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="U88" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="W88" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X88" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="Y88" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="AA88" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB88" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC88" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
     </row>
@@ -16111,75 +16111,75 @@
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="G89" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I89" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="M89" s="16">
-        <f t="shared" si="91"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="O89" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="Q89" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="S89" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="U89" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="W89" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="Y89" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="AA89" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC89" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
     </row>
@@ -16195,75 +16195,75 @@
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
       <c r="G90" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H90" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I90" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="K90" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L90" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="M90" s="16">
-        <f t="shared" si="91"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="O90" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P90" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="Q90" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="S90" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="T90" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="U90" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="W90" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X90" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="Y90" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="AA90" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB90" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC90" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
     </row>
@@ -16279,78 +16279,78 @@
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
       <c r="G91" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H91" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I91" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="K91" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L91" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="M91" s="16">
-        <f t="shared" si="91"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="O91" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P91" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="Q91" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="R91" s="11">
         <v>18</v>
       </c>
       <c r="S91" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>18</v>
       </c>
       <c r="T91" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="132"/>
         <v>18</v>
       </c>
       <c r="U91" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="133"/>
         <v>18</v>
       </c>
       <c r="W91" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X91" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="Y91" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="AA91" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB91" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC91" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
     </row>
@@ -16366,78 +16366,78 @@
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="G92" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H92" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L92" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="M92" s="16">
-        <f t="shared" si="91"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="O92" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P92" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="Q92" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="R92" s="11">
         <v>1</v>
       </c>
       <c r="S92" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>1</v>
       </c>
       <c r="T92" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="132"/>
         <v>1</v>
       </c>
       <c r="U92" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="133"/>
         <v>1</v>
       </c>
       <c r="W92" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X92" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="Y92" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="AA92" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB92" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC92" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
     </row>
@@ -16453,78 +16453,78 @@
       <c r="D93" s="5"/>
       <c r="E93" s="6"/>
       <c r="G93" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H93" s="15">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I93" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="L93" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="91"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <f t="shared" si="80"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="P93" s="15">
-        <f t="shared" si="92"/>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="Q93" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="R93" s="11">
         <v>5</v>
       </c>
       <c r="S93" s="12">
-        <f t="shared" si="81"/>
+        <f t="shared" si="125"/>
         <v>5</v>
       </c>
       <c r="T93" s="15">
-        <f t="shared" si="94"/>
+        <f t="shared" si="132"/>
         <v>5</v>
       </c>
       <c r="U93" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="133"/>
         <v>5</v>
       </c>
       <c r="W93" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="X93" s="15">
-        <f t="shared" si="96"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="Y93" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="AA93" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="AB93" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="136"/>
         <v>0</v>
       </c>
       <c r="AC93" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
     </row>
@@ -16538,8 +16538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18189,7 +18189,7 @@
         <v>9.6</v>
       </c>
       <c r="I18" s="21">
-        <f t="shared" ref="H18:I20" si="17">H21</f>
+        <f t="shared" ref="I18:I20" si="17">H21</f>
         <v>20</v>
       </c>
       <c r="K18" s="12">
@@ -18748,8 +18748,8 @@
         <v>16</v>
       </c>
       <c r="H24" s="15">
-        <f>G24+(G2*0.05)</f>
-        <v>17.2</v>
+        <f>G24+(G2*0.1)</f>
+        <v>18.399999999999999</v>
       </c>
       <c r="I24" s="21">
         <f>H24*$E24</f>
@@ -18760,7 +18760,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="15">
-        <f>K24+(K2*0.05)</f>
+        <f>K24+(K2*0.1)</f>
         <v>0</v>
       </c>
       <c r="M24" s="21">
@@ -18772,7 +18772,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="15">
-        <f>O24+(O2*0.05)</f>
+        <f>O24+(O2*0.1)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="21">
@@ -18784,8 +18784,8 @@
         <v>32</v>
       </c>
       <c r="T24" s="15">
-        <f>S24+(S2*0.05)</f>
-        <v>34.4</v>
+        <f>S24+(S2*0.1)</f>
+        <v>36.799999999999997</v>
       </c>
       <c r="U24" s="21">
         <f>T24*$E24</f>
@@ -18799,8 +18799,8 @@
         <v>34.507100000000001</v>
       </c>
       <c r="X24" s="15">
-        <f>W24+(W2*0.05)</f>
-        <v>37.057099999999998</v>
+        <f>W24+(W2*0.1)</f>
+        <v>39.607100000000003</v>
       </c>
       <c r="Y24" s="21">
         <f>X24*$E24</f>
@@ -18811,8 +18811,8 @@
         <v>24</v>
       </c>
       <c r="AB24" s="15">
-        <f>AA24+(AA2*0.05)</f>
-        <v>25.8</v>
+        <f>AA24+(AA2*0.1)</f>
+        <v>27.6</v>
       </c>
       <c r="AC24" s="21">
         <f>AB24*$E24</f>
@@ -18841,8 +18841,8 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="H25" s="15">
-        <f>G25+(0.05*G7)+(0.05*G12)</f>
-        <v>5.160000000000001</v>
+        <f>G25+(0.1*G7)+(0.1*G12)</f>
+        <v>5.5200000000000005</v>
       </c>
       <c r="I25" s="21">
         <f>H25*$E25</f>
@@ -18853,7 +18853,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="15">
-        <f>K25+(0.05*K7)+(0.05*K12)</f>
+        <f>K25+(0.1*K7)+(0.1*K12)</f>
         <v>0</v>
       </c>
       <c r="M25" s="21">
@@ -18865,7 +18865,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="15">
-        <f>O25+(0.05*O7)+(0.05*O12)</f>
+        <f>O25+(0.1*O7)+(0.1*O12)</f>
         <v>0</v>
       </c>
       <c r="Q25" s="21">
@@ -18877,8 +18877,8 @@
         <v>1400</v>
       </c>
       <c r="T25" s="15">
-        <f>S25+(0.05*S7)+(0.05*S12)</f>
-        <v>1505</v>
+        <f>S25+(0.1*S7)+(0.1*S12)</f>
+        <v>1610</v>
       </c>
       <c r="U25" s="21">
         <f>T25*$E25</f>
@@ -18892,8 +18892,8 @@
         <v>83</v>
       </c>
       <c r="X25" s="15">
-        <f>W25+(0.05*W7)+(0.05*W12)</f>
-        <v>88.85</v>
+        <f>W25+(0.1*W7)+(0.1*W12)</f>
+        <v>94.7</v>
       </c>
       <c r="Y25" s="21">
         <f>X25*$E25</f>
@@ -18904,8 +18904,8 @@
         <v>40</v>
       </c>
       <c r="AB25" s="15">
-        <f>AA25+(0.05*AA7)+(0.05*AA12)</f>
-        <v>43</v>
+        <f>AA25+(0.1*AA7)+(0.1*AA12)</f>
+        <v>46</v>
       </c>
       <c r="AC25" s="21">
         <f>AB25*$E25</f>
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="21">
-        <f t="shared" ref="H26:I28" si="24">H18</f>
+        <f t="shared" ref="I26:I28" si="24">H18</f>
         <v>9.6</v>
       </c>
       <c r="K26" s="12">
@@ -25369,8 +25369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27857,7 +27857,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="20">
-        <f t="shared" ref="H27:I28" si="27">H19</f>
+        <f t="shared" ref="I27:I28" si="27">H19</f>
         <v>100</v>
       </c>
       <c r="K27" s="12">
@@ -28154,7 +28154,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="20">
-        <f t="shared" ref="H30:I31" si="39">H27</f>
+        <f t="shared" ref="I30:I31" si="39">H27</f>
         <v>0</v>
       </c>
       <c r="K30" s="12">
@@ -28630,7 +28630,7 @@
         <v>21.6</v>
       </c>
       <c r="H35" s="15">
-        <f>$D35*G35</f>
+        <f>MIN(100,$D35*G35)</f>
         <v>27</v>
       </c>
       <c r="I35" s="16">
@@ -28645,7 +28645,7 @@
         <v>70</v>
       </c>
       <c r="L35" s="15">
-        <f>$D35*K35</f>
+        <f>MIN(100,$D35*K35)</f>
         <v>87.5</v>
       </c>
       <c r="M35" s="16">
@@ -28660,7 +28660,7 @@
         <v>2</v>
       </c>
       <c r="P35" s="15">
-        <f>$D35*O35</f>
+        <f>MIN(100,$D35*O35)</f>
         <v>2.5</v>
       </c>
       <c r="Q35" s="16">
@@ -28675,7 +28675,7 @@
         <v>10</v>
       </c>
       <c r="T35" s="15">
-        <f>$D35*S35</f>
+        <f>MIN(100,$D35*S35)</f>
         <v>12.5</v>
       </c>
       <c r="U35" s="16">
@@ -28690,7 +28690,7 @@
         <v>30</v>
       </c>
       <c r="X35" s="15">
-        <f>$D35*W35</f>
+        <f>MIN(100,$D35*W35)</f>
         <v>37.5</v>
       </c>
       <c r="Y35" s="16">
@@ -28705,7 +28705,7 @@
         <v>80</v>
       </c>
       <c r="AB35" s="15">
-        <f>$D35*AA35</f>
+        <f>MIN(100,$D35*AA35)</f>
         <v>100</v>
       </c>
       <c r="AC35" s="16">
@@ -28929,7 +28929,7 @@
         <v>1.2</v>
       </c>
       <c r="H38" s="15">
-        <f>$D38*G38</f>
+        <f>MIN(100,$D38*G38)</f>
         <v>1.5</v>
       </c>
       <c r="I38" s="16">
@@ -28944,7 +28944,7 @@
         <v>5</v>
       </c>
       <c r="L38" s="15">
-        <f>$D38*K38</f>
+        <f>MIN(100,$D38*K38)</f>
         <v>6.25</v>
       </c>
       <c r="M38" s="16">
@@ -28956,7 +28956,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="15">
-        <f>$D38*O38</f>
+        <f>MIN(100,$D38*O38)</f>
         <v>0</v>
       </c>
       <c r="Q38" s="16">
@@ -28971,7 +28971,7 @@
         <v>20</v>
       </c>
       <c r="T38" s="15">
-        <f>$D38*S38</f>
+        <f>MIN(100,$D38*S38)</f>
         <v>25</v>
       </c>
       <c r="U38" s="16">
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="15">
-        <f>$D38*W38</f>
+        <f>MIN(100,$D38*W38)</f>
         <v>0</v>
       </c>
       <c r="Y38" s="16">
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="15">
-        <f>$D38*AA38</f>
+        <f>MIN(100,$D38*AA38)</f>
         <v>0</v>
       </c>
       <c r="AC38" s="16">
@@ -29317,7 +29317,7 @@
         <v>0.7</v>
       </c>
       <c r="H42" s="15">
-        <f>$D42*G42</f>
+        <f>MIN(100,$D42*G42)</f>
         <v>0.97999999999999987</v>
       </c>
       <c r="I42" s="16">
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="15">
-        <f>$D42*K42</f>
+        <f>MIN(100,$D42*K42)</f>
         <v>0</v>
       </c>
       <c r="M42" s="16">
@@ -29344,12 +29344,12 @@
         <v>90</v>
       </c>
       <c r="P42" s="15">
-        <f>$D42*O42</f>
-        <v>125.99999999999999</v>
+        <f>MIN(100,$D42*O42)</f>
+        <v>100</v>
       </c>
       <c r="Q42" s="16">
         <f t="shared" si="53"/>
-        <v>125.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="R42" s="11">
         <v>2</v>
@@ -29359,7 +29359,7 @@
         <v>2</v>
       </c>
       <c r="T42" s="15">
-        <f>$D42*S42</f>
+        <f>MIN(100,$D42*S42)</f>
         <v>2.8</v>
       </c>
       <c r="U42" s="16">
@@ -29374,7 +29374,7 @@
         <v>30</v>
       </c>
       <c r="X42" s="15">
-        <f>$D42*W42</f>
+        <f>MIN(100,$D42*W42)</f>
         <v>42</v>
       </c>
       <c r="Y42" s="16">
@@ -29389,7 +29389,7 @@
         <v>20</v>
       </c>
       <c r="AB42" s="15">
-        <f>$D42*AA42</f>
+        <f>MIN(100,$D42*AA42)</f>
         <v>28</v>
       </c>
       <c r="AC42" s="16">
@@ -29711,7 +29711,7 @@
         <v>0.2</v>
       </c>
       <c r="H46" s="15">
-        <f>$D46*G46</f>
+        <f>MIN(100,$D46*G46)</f>
         <v>0.27999999999999997</v>
       </c>
       <c r="I46" s="16">
@@ -29723,7 +29723,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="15">
-        <f>$D46*K46</f>
+        <f>MIN(100,$D46*K46)</f>
         <v>0</v>
       </c>
       <c r="M46" s="16">
@@ -29738,7 +29738,7 @@
         <v>8</v>
       </c>
       <c r="P46" s="15">
-        <f>$D46*O46</f>
+        <f>MIN(100,$D46*O46)</f>
         <v>11.2</v>
       </c>
       <c r="Q46" s="16">
@@ -29753,7 +29753,7 @@
         <v>5</v>
       </c>
       <c r="T46" s="15">
-        <f>$D46*S46</f>
+        <f>MIN(100,$D46*S46)</f>
         <v>7</v>
       </c>
       <c r="U46" s="16">
@@ -29765,7 +29765,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="15">
-        <f>$D46*W46</f>
+        <f>MIN(100,$D46*W46)</f>
         <v>0</v>
       </c>
       <c r="Y46" s="16">
@@ -29780,7 +29780,7 @@
         <v>20</v>
       </c>
       <c r="AB46" s="15">
-        <f>$D46*AA46</f>
+        <f>MIN(100,$D46*AA46)</f>
         <v>28</v>
       </c>
       <c r="AC46" s="16">
@@ -30006,12 +30006,12 @@
         <v>70</v>
       </c>
       <c r="H49" s="15">
-        <f>$D49*G49</f>
-        <v>122.5</v>
+        <f>MIN(100,$D49*G49)</f>
+        <v>100</v>
       </c>
       <c r="I49" s="16">
         <f t="shared" si="51"/>
-        <v>122.5</v>
+        <v>100</v>
       </c>
       <c r="J49" s="11">
         <v>50</v>
@@ -30021,7 +30021,7 @@
         <v>50</v>
       </c>
       <c r="L49" s="15">
-        <f>$D49*K49</f>
+        <f>MIN(100,$D49*K49)</f>
         <v>87.5</v>
       </c>
       <c r="M49" s="16">
@@ -30033,7 +30033,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="15">
-        <f>$D49*O49</f>
+        <f>MIN(100,$D49*O49)</f>
         <v>0</v>
       </c>
       <c r="Q49" s="16">
@@ -30048,7 +30048,7 @@
         <v>30</v>
       </c>
       <c r="T49" s="15">
-        <f>$D49*S49</f>
+        <f>MIN(100,$D49*S49)</f>
         <v>52.5</v>
       </c>
       <c r="U49" s="16">
@@ -30063,7 +30063,7 @@
         <v>40</v>
       </c>
       <c r="X49" s="15">
-        <f>$D49*W49</f>
+        <f>MIN(100,$D49*W49)</f>
         <v>70</v>
       </c>
       <c r="Y49" s="16">
@@ -30078,7 +30078,7 @@
         <v>15</v>
       </c>
       <c r="AB49" s="15">
-        <f>$D49*AA49</f>
+        <f>MIN(100,$D49*AA49)</f>
         <v>26.25</v>
       </c>
       <c r="AC49" s="16">
@@ -33017,12 +33017,12 @@
         <v>70</v>
       </c>
       <c r="H81" s="15">
-        <f>$D81*G81</f>
-        <v>140</v>
+        <f>MIN(100,$D81*G81)</f>
+        <v>100</v>
       </c>
       <c r="I81" s="20">
         <f>$E81*H81</f>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J81" s="11">
         <v>60</v>
@@ -33032,12 +33032,12 @@
         <v>60</v>
       </c>
       <c r="L81" s="15">
-        <f>$D81*K81</f>
-        <v>120</v>
+        <f>MIN(100,$D81*K81)</f>
+        <v>100</v>
       </c>
       <c r="M81" s="20">
         <f>$E81*L81</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N81" s="11">
         <v>5</v>
@@ -33047,7 +33047,7 @@
         <v>5</v>
       </c>
       <c r="P81" s="15">
-        <f>$D81*O81</f>
+        <f>MIN(100,$D81*O81)</f>
         <v>10</v>
       </c>
       <c r="Q81" s="20">
@@ -33062,7 +33062,7 @@
         <v>15</v>
       </c>
       <c r="T81" s="15">
-        <f>$D81*S81</f>
+        <f>MIN(100,$D81*S81)</f>
         <v>30</v>
       </c>
       <c r="U81" s="20">
@@ -33077,12 +33077,12 @@
         <v>90</v>
       </c>
       <c r="X81" s="15">
-        <f>$D81*W81</f>
-        <v>180</v>
+        <f>MIN(100,$D81*W81)</f>
+        <v>100</v>
       </c>
       <c r="Y81" s="20">
         <f>$E81*X81</f>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="Z81" s="11">
         <v>70</v>
@@ -33092,12 +33092,12 @@
         <v>70</v>
       </c>
       <c r="AB81" s="15">
-        <f>$D81*AA81</f>
-        <v>140</v>
+        <f>MIN(100,$D81*AA81)</f>
+        <v>100</v>
       </c>
       <c r="AC81" s="20">
         <f>$E81*AB81</f>
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -39836,7 +39836,7 @@
       </c>
       <c r="G24">
         <f>'52_Insects_ModSeverity'!H24</f>
-        <v>17.2</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="H24">
         <f>'52_Insects_ModSeverity'!I24</f>
@@ -39956,7 +39956,7 @@
       </c>
       <c r="AK24">
         <f>'52_Insects_ModSeverity'!T24</f>
-        <v>34.4</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="AL24">
         <f>'52_Insects_ModSeverity'!U24</f>
@@ -39996,7 +39996,7 @@
       </c>
       <c r="AU24">
         <f>'52_Insects_ModSeverity'!X24</f>
-        <v>37.057099999999998</v>
+        <v>39.607100000000003</v>
       </c>
       <c r="AV24">
         <f>'52_Insects_ModSeverity'!Y24</f>
@@ -40036,7 +40036,7 @@
       </c>
       <c r="BE24">
         <f>'52_Insects_ModSeverity'!AB24</f>
-        <v>25.8</v>
+        <v>27.6</v>
       </c>
       <c r="BF24">
         <f>'52_Insects_ModSeverity'!AC24</f>
@@ -40082,7 +40082,7 @@
       </c>
       <c r="G25">
         <f>'52_Insects_ModSeverity'!H25</f>
-        <v>5.160000000000001</v>
+        <v>5.5200000000000005</v>
       </c>
       <c r="H25">
         <f>'52_Insects_ModSeverity'!I25</f>
@@ -40202,7 +40202,7 @@
       </c>
       <c r="AK25">
         <f>'52_Insects_ModSeverity'!T25</f>
-        <v>1505</v>
+        <v>1610</v>
       </c>
       <c r="AL25">
         <f>'52_Insects_ModSeverity'!U25</f>
@@ -40242,7 +40242,7 @@
       </c>
       <c r="AU25">
         <f>'52_Insects_ModSeverity'!X25</f>
-        <v>88.85</v>
+        <v>94.7</v>
       </c>
       <c r="AV25">
         <f>'52_Insects_ModSeverity'!Y25</f>
@@ -40282,7 +40282,7 @@
       </c>
       <c r="BE25">
         <f>'52_Insects_ModSeverity'!AB25</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BF25">
         <f>'52_Insects_ModSeverity'!AC25</f>
@@ -44356,11 +44356,11 @@
       </c>
       <c r="AD42">
         <f>'53_Insects_HighSeverity'!P42</f>
-        <v>125.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="AE42">
         <f>'53_Insects_HighSeverity'!Q42</f>
-        <v>125.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="AF42">
         <f>'51_Insects_LowSeverity'!R42</f>
@@ -45998,11 +45998,11 @@
       </c>
       <c r="J49">
         <f>'53_Insects_HighSeverity'!H49</f>
-        <v>122.5</v>
+        <v>100</v>
       </c>
       <c r="K49">
         <f>'53_Insects_HighSeverity'!I49</f>
-        <v>122.5</v>
+        <v>100</v>
       </c>
       <c r="L49">
         <f>'51_Insects_LowSeverity'!J49</f>
@@ -53644,7 +53644,7 @@
       </c>
       <c r="O80">
         <f>'51_Insects_LowSeverity'!M80</f>
-        <v>4.4000000000000011E-2</v>
+        <v>1</v>
       </c>
       <c r="P80">
         <f>'52_Insects_ModSeverity'!K80</f>
@@ -53684,7 +53684,7 @@
       </c>
       <c r="Y80">
         <f>'51_Insects_LowSeverity'!Q80</f>
-        <v>9.6800000000000046E-3</v>
+        <v>2.5</v>
       </c>
       <c r="Z80">
         <f>'52_Insects_ModSeverity'!O80</f>
@@ -53724,7 +53724,7 @@
       </c>
       <c r="AI80">
         <f>'51_Insects_LowSeverity'!U80</f>
-        <v>2.1296000000000015E-3</v>
+        <v>1</v>
       </c>
       <c r="AJ80">
         <f>'52_Insects_ModSeverity'!S80</f>
@@ -53764,7 +53764,7 @@
       </c>
       <c r="AS80">
         <f>'51_Insects_LowSeverity'!Y80</f>
-        <v>4.6851200000000036E-4</v>
+        <v>1.5</v>
       </c>
       <c r="AT80">
         <f>'52_Insects_ModSeverity'!W80</f>
@@ -53804,7 +53804,7 @@
       </c>
       <c r="BC80">
         <f>'51_Insects_LowSeverity'!AC80</f>
-        <v>1.0307264000000009E-4</v>
+        <v>2</v>
       </c>
       <c r="BD80">
         <f>'52_Insects_ModSeverity'!AA80</f>
@@ -53870,11 +53870,11 @@
       </c>
       <c r="J81">
         <f>'53_Insects_HighSeverity'!H81</f>
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K81">
         <f>'53_Insects_HighSeverity'!I81</f>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L81">
         <f>'51_Insects_LowSeverity'!J81</f>
@@ -53890,7 +53890,7 @@
       </c>
       <c r="O81">
         <f>'51_Insects_LowSeverity'!M81</f>
-        <v>5390</v>
+        <v>60</v>
       </c>
       <c r="P81">
         <f>'52_Insects_ModSeverity'!K81</f>
@@ -53910,11 +53910,11 @@
       </c>
       <c r="T81">
         <f>'53_Insects_HighSeverity'!L81</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="U81">
         <f>'53_Insects_HighSeverity'!M81</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="V81">
         <f>'51_Insects_LowSeverity'!N81</f>
@@ -53930,7 +53930,7 @@
       </c>
       <c r="Y81">
         <f>'51_Insects_LowSeverity'!Q81</f>
-        <v>415030</v>
+        <v>5</v>
       </c>
       <c r="Z81">
         <f>'52_Insects_ModSeverity'!O81</f>
@@ -53970,7 +53970,7 @@
       </c>
       <c r="AI81">
         <f>'51_Insects_LowSeverity'!U81</f>
-        <v>31957310</v>
+        <v>15</v>
       </c>
       <c r="AJ81">
         <f>'52_Insects_ModSeverity'!S81</f>
@@ -54010,7 +54010,7 @@
       </c>
       <c r="AS81">
         <f>'51_Insects_LowSeverity'!Y81</f>
-        <v>2460712870</v>
+        <v>90.000000000000014</v>
       </c>
       <c r="AT81">
         <f>'52_Insects_ModSeverity'!W81</f>
@@ -54030,11 +54030,11 @@
       </c>
       <c r="AX81">
         <f>'53_Insects_HighSeverity'!X81</f>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="AY81">
         <f>'53_Insects_HighSeverity'!Y81</f>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AZ81">
         <f>'51_Insects_LowSeverity'!Z81</f>
@@ -54050,7 +54050,7 @@
       </c>
       <c r="BC81">
         <f>'51_Insects_LowSeverity'!AC81</f>
-        <v>189474890990</v>
+        <v>70</v>
       </c>
       <c r="BD81">
         <f>'52_Insects_ModSeverity'!AA81</f>
@@ -54070,11 +54070,11 @@
       </c>
       <c r="BH81">
         <f>'53_Insects_HighSeverity'!AB81</f>
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="BI81">
         <f>'53_Insects_HighSeverity'!AC81</f>
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:61" x14ac:dyDescent="0.25">

--- a/specifications/5_Insects/ScriptRules_Insects.xlsx
+++ b/specifications/5_Insects/ScriptRules_Insects.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12180" windowHeight="7215" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12180" windowHeight="7215" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -16538,8 +16538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18189,8 +18189,8 @@
         <v>9.6</v>
       </c>
       <c r="I18" s="21">
-        <f>H21</f>
-        <v>20</v>
+        <f>H22</f>
+        <v>9.6</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" si="7"/>
@@ -18201,7 +18201,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="21">
-        <f>L21</f>
+        <f>L22</f>
         <v>0</v>
       </c>
       <c r="O18" s="12">
@@ -18213,7 +18213,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="21">
-        <f>P21</f>
+        <f>P22</f>
         <v>0</v>
       </c>
       <c r="R18" s="11">
@@ -18228,8 +18228,8 @@
         <v>2.9</v>
       </c>
       <c r="U18" s="21">
-        <f>T21</f>
-        <v>4</v>
+        <f>T22</f>
+        <v>2.9</v>
       </c>
       <c r="V18" s="11">
         <v>13</v>
@@ -18243,8 +18243,8 @@
         <v>9</v>
       </c>
       <c r="Y18" s="21">
-        <f>X21</f>
-        <v>33.35</v>
+        <f>X22</f>
+        <v>9</v>
       </c>
       <c r="AA18" s="12">
         <f t="shared" si="15"/>
@@ -18255,8 +18255,8 @@
         <v>12</v>
       </c>
       <c r="AC18" s="21">
-        <f>AB21</f>
-        <v>55</v>
+        <f>AB22</f>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -18283,8 +18283,8 @@
         <v>100</v>
       </c>
       <c r="I19" s="21">
-        <f t="shared" ref="I18:I20" si="17">H22</f>
-        <v>9.6</v>
+        <f>H23</f>
+        <v>100</v>
       </c>
       <c r="K19" s="12">
         <f t="shared" si="7"/>
@@ -18295,7 +18295,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="21">
-        <f t="shared" ref="M19:M21" si="18">L22</f>
+        <f>L23</f>
         <v>0</v>
       </c>
       <c r="O19" s="12">
@@ -18307,7 +18307,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="21">
-        <f t="shared" ref="Q19:Q21" si="19">P22</f>
+        <f>P23</f>
         <v>0</v>
       </c>
       <c r="R19" s="11">
@@ -18322,8 +18322,8 @@
         <v>25</v>
       </c>
       <c r="U19" s="21">
-        <f t="shared" ref="U19:U21" si="20">T22</f>
-        <v>2.9</v>
+        <f>T23</f>
+        <v>25</v>
       </c>
       <c r="V19" s="11">
         <v>55</v>
@@ -18337,8 +18337,8 @@
         <v>50</v>
       </c>
       <c r="Y19" s="21">
-        <f t="shared" ref="Y19:Y21" si="21">X22</f>
-        <v>9</v>
+        <f>X23</f>
+        <v>50</v>
       </c>
       <c r="AA19" s="12">
         <f t="shared" si="15"/>
@@ -18349,8 +18349,8 @@
         <v>78</v>
       </c>
       <c r="AC19" s="21">
-        <f t="shared" ref="AC19:AC21" si="22">AB22</f>
-        <v>12</v>
+        <f>AB23</f>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -18377,8 +18377,8 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="I20" s="21">
-        <f t="shared" si="17"/>
-        <v>100</v>
+        <f>H25</f>
+        <v>5.5200000000000005</v>
       </c>
       <c r="K20" s="12">
         <f t="shared" si="7"/>
@@ -18389,7 +18389,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="21">
-        <f t="shared" si="18"/>
+        <f>L25</f>
         <v>0</v>
       </c>
       <c r="O20" s="12">
@@ -18401,7 +18401,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="21">
-        <f t="shared" si="19"/>
+        <f>P25</f>
         <v>0</v>
       </c>
       <c r="R20" s="11">
@@ -18416,8 +18416,8 @@
         <v>1400</v>
       </c>
       <c r="U20" s="21">
-        <f t="shared" si="20"/>
-        <v>25</v>
+        <f>T25</f>
+        <v>1610</v>
       </c>
       <c r="V20" s="11">
         <v>5</v>
@@ -18431,8 +18431,8 @@
         <v>83</v>
       </c>
       <c r="Y20" s="21">
-        <f t="shared" si="21"/>
-        <v>50</v>
+        <f>X25</f>
+        <v>94.7</v>
       </c>
       <c r="AA20" s="12">
         <f t="shared" si="15"/>
@@ -18443,8 +18443,8 @@
         <v>40</v>
       </c>
       <c r="AC20" s="21">
-        <f t="shared" si="22"/>
-        <v>78</v>
+        <f>AB25</f>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -18928,7 +18928,7 @@
         <v>371</v>
       </c>
       <c r="G26" s="12">
-        <f t="shared" ref="G26:I44" si="23">F26</f>
+        <f t="shared" ref="G26:I44" si="17">F26</f>
         <v>0</v>
       </c>
       <c r="H26" s="15">
@@ -18940,7 +18940,7 @@
         <v>9.6</v>
       </c>
       <c r="K26" s="12">
-        <f t="shared" ref="K26:K89" si="24">J26</f>
+        <f t="shared" ref="K26:K89" si="18">J26</f>
         <v>0</v>
       </c>
       <c r="L26" s="15">
@@ -18952,7 +18952,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="12">
-        <f t="shared" ref="O26:O89" si="25">N26</f>
+        <f t="shared" ref="O26:O89" si="19">N26</f>
         <v>0</v>
       </c>
       <c r="P26" s="15">
@@ -18967,7 +18967,7 @@
         <v>3.5</v>
       </c>
       <c r="S26" s="12">
-        <f t="shared" ref="S26:S89" si="26">R26</f>
+        <f t="shared" ref="S26:S89" si="20">R26</f>
         <v>3.5</v>
       </c>
       <c r="T26" s="15">
@@ -18982,7 +18982,7 @@
         <v>11</v>
       </c>
       <c r="W26" s="12">
-        <f t="shared" ref="W26:W89" si="27">V26</f>
+        <f t="shared" ref="W26:W89" si="21">V26</f>
         <v>11</v>
       </c>
       <c r="X26" s="15">
@@ -18997,7 +18997,7 @@
         <v>12</v>
       </c>
       <c r="AA26" s="12">
-        <f t="shared" ref="AA26:AA89" si="28">Z26</f>
+        <f t="shared" ref="AA26:AA89" si="22">Z26</f>
         <v>12</v>
       </c>
       <c r="AB26" s="15">
@@ -19025,7 +19025,7 @@
         <v>372</v>
       </c>
       <c r="G27" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H27" s="15">
@@ -19033,11 +19033,11 @@
         <v>0</v>
       </c>
       <c r="I27" s="21">
-        <f t="shared" ref="I26:I28" si="29">H19</f>
+        <f t="shared" ref="I27:I28" si="23">H19</f>
         <v>100</v>
       </c>
       <c r="K27" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L27" s="15">
@@ -19045,11 +19045,11 @@
         <v>0</v>
       </c>
       <c r="M27" s="21">
-        <f t="shared" ref="M27:M29" si="30">L19</f>
+        <f t="shared" ref="M27:M28" si="24">L19</f>
         <v>0</v>
       </c>
       <c r="O27" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P27" s="15">
@@ -19057,14 +19057,14 @@
         <v>0</v>
       </c>
       <c r="Q27" s="21">
-        <f t="shared" ref="Q27:Q29" si="31">P19</f>
+        <f t="shared" ref="Q27:Q28" si="25">P19</f>
         <v>0</v>
       </c>
       <c r="R27" s="11">
         <v>20</v>
       </c>
       <c r="S27" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="T27" s="15">
@@ -19072,14 +19072,14 @@
         <v>25</v>
       </c>
       <c r="U27" s="21">
-        <f t="shared" ref="U27:U29" si="32">T19</f>
+        <f t="shared" ref="U27:U28" si="26">T19</f>
         <v>25</v>
       </c>
       <c r="V27" s="11">
         <v>50</v>
       </c>
       <c r="W27" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
       <c r="X27" s="15">
@@ -19087,14 +19087,14 @@
         <v>55</v>
       </c>
       <c r="Y27" s="21">
-        <f t="shared" ref="Y27:Y29" si="33">X19</f>
+        <f t="shared" ref="Y27:Y28" si="27">X19</f>
         <v>50</v>
       </c>
       <c r="Z27" s="11">
         <v>70</v>
       </c>
       <c r="AA27" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>70</v>
       </c>
       <c r="AB27" s="15">
@@ -19102,7 +19102,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="21">
-        <f t="shared" ref="AC27:AC29" si="34">AB19</f>
+        <f t="shared" ref="AC27:AC28" si="28">AB19</f>
         <v>78</v>
       </c>
     </row>
@@ -19122,7 +19122,7 @@
         <v>373</v>
       </c>
       <c r="G28" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H28" s="15">
@@ -19130,11 +19130,11 @@
         <v>0</v>
       </c>
       <c r="I28" s="21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="K28" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L28" s="15">
@@ -19142,11 +19142,11 @@
         <v>0</v>
       </c>
       <c r="M28" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O28" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P28" s="15">
@@ -19154,14 +19154,14 @@
         <v>0</v>
       </c>
       <c r="Q28" s="21">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R28" s="11">
         <v>150</v>
       </c>
       <c r="S28" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
       <c r="T28" s="15">
@@ -19169,14 +19169,14 @@
         <v>100</v>
       </c>
       <c r="U28" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>1400</v>
       </c>
       <c r="V28" s="11">
         <v>10</v>
       </c>
       <c r="W28" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="X28" s="15">
@@ -19184,14 +19184,14 @@
         <v>5</v>
       </c>
       <c r="Y28" s="21">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>83</v>
       </c>
       <c r="Z28" s="11">
         <v>3</v>
       </c>
       <c r="AA28" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AB28" s="15">
@@ -19199,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="21">
-        <f t="shared" si="34"/>
+        <f t="shared" si="28"/>
         <v>40</v>
       </c>
     </row>
@@ -19222,84 +19222,84 @@
         <v>9</v>
       </c>
       <c r="G29" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="H29" s="15">
-        <f>G26</f>
+        <f t="shared" ref="H29:I31" si="29">G26</f>
         <v>0</v>
       </c>
       <c r="I29" s="50">
-        <f>H26</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L29" s="15">
-        <f>K26</f>
+        <f t="shared" ref="L29:M29" si="30">K26</f>
         <v>0</v>
       </c>
       <c r="M29" s="50">
-        <f>L26</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O29" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P29" s="15">
-        <f>O26</f>
+        <f t="shared" ref="P29:Q29" si="31">O26</f>
         <v>0</v>
       </c>
       <c r="Q29" s="50">
-        <f>P26</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R29" s="11">
         <v>3.5</v>
       </c>
       <c r="S29" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>3.5</v>
       </c>
       <c r="T29" s="15">
-        <f>S26</f>
+        <f t="shared" ref="T29:U29" si="32">S26</f>
         <v>3.5</v>
       </c>
       <c r="U29" s="50">
-        <f>T26</f>
+        <f t="shared" si="32"/>
         <v>3.5</v>
       </c>
       <c r="V29" s="11">
         <v>11</v>
       </c>
       <c r="W29" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="X29" s="15">
-        <f>W26</f>
+        <f t="shared" ref="X29:Y29" si="33">W26</f>
         <v>11</v>
       </c>
       <c r="Y29" s="50">
-        <f>X26</f>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="Z29" s="11">
         <v>10</v>
       </c>
       <c r="AA29" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="AB29" s="15">
-        <f>AA26</f>
+        <f t="shared" ref="AB29:AC29" si="34">AA26</f>
         <v>12</v>
       </c>
       <c r="AC29" s="50">
-        <f>AB26</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -19322,84 +19322,84 @@
         <v>60</v>
       </c>
       <c r="G30" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="H30" s="15">
-        <f>G27</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I30" s="50">
-        <f>H27</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L30" s="15">
-        <f>K27</f>
+        <f t="shared" ref="L30:M30" si="35">K27</f>
         <v>0</v>
       </c>
       <c r="M30" s="50">
-        <f>L27</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O30" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P30" s="15">
-        <f>O27</f>
+        <f t="shared" ref="P30:Q30" si="36">O27</f>
         <v>0</v>
       </c>
       <c r="Q30" s="50">
-        <f>P27</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R30" s="11">
         <v>15</v>
       </c>
       <c r="S30" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="T30" s="15">
-        <f>S27</f>
+        <f t="shared" ref="T30:U30" si="37">S27</f>
         <v>20</v>
       </c>
       <c r="U30" s="50">
-        <f>T27</f>
+        <f t="shared" si="37"/>
         <v>25</v>
       </c>
       <c r="V30" s="11">
         <v>40</v>
       </c>
       <c r="W30" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>40</v>
       </c>
       <c r="X30" s="15">
-        <f>W27</f>
+        <f t="shared" ref="X30:Y30" si="38">W27</f>
         <v>50</v>
       </c>
       <c r="Y30" s="50">
-        <f>X27</f>
+        <f t="shared" si="38"/>
         <v>55</v>
       </c>
       <c r="Z30" s="11">
         <v>60</v>
       </c>
       <c r="AA30" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>60</v>
       </c>
       <c r="AB30" s="15">
-        <f>AA27</f>
+        <f t="shared" ref="AB30:AC30" si="39">AA27</f>
         <v>70</v>
       </c>
       <c r="AC30" s="50">
-        <f>AB27</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -19422,84 +19422,84 @@
         <v>3</v>
       </c>
       <c r="G31" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="H31" s="15">
-        <f>G28</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I31" s="50">
-        <f>H28</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L31" s="15">
-        <f>K28</f>
+        <f t="shared" ref="L31:M31" si="40">K28</f>
         <v>0</v>
       </c>
       <c r="M31" s="50">
-        <f>L28</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O31" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P31" s="15">
-        <f>O28</f>
+        <f t="shared" ref="P31:Q31" si="41">O28</f>
         <v>0</v>
       </c>
       <c r="Q31" s="50">
-        <f>P28</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R31" s="11">
         <v>150</v>
       </c>
       <c r="S31" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
       <c r="T31" s="15">
-        <f>S28</f>
+        <f t="shared" ref="T31:U31" si="42">S28</f>
         <v>150</v>
       </c>
       <c r="U31" s="50">
-        <f>T28</f>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="V31" s="11">
         <v>5</v>
       </c>
       <c r="W31" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="X31" s="15">
-        <f>W28</f>
+        <f t="shared" ref="X31:Y31" si="43">W28</f>
         <v>10</v>
       </c>
       <c r="Y31" s="50">
-        <f>X28</f>
+        <f t="shared" si="43"/>
         <v>5</v>
       </c>
       <c r="Z31" s="11">
         <v>3</v>
       </c>
       <c r="AA31" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AB31" s="15">
-        <f>AA28</f>
+        <f t="shared" ref="AB31:AC31" si="44">AA28</f>
         <v>3</v>
       </c>
       <c r="AC31" s="50">
-        <f>AB28</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -19515,81 +19515,81 @@
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
       <c r="G32" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H32" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I32" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L32" s="19">
-        <f t="shared" ref="L32:L50" si="35">K32</f>
+        <f t="shared" ref="L32:L50" si="45">K32</f>
         <v>0</v>
       </c>
       <c r="M32" s="21">
-        <f t="shared" ref="M32:M50" si="36">L32</f>
+        <f t="shared" ref="M32:M50" si="46">L32</f>
         <v>0</v>
       </c>
       <c r="O32" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P32" s="19">
-        <f t="shared" ref="P32:P50" si="37">O32</f>
+        <f t="shared" ref="P32:P50" si="47">O32</f>
         <v>0</v>
       </c>
       <c r="Q32" s="21">
-        <f t="shared" ref="Q32:Q50" si="38">P32</f>
+        <f t="shared" ref="Q32:Q50" si="48">P32</f>
         <v>0</v>
       </c>
       <c r="R32" s="11">
         <v>4</v>
       </c>
       <c r="S32" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="T32" s="19">
-        <f t="shared" ref="T32:T50" si="39">S32</f>
+        <f t="shared" ref="T32:T50" si="49">S32</f>
         <v>4</v>
       </c>
       <c r="U32" s="21">
-        <f t="shared" ref="U32:U50" si="40">T32</f>
+        <f t="shared" ref="U32:U50" si="50">T32</f>
         <v>4</v>
       </c>
       <c r="V32" s="11">
         <v>15</v>
       </c>
       <c r="W32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="X32" s="19">
-        <f t="shared" ref="X32:X50" si="41">W32</f>
+        <f t="shared" ref="X32:X50" si="51">W32</f>
         <v>15</v>
       </c>
       <c r="Y32" s="21">
-        <f t="shared" ref="Y32:Y50" si="42">X32</f>
+        <f t="shared" ref="Y32:Y50" si="52">X32</f>
         <v>15</v>
       </c>
       <c r="AA32" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB32" s="19">
-        <f t="shared" ref="AB32:AB50" si="43">AA32</f>
+        <f t="shared" ref="AB32:AB50" si="53">AA32</f>
         <v>0</v>
       </c>
       <c r="AC32" s="21">
-        <f t="shared" ref="AC32:AC50" si="44">AB32</f>
+        <f t="shared" ref="AC32:AC50" si="54">AB32</f>
         <v>0</v>
       </c>
     </row>
@@ -19605,81 +19605,81 @@
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
       <c r="G33" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H33" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I33" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L33" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="M33" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O33" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P33" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q33" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="R33" s="11">
         <v>0</v>
       </c>
       <c r="S33" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T33" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="U33" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V33" s="11">
         <v>5</v>
       </c>
       <c r="W33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="X33" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
       <c r="Y33" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>5</v>
       </c>
       <c r="AA33" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB33" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AC33" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -19698,90 +19698,90 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G34" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="H34" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="I34" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="J34" s="11">
         <v>5</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="L34" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="M34" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
       <c r="N34" s="11">
         <v>3</v>
       </c>
       <c r="O34" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="P34" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="Q34" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="R34" s="11">
         <v>5</v>
       </c>
       <c r="S34" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="T34" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>5</v>
       </c>
       <c r="U34" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>5</v>
       </c>
       <c r="V34" s="11">
         <v>6</v>
       </c>
       <c r="W34" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="X34" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="51"/>
         <v>6</v>
       </c>
       <c r="Y34" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>6</v>
       </c>
       <c r="Z34" s="11">
         <v>5</v>
       </c>
       <c r="AA34" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="AB34" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>5</v>
       </c>
       <c r="AC34" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>5</v>
       </c>
     </row>
@@ -19800,90 +19800,90 @@
         <v>21.6</v>
       </c>
       <c r="G35" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>21.6</v>
       </c>
       <c r="H35" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>21.6</v>
       </c>
       <c r="I35" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>21.6</v>
       </c>
       <c r="J35" s="11">
         <v>70</v>
       </c>
       <c r="K35" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>70</v>
       </c>
       <c r="L35" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>70</v>
       </c>
       <c r="M35" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>70</v>
       </c>
       <c r="N35" s="11">
         <v>2</v>
       </c>
       <c r="O35" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="P35" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="Q35" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="R35" s="11">
         <v>10</v>
       </c>
       <c r="S35" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="T35" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="U35" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>10</v>
       </c>
       <c r="V35" s="11">
         <v>30</v>
       </c>
       <c r="W35" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>30</v>
       </c>
       <c r="X35" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="51"/>
         <v>30</v>
       </c>
       <c r="Y35" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>30</v>
       </c>
       <c r="Z35" s="11">
         <v>80</v>
       </c>
       <c r="AA35" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="AB35" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>80</v>
       </c>
       <c r="AC35" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>80</v>
       </c>
     </row>
@@ -19902,90 +19902,90 @@
         <v>85</v>
       </c>
       <c r="G36" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>85</v>
       </c>
       <c r="H36" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>85</v>
       </c>
       <c r="I36" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>85</v>
       </c>
       <c r="J36" s="11">
         <v>85</v>
       </c>
       <c r="K36" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>85</v>
       </c>
       <c r="L36" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>85</v>
       </c>
       <c r="M36" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>85</v>
       </c>
       <c r="N36" s="11">
         <v>100</v>
       </c>
       <c r="O36" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="P36" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="Q36" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>100</v>
       </c>
       <c r="R36" s="11">
         <v>90</v>
       </c>
       <c r="S36" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>90</v>
       </c>
       <c r="T36" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>90</v>
       </c>
       <c r="U36" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>90</v>
       </c>
       <c r="V36" s="11">
         <v>85</v>
       </c>
       <c r="W36" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>85</v>
       </c>
       <c r="X36" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="51"/>
         <v>85</v>
       </c>
       <c r="Y36" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>85</v>
       </c>
       <c r="Z36" s="11">
         <v>90</v>
       </c>
       <c r="AA36" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>90</v>
       </c>
       <c r="AB36" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>90</v>
       </c>
       <c r="AC36" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>90</v>
       </c>
     </row>
@@ -20004,81 +20004,81 @@
         <v>0.3</v>
       </c>
       <c r="G37" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.3</v>
       </c>
       <c r="H37" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.3</v>
       </c>
       <c r="I37" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.3</v>
       </c>
       <c r="J37" s="11">
         <v>2</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="L37" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M37" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="O37" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P37" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q37" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="R37" s="11">
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T37" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U37" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="W37" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X37" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Y37" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AA37" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB37" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AC37" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -20097,81 +20097,81 @@
         <v>1.2</v>
       </c>
       <c r="G38" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>1.2</v>
       </c>
       <c r="H38" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>1.2</v>
       </c>
       <c r="I38" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>1.2</v>
       </c>
       <c r="J38" s="11">
         <v>5</v>
       </c>
       <c r="K38" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="L38" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="M38" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
       <c r="O38" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P38" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q38" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="R38" s="11">
         <v>20</v>
       </c>
       <c r="S38" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="T38" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>20</v>
       </c>
       <c r="U38" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>20</v>
       </c>
       <c r="W38" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X38" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Y38" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AA38" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB38" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AC38" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -20190,81 +20190,81 @@
         <v>95</v>
       </c>
       <c r="G39" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>95</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>95</v>
       </c>
       <c r="I39" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>95</v>
       </c>
       <c r="J39" s="11">
         <v>85</v>
       </c>
       <c r="K39" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>85</v>
       </c>
       <c r="L39" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>85</v>
       </c>
       <c r="M39" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>85</v>
       </c>
       <c r="O39" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P39" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q39" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="R39" s="11">
         <v>90</v>
       </c>
       <c r="S39" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>90</v>
       </c>
       <c r="T39" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>90</v>
       </c>
       <c r="U39" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>90</v>
       </c>
       <c r="W39" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X39" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Y39" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AA39" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB39" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AC39" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -20283,87 +20283,87 @@
         <v>0.9</v>
       </c>
       <c r="G40" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.9</v>
       </c>
       <c r="H40" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.9</v>
       </c>
       <c r="I40" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.9</v>
       </c>
       <c r="K40" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L40" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="M40" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N40" s="11">
         <v>2</v>
       </c>
       <c r="O40" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="P40" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="Q40" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="R40" s="11">
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T40" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="U40" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="V40" s="11">
         <v>2.5</v>
       </c>
       <c r="W40" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>2.5</v>
       </c>
       <c r="X40" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="51"/>
         <v>2.5</v>
       </c>
       <c r="Y40" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>2.5</v>
       </c>
       <c r="Z40" s="11">
         <v>2</v>
       </c>
       <c r="AA40" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="AB40" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>2</v>
       </c>
       <c r="AC40" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
     </row>
@@ -20384,7 +20384,7 @@
         <v>0.1</v>
       </c>
       <c r="G41" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.1</v>
       </c>
       <c r="H41" s="19">
@@ -20392,11 +20392,11 @@
         <v>0.125</v>
       </c>
       <c r="I41" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.125</v>
       </c>
       <c r="K41" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L41" s="19">
@@ -20404,14 +20404,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N41" s="11">
         <v>1</v>
       </c>
       <c r="O41" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="P41" s="19">
@@ -20419,14 +20419,14 @@
         <v>1.25</v>
       </c>
       <c r="Q41" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>1.25</v>
       </c>
       <c r="R41" s="11">
         <v>0.01</v>
       </c>
       <c r="S41" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0.01</v>
       </c>
       <c r="T41" s="19">
@@ -20434,14 +20434,14 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="U41" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="V41" s="11">
         <v>0.4</v>
       </c>
       <c r="W41" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0.4</v>
       </c>
       <c r="X41" s="19">
@@ -20449,14 +20449,14 @@
         <v>0.5</v>
       </c>
       <c r="Y41" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>0.5</v>
       </c>
       <c r="Z41" s="11">
         <v>0.1</v>
       </c>
       <c r="AA41" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0.1</v>
       </c>
       <c r="AB41" s="19">
@@ -20464,7 +20464,7 @@
         <v>0.125</v>
       </c>
       <c r="AC41" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>0.125</v>
       </c>
     </row>
@@ -20485,7 +20485,7 @@
         <v>0.7</v>
       </c>
       <c r="G42" s="12">
-        <f t="shared" ref="G42:I93" si="45">F42</f>
+        <f t="shared" ref="G42:I93" si="55">F42</f>
         <v>0.7</v>
       </c>
       <c r="H42" s="19">
@@ -20493,11 +20493,11 @@
         <v>0.875</v>
       </c>
       <c r="I42" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.875</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L42" s="19">
@@ -20505,14 +20505,14 @@
         <v>0</v>
       </c>
       <c r="M42" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N42" s="11">
         <v>90</v>
       </c>
       <c r="O42" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>90</v>
       </c>
       <c r="P42" s="19">
@@ -20520,14 +20520,14 @@
         <v>100</v>
       </c>
       <c r="Q42" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>100</v>
       </c>
       <c r="R42" s="11">
         <v>2</v>
       </c>
       <c r="S42" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="T42" s="19">
@@ -20535,14 +20535,14 @@
         <v>2.5</v>
       </c>
       <c r="U42" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>2.5</v>
       </c>
       <c r="V42" s="11">
         <v>30</v>
       </c>
       <c r="W42" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>30</v>
       </c>
       <c r="X42" s="19">
@@ -20550,14 +20550,14 @@
         <v>37.5</v>
       </c>
       <c r="Y42" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>37.5</v>
       </c>
       <c r="Z42" s="11">
         <v>20</v>
       </c>
       <c r="AA42" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="AB42" s="19">
@@ -20565,7 +20565,7 @@
         <v>25</v>
       </c>
       <c r="AC42" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>25</v>
       </c>
     </row>
@@ -20584,87 +20584,87 @@
         <v>95</v>
       </c>
       <c r="G43" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>95</v>
       </c>
       <c r="H43" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>95</v>
       </c>
       <c r="I43" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>95</v>
       </c>
       <c r="K43" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L43" s="19">
-        <f t="shared" ref="L43:L93" si="46">K43</f>
+        <f t="shared" ref="L43:L93" si="56">K43</f>
         <v>0</v>
       </c>
       <c r="M43" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N43" s="11">
         <v>85</v>
       </c>
       <c r="O43" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>85</v>
       </c>
       <c r="P43" s="19">
-        <f t="shared" ref="P43:P93" si="47">O43</f>
+        <f t="shared" ref="P43:P93" si="57">O43</f>
         <v>85</v>
       </c>
       <c r="Q43" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>85</v>
       </c>
       <c r="R43" s="11">
         <v>90</v>
       </c>
       <c r="S43" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>90</v>
       </c>
       <c r="T43" s="19">
-        <f t="shared" ref="T43:T93" si="48">S43</f>
+        <f t="shared" ref="T43:T93" si="58">S43</f>
         <v>90</v>
       </c>
       <c r="U43" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>90</v>
       </c>
       <c r="V43" s="11">
         <v>80</v>
       </c>
       <c r="W43" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>80</v>
       </c>
       <c r="X43" s="19">
-        <f t="shared" ref="X43:X93" si="49">W43</f>
+        <f t="shared" ref="X43:X93" si="59">W43</f>
         <v>80</v>
       </c>
       <c r="Y43" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>80</v>
       </c>
       <c r="Z43" s="11">
         <v>60</v>
       </c>
       <c r="AA43" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>60</v>
       </c>
       <c r="AB43" s="19">
-        <f t="shared" ref="AB43:AB93" si="50">AA43</f>
+        <f t="shared" ref="AB43:AB93" si="60">AA43</f>
         <v>60</v>
       </c>
       <c r="AC43" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>60</v>
       </c>
     </row>
@@ -20683,84 +20683,84 @@
         <v>0.9</v>
       </c>
       <c r="G44" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0.9</v>
       </c>
       <c r="H44" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0.9</v>
       </c>
       <c r="I44" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.9</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L44" s="19">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="21">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="21">
-        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N44" s="11">
         <v>1</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="P44" s="19">
-        <f t="shared" si="47"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="Q44" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="R44" s="11">
         <v>0.5</v>
       </c>
       <c r="S44" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="T44" s="19">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.5</v>
       </c>
       <c r="U44" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>0.5</v>
       </c>
       <c r="W44" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X44" s="19">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y44" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Z44" s="11">
         <v>1</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AB44" s="19">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="AC44" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
     </row>
@@ -20781,7 +20781,7 @@
         <v>0.1</v>
       </c>
       <c r="G45" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0.1</v>
       </c>
       <c r="H45" s="19">
@@ -20789,11 +20789,11 @@
         <v>0.125</v>
       </c>
       <c r="I45" s="21">
-        <f t="shared" ref="I45:I47" si="51">H45</f>
+        <f t="shared" ref="I45:I47" si="61">H45</f>
         <v>0.125</v>
       </c>
       <c r="K45" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L45" s="19">
@@ -20801,14 +20801,14 @@
         <v>0</v>
       </c>
       <c r="M45" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N45" s="11">
         <v>0.01</v>
       </c>
       <c r="O45" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0.01</v>
       </c>
       <c r="P45" s="19">
@@ -20816,14 +20816,14 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="Q45" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="R45" s="11">
         <v>0.02</v>
       </c>
       <c r="S45" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0.02</v>
       </c>
       <c r="T45" s="19">
@@ -20831,11 +20831,11 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="U45" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="W45" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X45" s="19">
@@ -20843,14 +20843,14 @@
         <v>0</v>
       </c>
       <c r="Y45" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Z45" s="11">
         <v>0.1</v>
       </c>
       <c r="AA45" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0.1</v>
       </c>
       <c r="AB45" s="19">
@@ -20858,7 +20858,7 @@
         <v>0.125</v>
       </c>
       <c r="AC45" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>0.125</v>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
         <v>0.2</v>
       </c>
       <c r="G46" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0.2</v>
       </c>
       <c r="H46" s="19">
@@ -20887,11 +20887,11 @@
         <v>0.25</v>
       </c>
       <c r="I46" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>0.25</v>
       </c>
       <c r="K46" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L46" s="19">
@@ -20899,14 +20899,14 @@
         <v>0</v>
       </c>
       <c r="M46" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N46" s="11">
         <v>8</v>
       </c>
       <c r="O46" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="P46" s="19">
@@ -20914,14 +20914,14 @@
         <v>10</v>
       </c>
       <c r="Q46" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="R46" s="11">
         <v>5</v>
       </c>
       <c r="S46" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="T46" s="19">
@@ -20929,11 +20929,11 @@
         <v>6.25</v>
       </c>
       <c r="U46" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>6.25</v>
       </c>
       <c r="W46" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X46" s="19">
@@ -20941,14 +20941,14 @@
         <v>0</v>
       </c>
       <c r="Y46" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Z46" s="11">
         <v>20</v>
       </c>
       <c r="AA46" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="AB46" s="19">
@@ -20956,7 +20956,7 @@
         <v>25</v>
       </c>
       <c r="AC46" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>25</v>
       </c>
     </row>
@@ -20975,84 +20975,84 @@
         <v>85</v>
       </c>
       <c r="G47" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>85</v>
       </c>
       <c r="H47" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>85</v>
       </c>
       <c r="I47" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>85</v>
       </c>
       <c r="K47" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L47" s="19">
-        <f t="shared" ref="L47:L93" si="52">K47</f>
+        <f t="shared" ref="L47:L93" si="62">K47</f>
         <v>0</v>
       </c>
       <c r="M47" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N47" s="11">
         <v>70</v>
       </c>
       <c r="O47" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="P47" s="19">
-        <f t="shared" ref="P47:P93" si="53">O47</f>
+        <f t="shared" ref="P47:P93" si="63">O47</f>
         <v>70</v>
       </c>
       <c r="Q47" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>70</v>
       </c>
       <c r="R47" s="11">
         <v>90</v>
       </c>
       <c r="S47" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>90</v>
       </c>
       <c r="T47" s="19">
-        <f t="shared" ref="T47:T93" si="54">S47</f>
+        <f t="shared" ref="T47:T93" si="64">S47</f>
         <v>90</v>
       </c>
       <c r="U47" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>90</v>
       </c>
       <c r="W47" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X47" s="19">
-        <f t="shared" ref="X47:X93" si="55">W47</f>
+        <f t="shared" ref="X47:X93" si="65">W47</f>
         <v>0</v>
       </c>
       <c r="Y47" s="21">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Z47" s="11">
         <v>60</v>
       </c>
       <c r="AA47" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>60</v>
       </c>
       <c r="AB47" s="19">
-        <f t="shared" ref="AB47:AB93" si="56">AA47</f>
+        <f t="shared" ref="AB47:AB93" si="66">AA47</f>
         <v>60</v>
       </c>
       <c r="AC47" s="21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>60</v>
       </c>
     </row>
@@ -21075,7 +21075,7 @@
         <v>4</v>
       </c>
       <c r="G48" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>4</v>
       </c>
       <c r="H48" s="19">
@@ -21083,14 +21083,14 @@
         <v>5</v>
       </c>
       <c r="I48" s="21">
-        <f t="shared" ref="I48" si="57">H48*$E48</f>
+        <f t="shared" ref="I48" si="67">H48*$E48</f>
         <v>6.25</v>
       </c>
       <c r="J48" s="11">
         <v>1</v>
       </c>
       <c r="K48" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="L48" s="19">
@@ -21098,11 +21098,11 @@
         <v>1.25</v>
       </c>
       <c r="M48" s="21">
-        <f t="shared" ref="M48" si="58">L48*$E48</f>
+        <f t="shared" ref="M48" si="68">L48*$E48</f>
         <v>1.5625</v>
       </c>
       <c r="O48" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P48" s="19">
@@ -21110,14 +21110,14 @@
         <v>0</v>
       </c>
       <c r="Q48" s="21">
-        <f t="shared" ref="Q48" si="59">P48*$E48</f>
+        <f t="shared" ref="Q48" si="69">P48*$E48</f>
         <v>0</v>
       </c>
       <c r="R48" s="11">
         <v>0.5</v>
       </c>
       <c r="S48" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="T48" s="19">
@@ -21125,14 +21125,14 @@
         <v>0.625</v>
       </c>
       <c r="U48" s="21">
-        <f t="shared" ref="U48" si="60">T48*$E48</f>
+        <f t="shared" ref="U48" si="70">T48*$E48</f>
         <v>0.78125</v>
       </c>
       <c r="V48" s="11">
         <v>1</v>
       </c>
       <c r="W48" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="X48" s="19">
@@ -21140,14 +21140,14 @@
         <v>1.25</v>
       </c>
       <c r="Y48" s="21">
-        <f t="shared" ref="Y48" si="61">X48*$E48</f>
+        <f t="shared" ref="Y48" si="71">X48*$E48</f>
         <v>1.5625</v>
       </c>
       <c r="Z48" s="11">
         <v>0.5</v>
       </c>
       <c r="AA48" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
       <c r="AB48" s="19">
@@ -21155,7 +21155,7 @@
         <v>0.625</v>
       </c>
       <c r="AC48" s="21">
-        <f t="shared" ref="AC48" si="62">AB48*$E48</f>
+        <f t="shared" ref="AC48" si="72">AB48*$E48</f>
         <v>0.78125</v>
       </c>
     </row>
@@ -21178,7 +21178,7 @@
         <v>70</v>
       </c>
       <c r="G49" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>70</v>
       </c>
       <c r="H49" s="19">
@@ -21193,7 +21193,7 @@
         <v>50</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="L49" s="19">
@@ -21205,7 +21205,7 @@
         <v>78.125</v>
       </c>
       <c r="O49" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P49" s="19">
@@ -21220,7 +21220,7 @@
         <v>30</v>
       </c>
       <c r="S49" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="T49" s="19">
@@ -21235,7 +21235,7 @@
         <v>40</v>
       </c>
       <c r="W49" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>40</v>
       </c>
       <c r="X49" s="19">
@@ -21250,7 +21250,7 @@
         <v>15</v>
       </c>
       <c r="AA49" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="AB49" s="19">
@@ -21281,7 +21281,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
       <c r="H50" s="19">
@@ -21296,7 +21296,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="L50" s="19">
@@ -21308,7 +21308,7 @@
         <v>3.75</v>
       </c>
       <c r="O50" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P50" s="19">
@@ -21323,7 +21323,7 @@
         <v>0.5</v>
       </c>
       <c r="S50" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="T50" s="19">
@@ -21338,7 +21338,7 @@
         <v>1</v>
       </c>
       <c r="W50" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="X50" s="19">
@@ -21353,7 +21353,7 @@
         <v>0.3</v>
       </c>
       <c r="AA50" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="AB50" s="19">
@@ -21384,7 +21384,7 @@
         <v>1.5</v>
       </c>
       <c r="G51" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>1.5</v>
       </c>
       <c r="H51" s="19">
@@ -21399,7 +21399,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="L51" s="19">
@@ -21411,7 +21411,7 @@
         <v>2.5</v>
       </c>
       <c r="O51" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P51" s="19">
@@ -21426,7 +21426,7 @@
         <v>0.2</v>
       </c>
       <c r="S51" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0.2</v>
       </c>
       <c r="T51" s="19">
@@ -21441,7 +21441,7 @@
         <v>0.5</v>
       </c>
       <c r="W51" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="X51" s="19">
@@ -21456,7 +21456,7 @@
         <v>0.4</v>
       </c>
       <c r="AA51" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0.4</v>
       </c>
       <c r="AB51" s="19">
@@ -21487,7 +21487,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="H52" s="19">
@@ -21502,7 +21502,7 @@
         <v>0.5</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
       <c r="L52" s="19">
@@ -21514,7 +21514,7 @@
         <v>1.25</v>
       </c>
       <c r="O52" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P52" s="19">
@@ -21529,7 +21529,7 @@
         <v>0.1</v>
       </c>
       <c r="S52" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0.1</v>
       </c>
       <c r="T52" s="19">
@@ -21544,7 +21544,7 @@
         <v>0.3</v>
       </c>
       <c r="W52" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="X52" s="19">
@@ -21559,7 +21559,7 @@
         <v>0.02</v>
       </c>
       <c r="AA52" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0.02</v>
       </c>
       <c r="AB52" s="19">
@@ -21588,11 +21588,11 @@
         <v>6</v>
       </c>
       <c r="G53" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="H53" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="I53" s="21">
@@ -21603,11 +21603,11 @@
         <v>0</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L53" s="19">
-        <f t="shared" ref="L53:L93" si="63">K53</f>
+        <f t="shared" ref="L53:L93" si="73">K53</f>
         <v>0</v>
       </c>
       <c r="M53" s="21">
@@ -21615,11 +21615,11 @@
         <v>4</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P53" s="19">
-        <f t="shared" ref="P53:P93" si="64">O53</f>
+        <f t="shared" ref="P53:P93" si="74">O53</f>
         <v>0</v>
       </c>
       <c r="Q53" s="21">
@@ -21630,11 +21630,11 @@
         <v>1</v>
       </c>
       <c r="S53" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T53" s="19">
-        <f t="shared" ref="T53:T93" si="65">S53</f>
+        <f t="shared" ref="T53:T93" si="75">S53</f>
         <v>1</v>
       </c>
       <c r="U53" s="21">
@@ -21645,11 +21645,11 @@
         <v>1.2</v>
       </c>
       <c r="W53" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>1.2</v>
       </c>
       <c r="X53" s="19">
-        <f t="shared" ref="X53:X93" si="66">W53</f>
+        <f t="shared" ref="X53:X93" si="76">W53</f>
         <v>1.2</v>
       </c>
       <c r="Y53" s="21">
@@ -21660,11 +21660,11 @@
         <v>0.5</v>
       </c>
       <c r="AA53" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
       <c r="AB53" s="19">
-        <f t="shared" ref="AB53:AB93" si="67">AA53</f>
+        <f t="shared" ref="AB53:AB93" si="77">AA53</f>
         <v>0.5</v>
       </c>
       <c r="AC53" s="21">
@@ -21689,11 +21689,11 @@
         <v>12</v>
       </c>
       <c r="G54" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>12</v>
       </c>
       <c r="H54" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>12</v>
       </c>
       <c r="I54" s="21">
@@ -21704,11 +21704,11 @@
         <v>0</v>
       </c>
       <c r="K54" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L54" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M54" s="21">
@@ -21716,11 +21716,11 @@
         <v>4</v>
       </c>
       <c r="O54" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P54" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q54" s="21">
@@ -21731,11 +21731,11 @@
         <v>0</v>
       </c>
       <c r="S54" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T54" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U54" s="21">
@@ -21746,11 +21746,11 @@
         <v>0.5</v>
       </c>
       <c r="W54" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="X54" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="Y54" s="21">
@@ -21761,11 +21761,11 @@
         <v>0</v>
       </c>
       <c r="AA54" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB54" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC54" s="21">
@@ -21790,11 +21790,11 @@
         <v>0</v>
       </c>
       <c r="G55" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H55" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I55" s="21">
@@ -21805,11 +21805,11 @@
         <v>0</v>
       </c>
       <c r="K55" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L55" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M55" s="21">
@@ -21817,11 +21817,11 @@
         <v>4</v>
       </c>
       <c r="O55" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P55" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q55" s="21">
@@ -21832,11 +21832,11 @@
         <v>0</v>
       </c>
       <c r="S55" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T55" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U55" s="21">
@@ -21847,11 +21847,11 @@
         <v>0.5</v>
       </c>
       <c r="W55" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="X55" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0.5</v>
       </c>
       <c r="Y55" s="21">
@@ -21862,11 +21862,11 @@
         <v>0</v>
       </c>
       <c r="AA55" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB55" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC55" s="21">
@@ -21891,11 +21891,11 @@
         <v>5</v>
       </c>
       <c r="G56" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>5</v>
       </c>
       <c r="H56" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>5</v>
       </c>
       <c r="I56" s="16">
@@ -21903,11 +21903,11 @@
         <v>6.5</v>
       </c>
       <c r="K56" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L56" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M56" s="16">
@@ -21915,11 +21915,11 @@
         <v>0</v>
       </c>
       <c r="O56" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P56" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q56" s="16">
@@ -21930,11 +21930,11 @@
         <v>0.5</v>
       </c>
       <c r="S56" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0.5</v>
       </c>
       <c r="T56" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0.5</v>
       </c>
       <c r="U56" s="16">
@@ -21945,11 +21945,11 @@
         <v>0.75</v>
       </c>
       <c r="W56" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0.75</v>
       </c>
       <c r="X56" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0.75</v>
       </c>
       <c r="Y56" s="16">
@@ -21957,11 +21957,11 @@
         <v>1.05</v>
       </c>
       <c r="AA56" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB56" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC56" s="16">
@@ -21986,11 +21986,11 @@
         <v>11</v>
       </c>
       <c r="G57" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>11</v>
       </c>
       <c r="H57" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>11</v>
       </c>
       <c r="I57" s="16">
@@ -21998,11 +21998,11 @@
         <v>14</v>
       </c>
       <c r="K57" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L57" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M57" s="16">
@@ -22010,11 +22010,11 @@
         <v>0</v>
       </c>
       <c r="O57" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P57" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q57" s="16">
@@ -22025,11 +22025,11 @@
         <v>0</v>
       </c>
       <c r="S57" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T57" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U57" s="16">
@@ -22040,11 +22040,11 @@
         <v>0.3</v>
       </c>
       <c r="W57" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0.3</v>
       </c>
       <c r="X57" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0.3</v>
       </c>
       <c r="Y57" s="16">
@@ -22052,11 +22052,11 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="AA57" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB57" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC57" s="16">
@@ -22081,11 +22081,11 @@
         <v>0</v>
       </c>
       <c r="G58" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H58" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I58" s="16">
@@ -22093,11 +22093,11 @@
         <v>0</v>
       </c>
       <c r="K58" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L58" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M58" s="16">
@@ -22105,11 +22105,11 @@
         <v>0</v>
       </c>
       <c r="O58" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P58" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q58" s="16">
@@ -22120,11 +22120,11 @@
         <v>0</v>
       </c>
       <c r="S58" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T58" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U58" s="16">
@@ -22135,11 +22135,11 @@
         <v>0</v>
       </c>
       <c r="W58" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X58" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Y58" s="16">
@@ -22147,11 +22147,11 @@
         <v>0.125</v>
       </c>
       <c r="AA58" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB58" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC58" s="16">
@@ -22174,11 +22174,11 @@
         <v>9.6</v>
       </c>
       <c r="G59" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>9.6</v>
       </c>
       <c r="H59" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>9.6</v>
       </c>
       <c r="I59" s="21">
@@ -22186,11 +22186,11 @@
         <v>9.6</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L59" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M59" s="21">
@@ -22198,11 +22198,11 @@
         <v>0</v>
       </c>
       <c r="O59" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P59" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q59" s="21">
@@ -22213,11 +22213,11 @@
         <v>3.5</v>
       </c>
       <c r="S59" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>3.5</v>
       </c>
       <c r="T59" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>3.5</v>
       </c>
       <c r="U59" s="21">
@@ -22225,11 +22225,11 @@
         <v>3.5</v>
       </c>
       <c r="W59" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X59" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Y59" s="21">
@@ -22237,11 +22237,11 @@
         <v>0</v>
       </c>
       <c r="AA59" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB59" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC59" s="21">
@@ -22264,78 +22264,78 @@
         <v>0.4</v>
       </c>
       <c r="G60" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0.4</v>
       </c>
       <c r="H60" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0.4</v>
       </c>
       <c r="I60" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0.4</v>
       </c>
       <c r="K60" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L60" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M60" s="21">
-        <f t="shared" ref="M60:M93" si="68">L60</f>
+        <f t="shared" ref="M60:M93" si="78">L60</f>
         <v>0</v>
       </c>
       <c r="O60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P60" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q60" s="21">
-        <f t="shared" ref="Q60:Q93" si="69">P60</f>
+        <f t="shared" ref="Q60:Q93" si="79">P60</f>
         <v>0</v>
       </c>
       <c r="R60" s="11">
         <v>2</v>
       </c>
       <c r="S60" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="T60" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="U60" s="21">
-        <f t="shared" ref="U60:U93" si="70">T60</f>
+        <f t="shared" ref="U60:U93" si="80">T60</f>
         <v>2</v>
       </c>
       <c r="W60" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X60" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Y60" s="21">
-        <f t="shared" ref="Y60:Y93" si="71">X60</f>
+        <f t="shared" ref="Y60:Y93" si="81">X60</f>
         <v>0</v>
       </c>
       <c r="AA60" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB60" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC60" s="21">
-        <f t="shared" ref="AC60:AC93" si="72">AB60</f>
+        <f t="shared" ref="AC60:AC93" si="82">AB60</f>
         <v>0</v>
       </c>
     </row>
@@ -22354,78 +22354,78 @@
         <v>115</v>
       </c>
       <c r="G61" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>115</v>
       </c>
       <c r="H61" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>115</v>
       </c>
       <c r="I61" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>115</v>
       </c>
       <c r="K61" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L61" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M61" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O61" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P61" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q61" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="R61" s="11">
         <v>50</v>
       </c>
       <c r="S61" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="T61" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>50</v>
       </c>
       <c r="U61" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>50</v>
       </c>
       <c r="W61" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X61" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Y61" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AA61" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB61" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC61" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -22444,84 +22444,84 @@
         <v>9.6</v>
       </c>
       <c r="G62" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>9.6</v>
       </c>
       <c r="H62" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>9.6</v>
       </c>
       <c r="I62" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>9.6</v>
       </c>
       <c r="K62" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L62" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M62" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O62" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P62" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q62" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="R62" s="11">
         <v>3.5</v>
       </c>
       <c r="S62" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>3.5</v>
       </c>
       <c r="T62" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>3.5</v>
       </c>
       <c r="U62" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>3.5</v>
       </c>
       <c r="V62" s="11">
         <v>10</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="X62" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>10</v>
       </c>
       <c r="Y62" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>10</v>
       </c>
       <c r="Z62" s="11">
         <v>10</v>
       </c>
       <c r="AA62" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="AB62" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>10</v>
       </c>
       <c r="AC62" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>10</v>
       </c>
     </row>
@@ -22540,84 +22540,84 @@
         <v>0.4</v>
       </c>
       <c r="G63" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0.4</v>
       </c>
       <c r="H63" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0.4</v>
       </c>
       <c r="I63" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0.4</v>
       </c>
       <c r="K63" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L63" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M63" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O63" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P63" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q63" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="R63" s="11">
         <v>2</v>
       </c>
       <c r="S63" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="T63" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="U63" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>2</v>
       </c>
       <c r="V63" s="11">
         <v>1</v>
       </c>
       <c r="W63" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="X63" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="Y63" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="Z63" s="11">
         <v>1</v>
       </c>
       <c r="AA63" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AB63" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="AC63" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
     </row>
@@ -22636,84 +22636,84 @@
         <v>115</v>
       </c>
       <c r="G64" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>115</v>
       </c>
       <c r="H64" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>115</v>
       </c>
       <c r="I64" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>115</v>
       </c>
       <c r="K64" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L64" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M64" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O64" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P64" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q64" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="R64" s="11">
         <v>50</v>
       </c>
       <c r="S64" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="T64" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>50</v>
       </c>
       <c r="U64" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>50</v>
       </c>
       <c r="V64" s="11">
         <v>5</v>
       </c>
       <c r="W64" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="X64" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>5</v>
       </c>
       <c r="Y64" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>5</v>
       </c>
       <c r="Z64" s="11">
         <v>3</v>
       </c>
       <c r="AA64" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="AB64" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>3</v>
       </c>
       <c r="AC64" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>3</v>
       </c>
     </row>
@@ -22729,75 +22729,75 @@
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
       <c r="G65" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H65" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I65" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K65" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L65" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M65" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O65" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P65" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q65" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="S65" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T65" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U65" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="W65" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X65" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Y65" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AA65" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB65" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC65" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -22813,75 +22813,75 @@
       <c r="D66" s="8"/>
       <c r="E66" s="9"/>
       <c r="G66" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H66" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I66" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K66" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L66" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M66" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O66" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P66" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q66" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="S66" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T66" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U66" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="W66" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X66" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Y66" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AA66" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB66" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC66" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -22897,75 +22897,75 @@
       <c r="D67" s="8"/>
       <c r="E67" s="9"/>
       <c r="G67" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H67" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I67" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K67" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L67" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M67" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O67" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P67" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q67" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="S67" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T67" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U67" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="W67" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X67" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Y67" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AA67" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB67" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC67" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -22984,90 +22984,90 @@
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="H68" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="I68" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>7.8118999999999994E-2</v>
       </c>
       <c r="J68" s="11">
         <v>0</v>
       </c>
       <c r="K68" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L68" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M68" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
         <v>0</v>
       </c>
       <c r="O68" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P68" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q68" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="S68" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="T68" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="U68" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>8.1810999999999995E-2</v>
       </c>
       <c r="V68" s="11">
         <v>0.13589300000000001</v>
       </c>
       <c r="W68" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0.13589300000000001</v>
       </c>
       <c r="X68" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0.13589300000000001</v>
       </c>
       <c r="Y68" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0.13589300000000001</v>
       </c>
       <c r="Z68" s="11">
         <v>0</v>
       </c>
       <c r="AA68" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB68" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC68" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -23086,90 +23086,90 @@
         <v>0</v>
       </c>
       <c r="G69" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H69" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I69" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="J69" s="11">
         <v>0</v>
       </c>
       <c r="K69" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L69" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M69" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="N69" s="11">
         <v>0</v>
       </c>
       <c r="O69" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P69" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q69" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="R69" s="11">
         <v>0</v>
       </c>
       <c r="S69" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T69" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U69" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="V69" s="11">
         <v>0</v>
       </c>
       <c r="W69" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X69" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Y69" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="Z69" s="11">
         <v>0</v>
       </c>
       <c r="AA69" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB69" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC69" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -23188,90 +23188,90 @@
         <v>0</v>
       </c>
       <c r="G70" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H70" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I70" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="J70" s="11">
         <v>0</v>
       </c>
       <c r="K70" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L70" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M70" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="N70" s="11">
         <v>0</v>
       </c>
       <c r="O70" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P70" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q70" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="R70" s="11">
         <v>0</v>
       </c>
       <c r="S70" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T70" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U70" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="V70" s="11">
         <v>0</v>
       </c>
       <c r="W70" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X70" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Y70" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="Z70" s="11">
         <v>0</v>
       </c>
       <c r="AA70" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB70" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC70" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -23287,78 +23287,78 @@
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
       <c r="G71" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H71" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I71" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K71" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L71" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M71" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O71" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P71" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q71" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="S71" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T71" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U71" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="V71" s="11">
         <v>90</v>
       </c>
       <c r="W71" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>90</v>
       </c>
       <c r="X71" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>90</v>
       </c>
       <c r="Y71" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>90</v>
       </c>
       <c r="AA71" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB71" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC71" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -23374,78 +23374,78 @@
       <c r="D72" s="8"/>
       <c r="E72" s="9"/>
       <c r="G72" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H72" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I72" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="J72" s="11">
         <v>100</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="L72" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>100</v>
       </c>
       <c r="M72" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>100</v>
       </c>
       <c r="O72" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P72" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q72" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="S72" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T72" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U72" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="W72" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X72" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Y72" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AA72" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB72" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC72" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -23461,78 +23461,78 @@
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
       <c r="G73" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H73" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I73" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K73" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L73" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M73" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="N73" s="11">
         <v>100</v>
       </c>
       <c r="O73" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
       <c r="P73" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>100</v>
       </c>
       <c r="Q73" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>100</v>
       </c>
       <c r="S73" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T73" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U73" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="W73" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X73" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Y73" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AA73" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB73" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC73" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -23551,81 +23551,81 @@
         <v>50</v>
       </c>
       <c r="G74" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>50</v>
       </c>
       <c r="H74" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>50</v>
       </c>
       <c r="I74" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>50</v>
       </c>
       <c r="K74" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L74" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M74" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O74" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P74" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q74" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="S74" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T74" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U74" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="V74" s="11">
         <v>10</v>
       </c>
       <c r="W74" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="X74" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>10</v>
       </c>
       <c r="Y74" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>10</v>
       </c>
       <c r="Z74" s="11">
         <v>40</v>
       </c>
       <c r="AA74" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
       <c r="AB74" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>40</v>
       </c>
       <c r="AC74" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>40</v>
       </c>
     </row>
@@ -23644,78 +23644,78 @@
         <v>50</v>
       </c>
       <c r="G75" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>50</v>
       </c>
       <c r="H75" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>50</v>
       </c>
       <c r="I75" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>50</v>
       </c>
       <c r="K75" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L75" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M75" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O75" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P75" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q75" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="R75" s="11">
         <v>100</v>
       </c>
       <c r="S75" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="T75" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>100</v>
       </c>
       <c r="U75" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>100</v>
       </c>
       <c r="W75" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X75" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Y75" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AA75" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB75" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC75" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -23731,78 +23731,78 @@
       <c r="D76" s="8"/>
       <c r="E76" s="9"/>
       <c r="G76" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H76" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I76" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K76" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L76" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M76" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O76" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P76" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q76" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="S76" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T76" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U76" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="W76" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X76" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Y76" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="Z76" s="11">
         <v>60</v>
       </c>
       <c r="AA76" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>60</v>
       </c>
       <c r="AB76" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>60</v>
       </c>
       <c r="AC76" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>60</v>
       </c>
     </row>
@@ -23818,75 +23818,75 @@
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
       <c r="G77" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H77" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I77" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K77" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L77" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M77" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O77" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P77" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q77" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="S77" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T77" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="U77" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="W77" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X77" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Y77" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AA77" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB77" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC77" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -23902,78 +23902,78 @@
       <c r="D78" s="8"/>
       <c r="E78" s="9"/>
       <c r="G78" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H78" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I78" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K78" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L78" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M78" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O78" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P78" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q78" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="R78" s="11">
         <v>2</v>
       </c>
       <c r="S78" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="T78" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="U78" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>2</v>
       </c>
       <c r="W78" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X78" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Y78" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AA78" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB78" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC78" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -23989,78 +23989,78 @@
       <c r="D79" s="8"/>
       <c r="E79" s="9"/>
       <c r="G79" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H79" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I79" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K79" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L79" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M79" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O79" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P79" s="19">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="Q79" s="21">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="R79" s="11">
         <v>5</v>
       </c>
       <c r="S79" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="T79" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>5</v>
       </c>
       <c r="U79" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="80"/>
         <v>5</v>
       </c>
       <c r="W79" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X79" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="Y79" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="AA79" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB79" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="AC79" s="21">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
     </row>
@@ -24084,7 +24084,7 @@
         <v>0.2</v>
       </c>
       <c r="G80" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0.2</v>
       </c>
       <c r="H80" s="19">
@@ -24099,7 +24099,7 @@
         <v>1</v>
       </c>
       <c r="K80" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="L80" s="19">
@@ -24114,7 +24114,7 @@
         <v>2.5</v>
       </c>
       <c r="O80" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>2.5</v>
       </c>
       <c r="P80" s="19">
@@ -24129,7 +24129,7 @@
         <v>1</v>
       </c>
       <c r="S80" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T80" s="19">
@@ -24144,7 +24144,7 @@
         <v>1.5</v>
       </c>
       <c r="W80" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>1.5</v>
       </c>
       <c r="X80" s="19">
@@ -24159,7 +24159,7 @@
         <v>2</v>
       </c>
       <c r="AA80" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="AB80" s="19">
@@ -24191,7 +24191,7 @@
         <v>70</v>
       </c>
       <c r="G81" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>70</v>
       </c>
       <c r="H81" s="19">
@@ -24206,7 +24206,7 @@
         <v>60</v>
       </c>
       <c r="K81" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>60</v>
       </c>
       <c r="L81" s="19">
@@ -24221,7 +24221,7 @@
         <v>5</v>
       </c>
       <c r="O81" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="P81" s="19">
@@ -24236,7 +24236,7 @@
         <v>15</v>
       </c>
       <c r="S81" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="T81" s="19">
@@ -24251,7 +24251,7 @@
         <v>90</v>
       </c>
       <c r="W81" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>90</v>
       </c>
       <c r="X81" s="19">
@@ -24266,7 +24266,7 @@
         <v>70</v>
       </c>
       <c r="AA81" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>70</v>
       </c>
       <c r="AB81" s="19">
@@ -24290,81 +24290,81 @@
       <c r="D82" s="8"/>
       <c r="E82" s="9"/>
       <c r="G82" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H82" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I82" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K82" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L82" s="19">
-        <f t="shared" ref="L82:L93" si="73">K82</f>
+        <f t="shared" ref="L82:L93" si="83">K82</f>
         <v>0</v>
       </c>
       <c r="M82" s="21">
-        <f t="shared" ref="M82:M93" si="74">L82</f>
+        <f t="shared" ref="M82:M93" si="84">L82</f>
         <v>0</v>
       </c>
       <c r="O82" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P82" s="19">
-        <f t="shared" ref="P82:P93" si="75">O82</f>
+        <f t="shared" ref="P82:P93" si="85">O82</f>
         <v>0</v>
       </c>
       <c r="Q82" s="21">
-        <f t="shared" ref="Q82:Q93" si="76">P82</f>
+        <f t="shared" ref="Q82:Q93" si="86">P82</f>
         <v>0</v>
       </c>
       <c r="R82" s="11">
         <v>2.5</v>
       </c>
       <c r="S82" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>2.5</v>
       </c>
       <c r="T82" s="19">
-        <f t="shared" ref="T82:T93" si="77">S82</f>
+        <f t="shared" ref="T82:T93" si="87">S82</f>
         <v>2.5</v>
       </c>
       <c r="U82" s="21">
-        <f t="shared" ref="U82:U93" si="78">T82</f>
+        <f t="shared" ref="U82:U93" si="88">T82</f>
         <v>2.5</v>
       </c>
       <c r="V82" s="11">
         <v>1</v>
       </c>
       <c r="W82" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="X82" s="19">
-        <f t="shared" ref="X82:X93" si="79">W82</f>
+        <f t="shared" ref="X82:X93" si="89">W82</f>
         <v>1</v>
       </c>
       <c r="Y82" s="21">
-        <f t="shared" ref="Y82:Y93" si="80">X82</f>
+        <f t="shared" ref="Y82:Y93" si="90">X82</f>
         <v>1</v>
       </c>
       <c r="AA82" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB82" s="19">
-        <f t="shared" ref="AB82:AB93" si="81">AA82</f>
+        <f t="shared" ref="AB82:AB93" si="91">AA82</f>
         <v>0</v>
       </c>
       <c r="AC82" s="21">
-        <f t="shared" ref="AC82:AC93" si="82">AB82</f>
+        <f t="shared" ref="AC82:AC93" si="92">AB82</f>
         <v>0</v>
       </c>
     </row>
@@ -24380,81 +24380,81 @@
       <c r="D83" s="8"/>
       <c r="E83" s="9"/>
       <c r="G83" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H83" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I83" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K83" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L83" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="M83" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="O83" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P83" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="Q83" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="R83" s="11">
         <v>80</v>
       </c>
       <c r="S83" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>80</v>
       </c>
       <c r="T83" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>80</v>
       </c>
       <c r="U83" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>80</v>
       </c>
       <c r="V83" s="11">
         <v>5</v>
       </c>
       <c r="W83" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="X83" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>5</v>
       </c>
       <c r="Y83" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>5</v>
       </c>
       <c r="AA83" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB83" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AC83" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
@@ -24470,81 +24470,81 @@
       <c r="D84" s="8"/>
       <c r="E84" s="9"/>
       <c r="G84" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H84" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I84" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="J84" s="11">
         <v>0.2</v>
       </c>
       <c r="K84" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0.2</v>
       </c>
       <c r="L84" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0.2</v>
       </c>
       <c r="M84" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>0.2</v>
       </c>
       <c r="O84" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P84" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="Q84" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="R84" s="11">
         <v>2</v>
       </c>
       <c r="S84" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="T84" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>2</v>
       </c>
       <c r="U84" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>2</v>
       </c>
       <c r="W84" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X84" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="Y84" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AA84" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB84" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AC84" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
@@ -24560,81 +24560,81 @@
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
       <c r="G85" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H85" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I85" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="J85" s="11">
         <v>60</v>
       </c>
       <c r="K85" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>60</v>
       </c>
       <c r="L85" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>60</v>
       </c>
       <c r="M85" s="21">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>60</v>
       </c>
       <c r="O85" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P85" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="Q85" s="21">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="R85" s="11">
         <v>90</v>
       </c>
       <c r="S85" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>90</v>
       </c>
       <c r="T85" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>90</v>
       </c>
       <c r="U85" s="21">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>90</v>
       </c>
       <c r="W85" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X85" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="Y85" s="21">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AA85" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB85" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AC85" s="21">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
     </row>
@@ -24655,11 +24655,11 @@
         <v>0.5</v>
       </c>
       <c r="G86" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0.5</v>
       </c>
       <c r="H86" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0.5</v>
       </c>
       <c r="I86" s="21">
@@ -24670,11 +24670,11 @@
         <v>0.4</v>
       </c>
       <c r="K86" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="L86" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0.4</v>
       </c>
       <c r="M86" s="21">
@@ -24685,11 +24685,11 @@
         <v>0.2</v>
       </c>
       <c r="O86" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0.2</v>
       </c>
       <c r="P86" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0.2</v>
       </c>
       <c r="Q86" s="21">
@@ -24700,11 +24700,11 @@
         <v>4</v>
       </c>
       <c r="S86" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="T86" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>4</v>
       </c>
       <c r="U86" s="21">
@@ -24715,11 +24715,11 @@
         <v>1</v>
       </c>
       <c r="W86" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="X86" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="Y86" s="21">
@@ -24730,11 +24730,11 @@
         <v>1.5</v>
       </c>
       <c r="AA86" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>1.5</v>
       </c>
       <c r="AB86" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>1.5</v>
       </c>
       <c r="AC86" s="21">
@@ -24759,11 +24759,11 @@
         <v>70</v>
       </c>
       <c r="G87" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>70</v>
       </c>
       <c r="H87" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>70</v>
       </c>
       <c r="I87" s="21">
@@ -24774,11 +24774,11 @@
         <v>60</v>
       </c>
       <c r="K87" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>60</v>
       </c>
       <c r="L87" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>60</v>
       </c>
       <c r="M87" s="21">
@@ -24789,11 +24789,11 @@
         <v>70</v>
       </c>
       <c r="O87" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="P87" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>70</v>
       </c>
       <c r="Q87" s="21">
@@ -24804,11 +24804,11 @@
         <v>100</v>
       </c>
       <c r="S87" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
       <c r="T87" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>100</v>
       </c>
       <c r="U87" s="21">
@@ -24819,11 +24819,11 @@
         <v>90</v>
       </c>
       <c r="W87" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>90</v>
       </c>
       <c r="X87" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>90</v>
       </c>
       <c r="Y87" s="21">
@@ -24834,11 +24834,11 @@
         <v>70</v>
       </c>
       <c r="AA87" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>70</v>
       </c>
       <c r="AB87" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>70</v>
       </c>
       <c r="AC87" s="21">
@@ -24858,75 +24858,75 @@
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="G88" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H88" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I88" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K88" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L88" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="M88" s="21">
-        <f t="shared" ref="M88:M93" si="83">L88</f>
+        <f t="shared" ref="M88:M93" si="93">L88</f>
         <v>0</v>
       </c>
       <c r="O88" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P88" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="Q88" s="21">
-        <f t="shared" ref="Q88:Q93" si="84">P88</f>
+        <f t="shared" ref="Q88:Q93" si="94">P88</f>
         <v>0</v>
       </c>
       <c r="S88" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T88" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="U88" s="21">
-        <f t="shared" ref="U88:U93" si="85">T88</f>
+        <f t="shared" ref="U88:U93" si="95">T88</f>
         <v>0</v>
       </c>
       <c r="W88" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X88" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="Y88" s="21">
-        <f t="shared" ref="Y88:Y93" si="86">X88</f>
+        <f t="shared" ref="Y88:Y93" si="96">X88</f>
         <v>0</v>
       </c>
       <c r="AA88" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB88" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AC88" s="21">
-        <f t="shared" ref="AC88:AC93" si="87">AB88</f>
+        <f t="shared" ref="AC88:AC93" si="97">AB88</f>
         <v>0</v>
       </c>
     </row>
@@ -24942,75 +24942,75 @@
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
       <c r="G89" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H89" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I89" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K89" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L89" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="M89" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="O89" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P89" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="Q89" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="S89" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T89" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="U89" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="W89" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X89" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="Y89" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AA89" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB89" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AC89" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
     </row>
@@ -25026,75 +25026,75 @@
       <c r="D90" s="8"/>
       <c r="E90" s="9"/>
       <c r="G90" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H90" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I90" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K90" s="12">
-        <f t="shared" ref="K90:K93" si="88">J90</f>
+        <f t="shared" ref="K90:K93" si="98">J90</f>
         <v>0</v>
       </c>
       <c r="L90" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="M90" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="O90" s="12">
-        <f t="shared" ref="O90:O93" si="89">N90</f>
+        <f t="shared" ref="O90:O93" si="99">N90</f>
         <v>0</v>
       </c>
       <c r="P90" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="Q90" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="S90" s="12">
-        <f t="shared" ref="S90:S93" si="90">R90</f>
+        <f t="shared" ref="S90:S93" si="100">R90</f>
         <v>0</v>
       </c>
       <c r="T90" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="U90" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="W90" s="12">
-        <f t="shared" ref="W90:W93" si="91">V90</f>
+        <f t="shared" ref="W90:W93" si="101">V90</f>
         <v>0</v>
       </c>
       <c r="X90" s="19">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="Y90" s="21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="AA90" s="12">
-        <f t="shared" ref="AA90:AA93" si="92">Z90</f>
+        <f t="shared" ref="AA90:AA93" si="102">Z90</f>
         <v>0</v>
       </c>
       <c r="AB90" s="19">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AC90" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
     </row>
@@ -25110,78 +25110,78 @@
       <c r="D91" s="8"/>
       <c r="E91" s="9"/>
       <c r="G91" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H91" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I91" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K91" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="L91" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="M91" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="O91" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="P91" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="Q91" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="R91" s="11">
         <v>18</v>
       </c>
       <c r="S91" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>18</v>
       </c>
       <c r="T91" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>18</v>
       </c>
       <c r="U91" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>18</v>
       </c>
       <c r="W91" s="12">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="X91" s="19">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y91" s="21">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AA91" s="12">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="AB91" s="19">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="X91" s="19">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="Y91" s="21">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="AA91" s="12">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AB91" s="19">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
       <c r="AC91" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
     </row>
@@ -25197,78 +25197,78 @@
       <c r="D92" s="8"/>
       <c r="E92" s="9"/>
       <c r="G92" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H92" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I92" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K92" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="L92" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="M92" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="O92" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="P92" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="Q92" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="R92" s="11">
         <v>1</v>
       </c>
       <c r="S92" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>1</v>
       </c>
       <c r="T92" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="U92" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1</v>
       </c>
       <c r="W92" s="12">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="X92" s="19">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y92" s="21">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AA92" s="12">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="AB92" s="19">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="X92" s="19">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="Y92" s="21">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="AA92" s="12">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AB92" s="19">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
       <c r="AC92" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
     </row>
@@ -25284,78 +25284,78 @@
       <c r="D93" s="8"/>
       <c r="E93" s="9"/>
       <c r="G93" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="H93" s="19">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I93" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K93" s="12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="L93" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="M93" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="O93" s="12">
-        <f t="shared" si="89"/>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="P93" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="Q93" s="21">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="R93" s="11">
         <v>5</v>
       </c>
       <c r="S93" s="12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="100"/>
         <v>5</v>
       </c>
       <c r="T93" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>5</v>
       </c>
       <c r="U93" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>5</v>
       </c>
       <c r="W93" s="12">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="X93" s="19">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Y93" s="21">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AA93" s="12">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="AB93" s="19">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="X93" s="19">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="Y93" s="21">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="AA93" s="12">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AB93" s="19">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
       <c r="AC93" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
     </row>
@@ -25369,8 +25369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25620,11 +25620,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="15">
-        <f t="shared" ref="L3:L17" si="1">K3</f>
+        <f t="shared" ref="L3:L5" si="1">K3</f>
         <v>0</v>
       </c>
       <c r="M3" s="16">
-        <f t="shared" ref="M3:M17" si="2">L3</f>
+        <f t="shared" ref="M3:M15" si="2">L3</f>
         <v>0</v>
       </c>
       <c r="O3" s="12">
@@ -25632,11 +25632,11 @@
         <v>0</v>
       </c>
       <c r="P3" s="15">
-        <f t="shared" ref="P3:P17" si="3">O3</f>
+        <f t="shared" ref="P3:P5" si="3">O3</f>
         <v>0</v>
       </c>
       <c r="Q3" s="16">
-        <f t="shared" ref="Q3:Q17" si="4">P3</f>
+        <f t="shared" ref="Q3:Q15" si="4">P3</f>
         <v>0</v>
       </c>
       <c r="R3" s="11">
@@ -25647,11 +25647,11 @@
         <v>2.9</v>
       </c>
       <c r="T3" s="15">
-        <f t="shared" ref="T3:T17" si="5">S3</f>
+        <f t="shared" ref="T3:T5" si="5">S3</f>
         <v>2.9</v>
       </c>
       <c r="U3" s="16">
-        <f t="shared" ref="U3:U17" si="6">T3</f>
+        <f t="shared" ref="U3:U15" si="6">T3</f>
         <v>2.9</v>
       </c>
       <c r="V3" s="11">
@@ -25662,11 +25662,11 @@
         <v>14</v>
       </c>
       <c r="X3" s="15">
-        <f t="shared" ref="X3:X17" si="7">W3</f>
+        <f t="shared" ref="X3:X5" si="7">W3</f>
         <v>14</v>
       </c>
       <c r="Y3" s="16">
-        <f t="shared" ref="Y3:Y17" si="8">X3</f>
+        <f t="shared" ref="Y3:Y15" si="8">X3</f>
         <v>14</v>
       </c>
       <c r="Z3" s="11">
@@ -25677,11 +25677,11 @@
         <v>12</v>
       </c>
       <c r="AB3" s="15">
-        <f t="shared" ref="AB3:AB17" si="9">AA3</f>
+        <f t="shared" ref="AB3:AB5" si="9">AA3</f>
         <v>12</v>
       </c>
       <c r="AC3" s="16">
-        <f t="shared" ref="AC3:AC17" si="10">AB3</f>
+        <f t="shared" ref="AC3:AC15" si="10">AB3</f>
         <v>12</v>
       </c>
     </row>
@@ -26107,7 +26107,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="15">
-        <f t="shared" ref="L8:L22" si="11">K8</f>
+        <f t="shared" ref="L8:L10" si="11">K8</f>
         <v>0</v>
       </c>
       <c r="M8" s="16">
@@ -26119,7 +26119,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="15">
-        <f t="shared" ref="P8:P22" si="12">O8</f>
+        <f t="shared" ref="P8:P10" si="12">O8</f>
         <v>0</v>
       </c>
       <c r="Q8" s="16">
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="15">
-        <f t="shared" ref="T8:T22" si="13">S8</f>
+        <f t="shared" ref="T8:T10" si="13">S8</f>
         <v>0</v>
       </c>
       <c r="U8" s="16">
@@ -26146,7 +26146,7 @@
         <v>7.5</v>
       </c>
       <c r="X8" s="15">
-        <f t="shared" ref="X8:X22" si="14">W8</f>
+        <f t="shared" ref="X8:X10" si="14">W8</f>
         <v>7.5</v>
       </c>
       <c r="Y8" s="16">
@@ -26158,7 +26158,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="15">
-        <f t="shared" ref="AB8:AB22" si="15">AA8</f>
+        <f t="shared" ref="AB8:AB10" si="15">AA8</f>
         <v>0</v>
       </c>
       <c r="AC8" s="16">
@@ -26552,7 +26552,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" ref="L13:L27" si="18">K13</f>
+        <f t="shared" ref="L13:L15" si="18">K13</f>
         <v>0</v>
       </c>
       <c r="M13" s="16">
@@ -26564,7 +26564,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" ref="P13:P27" si="20">O13</f>
+        <f t="shared" ref="P13:P15" si="20">O13</f>
         <v>0</v>
       </c>
       <c r="Q13" s="16">
@@ -26579,7 +26579,7 @@
         <v>0.5</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" ref="T13:T27" si="22">S13</f>
+        <f t="shared" ref="T13:T15" si="22">S13</f>
         <v>0.5</v>
       </c>
       <c r="U13" s="16">
@@ -26594,7 +26594,7 @@
         <v>1.7</v>
       </c>
       <c r="X13" s="15">
-        <f t="shared" ref="X13:X27" si="24">W13</f>
+        <f t="shared" ref="X13:X15" si="24">W13</f>
         <v>1.7</v>
       </c>
       <c r="Y13" s="16">
@@ -26609,7 +26609,7 @@
         <v>1</v>
       </c>
       <c r="AB13" s="15">
-        <f t="shared" ref="AB13:AB27" si="26">AA13</f>
+        <f t="shared" ref="AB13:AB15" si="26">AA13</f>
         <v>1</v>
       </c>
       <c r="AC13" s="16">
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="16">
-        <f t="shared" ref="M17:M31" si="27">L17</f>
+        <f t="shared" ref="M17" si="27">L17</f>
         <v>0</v>
       </c>
       <c r="O17" s="12">
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="16">
-        <f t="shared" ref="Q17:Q31" si="28">P17</f>
+        <f t="shared" ref="Q17" si="28">P17</f>
         <v>0</v>
       </c>
       <c r="R17" s="11">
@@ -26955,7 +26955,7 @@
         <v>1000</v>
       </c>
       <c r="U17" s="16">
-        <f t="shared" ref="U17:U31" si="29">T17</f>
+        <f t="shared" ref="U17" si="29">T17</f>
         <v>1000</v>
       </c>
       <c r="V17" s="11">
@@ -26970,7 +26970,7 @@
         <v>1000</v>
       </c>
       <c r="Y17" s="16">
-        <f t="shared" ref="Y17:Y31" si="30">X17</f>
+        <f t="shared" ref="Y17" si="30">X17</f>
         <v>1000</v>
       </c>
       <c r="Z17" s="11">
@@ -26985,7 +26985,7 @@
         <v>25</v>
       </c>
       <c r="AC17" s="16">
-        <f t="shared" ref="AC17:AC31" si="31">AB17</f>
+        <f t="shared" ref="AC17" si="31">AB17</f>
         <v>25</v>
       </c>
     </row>
@@ -28355,7 +28355,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="15">
-        <f t="shared" ref="L32:L40" si="51">K32</f>
+        <f t="shared" ref="L32:L34" si="51">K32</f>
         <v>0</v>
       </c>
       <c r="M32" s="16">
@@ -28367,7 +28367,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="15">
-        <f t="shared" ref="P32:P40" si="52">O32</f>
+        <f t="shared" ref="P32:P34" si="52">O32</f>
         <v>0</v>
       </c>
       <c r="Q32" s="16">
@@ -28382,7 +28382,7 @@
         <v>4</v>
       </c>
       <c r="T32" s="15">
-        <f t="shared" ref="T32:T40" si="53">S32</f>
+        <f t="shared" ref="T32:T34" si="53">S32</f>
         <v>4</v>
       </c>
       <c r="U32" s="16">
@@ -28397,7 +28397,7 @@
         <v>15</v>
       </c>
       <c r="X32" s="15">
-        <f t="shared" ref="X32:X40" si="54">W32</f>
+        <f t="shared" ref="X32:X34" si="54">W32</f>
         <v>15</v>
       </c>
       <c r="Y32" s="16">
@@ -28409,7 +28409,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="15">
-        <f t="shared" ref="AB32:AB40" si="55">AA32</f>
+        <f t="shared" ref="AB32:AB34" si="55">AA32</f>
         <v>0</v>
       </c>
       <c r="AC32" s="16">
@@ -28747,7 +28747,7 @@
         <v>85</v>
       </c>
       <c r="L36" s="15">
-        <f t="shared" ref="L36:L44" si="62">K36</f>
+        <f t="shared" ref="L36:L37" si="62">K36</f>
         <v>85</v>
       </c>
       <c r="M36" s="16">
@@ -28762,7 +28762,7 @@
         <v>100</v>
       </c>
       <c r="P36" s="15">
-        <f t="shared" ref="P36:P44" si="63">O36</f>
+        <f t="shared" ref="P36:P37" si="63">O36</f>
         <v>100</v>
       </c>
       <c r="Q36" s="16">
@@ -28777,7 +28777,7 @@
         <v>90</v>
       </c>
       <c r="T36" s="15">
-        <f t="shared" ref="T36:T44" si="64">S36</f>
+        <f t="shared" ref="T36:T37" si="64">S36</f>
         <v>90</v>
       </c>
       <c r="U36" s="16">
@@ -28792,7 +28792,7 @@
         <v>85</v>
       </c>
       <c r="X36" s="15">
-        <f t="shared" ref="X36:X44" si="65">W36</f>
+        <f t="shared" ref="X36:X37" si="65">W36</f>
         <v>85</v>
       </c>
       <c r="Y36" s="16">
@@ -28807,7 +28807,7 @@
         <v>90</v>
       </c>
       <c r="AB36" s="15">
-        <f t="shared" ref="AB36:AB44" si="66">AA36</f>
+        <f t="shared" ref="AB36:AB37" si="66">AA36</f>
         <v>90</v>
       </c>
       <c r="AC36" s="16">
@@ -29037,7 +29037,7 @@
         <v>85</v>
       </c>
       <c r="L39" s="15">
-        <f t="shared" ref="L39:L47" si="67">K39</f>
+        <f t="shared" ref="L39:L40" si="67">K39</f>
         <v>85</v>
       </c>
       <c r="M39" s="16">
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="15">
-        <f t="shared" ref="P39:P47" si="68">O39</f>
+        <f t="shared" ref="P39:P40" si="68">O39</f>
         <v>0</v>
       </c>
       <c r="Q39" s="16">
@@ -29064,7 +29064,7 @@
         <v>90</v>
       </c>
       <c r="T39" s="15">
-        <f t="shared" ref="T39:T47" si="69">S39</f>
+        <f t="shared" ref="T39:T40" si="69">S39</f>
         <v>90</v>
       </c>
       <c r="U39" s="16">
@@ -29076,7 +29076,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="15">
-        <f t="shared" ref="X39:X47" si="70">W39</f>
+        <f t="shared" ref="X39:X40" si="70">W39</f>
         <v>0</v>
       </c>
       <c r="Y39" s="16">
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="15">
-        <f t="shared" ref="AB39:AB47" si="71">AA39</f>
+        <f t="shared" ref="AB39:AB40" si="71">AA39</f>
         <v>0</v>
       </c>
       <c r="AC39" s="16">
@@ -29428,7 +29428,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="15">
-        <f t="shared" ref="L43:L93" si="72">K43</f>
+        <f t="shared" ref="L43:L44" si="72">K43</f>
         <v>0</v>
       </c>
       <c r="M43" s="16">
@@ -29443,7 +29443,7 @@
         <v>85</v>
       </c>
       <c r="P43" s="15">
-        <f t="shared" ref="P43:P93" si="73">O43</f>
+        <f t="shared" ref="P43:P44" si="73">O43</f>
         <v>85</v>
       </c>
       <c r="Q43" s="16">
@@ -29458,7 +29458,7 @@
         <v>90</v>
       </c>
       <c r="T43" s="15">
-        <f t="shared" ref="T43:T93" si="74">S43</f>
+        <f t="shared" ref="T43:T44" si="74">S43</f>
         <v>90</v>
       </c>
       <c r="U43" s="16">
@@ -29473,7 +29473,7 @@
         <v>80</v>
       </c>
       <c r="X43" s="15">
-        <f t="shared" ref="X43:X93" si="75">W43</f>
+        <f t="shared" ref="X43:X44" si="75">W43</f>
         <v>80</v>
       </c>
       <c r="Y43" s="16">
@@ -29488,7 +29488,7 @@
         <v>60</v>
       </c>
       <c r="AB43" s="15">
-        <f t="shared" ref="AB43:AB93" si="76">AA43</f>
+        <f t="shared" ref="AB43:AB44" si="76">AA43</f>
         <v>60</v>
       </c>
       <c r="AC43" s="16">
@@ -29819,7 +29819,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="15">
-        <f t="shared" ref="L47:L93" si="77">K47</f>
+        <f t="shared" ref="L47" si="77">K47</f>
         <v>0</v>
       </c>
       <c r="M47" s="16">
@@ -29834,7 +29834,7 @@
         <v>70</v>
       </c>
       <c r="P47" s="15">
-        <f t="shared" ref="P47:P93" si="78">O47</f>
+        <f t="shared" ref="P47" si="78">O47</f>
         <v>70</v>
       </c>
       <c r="Q47" s="16">
@@ -29849,7 +29849,7 @@
         <v>90</v>
       </c>
       <c r="T47" s="15">
-        <f t="shared" ref="T47:T93" si="79">S47</f>
+        <f t="shared" ref="T47" si="79">S47</f>
         <v>90</v>
       </c>
       <c r="U47" s="16">
@@ -29861,7 +29861,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="15">
-        <f t="shared" ref="X47:X93" si="80">W47</f>
+        <f t="shared" ref="X47" si="80">W47</f>
         <v>0</v>
       </c>
       <c r="Y47" s="16">
@@ -29876,7 +29876,7 @@
         <v>60</v>
       </c>
       <c r="AB47" s="15">
-        <f t="shared" ref="AB47:AB93" si="81">AA47</f>
+        <f t="shared" ref="AB47" si="81">AA47</f>
         <v>60</v>
       </c>
       <c r="AC47" s="16">
@@ -30431,7 +30431,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="15">
-        <f t="shared" ref="L53:L93" si="82">K53</f>
+        <f t="shared" ref="L53:L79" si="82">K53</f>
         <v>0</v>
       </c>
       <c r="M53" s="16">
@@ -30443,7 +30443,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="15">
-        <f t="shared" ref="P53:P93" si="83">O53</f>
+        <f t="shared" ref="P53:P79" si="83">O53</f>
         <v>0</v>
       </c>
       <c r="Q53" s="16">
@@ -30458,7 +30458,7 @@
         <v>1</v>
       </c>
       <c r="T53" s="15">
-        <f t="shared" ref="T53:T93" si="84">S53</f>
+        <f t="shared" ref="T53:T79" si="84">S53</f>
         <v>1</v>
       </c>
       <c r="U53" s="16">
@@ -30473,7 +30473,7 @@
         <v>1.2</v>
       </c>
       <c r="X53" s="15">
-        <f t="shared" ref="X53:X93" si="85">W53</f>
+        <f t="shared" ref="X53:X79" si="85">W53</f>
         <v>1.2</v>
       </c>
       <c r="Y53" s="16">
@@ -30488,7 +30488,7 @@
         <v>0.5</v>
       </c>
       <c r="AB53" s="15">
-        <f t="shared" ref="AB53:AB93" si="86">AA53</f>
+        <f t="shared" ref="AB53:AB79" si="86">AA53</f>
         <v>0.5</v>
       </c>
       <c r="AC53" s="16">
@@ -33132,7 +33132,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="16">
-        <f t="shared" ref="M82:M93" si="95">L82</f>
+        <f t="shared" ref="M82:M85" si="95">L82</f>
         <v>0</v>
       </c>
       <c r="O82" s="12">
@@ -33144,7 +33144,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="16">
-        <f t="shared" ref="Q82:Q93" si="97">P82</f>
+        <f t="shared" ref="Q82:Q85" si="97">P82</f>
         <v>0</v>
       </c>
       <c r="R82" s="11">
@@ -33159,7 +33159,7 @@
         <v>2.5</v>
       </c>
       <c r="U82" s="16">
-        <f t="shared" ref="U82:U93" si="99">T82</f>
+        <f t="shared" ref="U82:U85" si="99">T82</f>
         <v>2.5</v>
       </c>
       <c r="V82" s="11">
@@ -33174,7 +33174,7 @@
         <v>1</v>
       </c>
       <c r="Y82" s="16">
-        <f t="shared" ref="Y82:Y93" si="101">X82</f>
+        <f t="shared" ref="Y82:Y85" si="101">X82</f>
         <v>1</v>
       </c>
       <c r="AA82" s="12">
@@ -33186,7 +33186,7 @@
         <v>0</v>
       </c>
       <c r="AC82" s="16">
-        <f t="shared" ref="AC82:AC93" si="103">AB82</f>
+        <f t="shared" ref="AC82:AC85" si="103">AB82</f>
         <v>0</v>
       </c>
     </row>
@@ -38364,7 +38364,7 @@
       </c>
       <c r="H18">
         <f>'52_Insects_ModSeverity'!I18</f>
-        <v>20</v>
+        <v>9.6</v>
       </c>
       <c r="I18">
         <f>'53_Insects_HighSeverity'!G18</f>
@@ -38484,7 +38484,7 @@
       </c>
       <c r="AL18">
         <f>'52_Insects_ModSeverity'!U18</f>
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="AM18">
         <f>'53_Insects_HighSeverity'!S18</f>
@@ -38524,7 +38524,7 @@
       </c>
       <c r="AV18">
         <f>'52_Insects_ModSeverity'!Y18</f>
-        <v>33.35</v>
+        <v>9</v>
       </c>
       <c r="AW18">
         <f>'53_Insects_HighSeverity'!W18</f>
@@ -38564,7 +38564,7 @@
       </c>
       <c r="BF18">
         <f>'52_Insects_ModSeverity'!AC18</f>
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="BG18">
         <f>'53_Insects_HighSeverity'!AA18</f>
@@ -38610,7 +38610,7 @@
       </c>
       <c r="H19">
         <f>'52_Insects_ModSeverity'!I19</f>
-        <v>9.6</v>
+        <v>100</v>
       </c>
       <c r="I19">
         <f>'53_Insects_HighSeverity'!G19</f>
@@ -38730,7 +38730,7 @@
       </c>
       <c r="AL19">
         <f>'52_Insects_ModSeverity'!U19</f>
-        <v>2.9</v>
+        <v>25</v>
       </c>
       <c r="AM19">
         <f>'53_Insects_HighSeverity'!S19</f>
@@ -38770,7 +38770,7 @@
       </c>
       <c r="AV19">
         <f>'52_Insects_ModSeverity'!Y19</f>
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="AW19">
         <f>'53_Insects_HighSeverity'!W19</f>
@@ -38810,7 +38810,7 @@
       </c>
       <c r="BF19">
         <f>'52_Insects_ModSeverity'!AC19</f>
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="BG19">
         <f>'53_Insects_HighSeverity'!AA19</f>
@@ -38856,7 +38856,7 @@
       </c>
       <c r="H20">
         <f>'52_Insects_ModSeverity'!I20</f>
-        <v>100</v>
+        <v>5.5200000000000005</v>
       </c>
       <c r="I20">
         <f>'53_Insects_HighSeverity'!G20</f>
@@ -38976,7 +38976,7 @@
       </c>
       <c r="AL20">
         <f>'52_Insects_ModSeverity'!U20</f>
-        <v>25</v>
+        <v>1610</v>
       </c>
       <c r="AM20">
         <f>'53_Insects_HighSeverity'!S20</f>
@@ -39016,7 +39016,7 @@
       </c>
       <c r="AV20">
         <f>'52_Insects_ModSeverity'!Y20</f>
-        <v>50</v>
+        <v>94.7</v>
       </c>
       <c r="AW20">
         <f>'53_Insects_HighSeverity'!W20</f>
@@ -39056,7 +39056,7 @@
       </c>
       <c r="BF20">
         <f>'52_Insects_ModSeverity'!AC20</f>
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="BG20">
         <f>'53_Insects_HighSeverity'!AA20</f>

--- a/specifications/5_Insects/ScriptRules_Insects.xlsx
+++ b/specifications/5_Insects/ScriptRules_Insects.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12180" windowHeight="7215" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12180" windowHeight="7215" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -2953,21 +2953,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" style="29" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="23" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="27" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="28" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" style="23" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="51.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="27" customWidth="1"/>
     <col min="11" max="11" width="28.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="29"/>
@@ -3005,7 +3005,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>95</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>90</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>92</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>93</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>94</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>85</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>87</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>88</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>89</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>96</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>98</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>97</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>99</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>100</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>71</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>72</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>73</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>76</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>74</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>75</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>77</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>78</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>79</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>80</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>81</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>82</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>83</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>84</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>69</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>70</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>135</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="25"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>136</v>
       </c>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="K35" s="25"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>137</v>
       </c>
@@ -3675,7 +3675,7 @@
       <c r="J36" s="24"/>
       <c r="K36" s="25"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>138</v>
       </c>
@@ -3686,7 +3686,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="25"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>139</v>
       </c>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="K38" s="25"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>140</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>113</v>
       </c>
@@ -3722,7 +3722,7 @@
       <c r="J40" s="24"/>
       <c r="K40" s="25"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>114</v>
       </c>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="K41" s="25"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
         <v>115</v>
       </c>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="K42" s="25"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
         <v>116</v>
       </c>
@@ -3766,7 +3766,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="25"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>117</v>
       </c>
@@ -3777,7 +3777,7 @@
       <c r="J44" s="24"/>
       <c r="K44" s="25"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>118</v>
       </c>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="K45" s="25"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>119</v>
       </c>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="K46" s="25"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>120</v>
       </c>
@@ -16538,7 +16538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
@@ -17825,7 +17825,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="21">
-        <f t="shared" ref="M14:M20" si="8">L14</f>
+        <f t="shared" ref="M14:M17" si="8">L14</f>
         <v>0</v>
       </c>
       <c r="O14" s="12">
@@ -17837,7 +17837,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="21">
-        <f t="shared" ref="Q14:Q20" si="10">P14</f>
+        <f t="shared" ref="Q14:Q17" si="10">P14</f>
         <v>0</v>
       </c>
       <c r="R14" s="11">
@@ -17852,7 +17852,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="21">
-        <f t="shared" ref="U14:U20" si="12">T14</f>
+        <f t="shared" ref="U14:U17" si="12">T14</f>
         <v>0</v>
       </c>
       <c r="V14" s="11">
@@ -17867,7 +17867,7 @@
         <v>2</v>
       </c>
       <c r="Y14" s="21">
-        <f t="shared" ref="Y14:Y20" si="14">X14</f>
+        <f t="shared" ref="Y14:Y17" si="14">X14</f>
         <v>2</v>
       </c>
       <c r="Z14" s="11">
@@ -17882,7 +17882,7 @@
         <v>2</v>
       </c>
       <c r="AC14" s="21">
-        <f t="shared" ref="AC14:AC20" si="16">AB14</f>
+        <f t="shared" ref="AC14:AC17" si="16">AB14</f>
         <v>2</v>
       </c>
     </row>
@@ -19531,11 +19531,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="19">
-        <f t="shared" ref="L32:L50" si="45">K32</f>
+        <f t="shared" ref="L32:L40" si="45">K32</f>
         <v>0</v>
       </c>
       <c r="M32" s="21">
-        <f t="shared" ref="M32:M50" si="46">L32</f>
+        <f t="shared" ref="M32:M47" si="46">L32</f>
         <v>0</v>
       </c>
       <c r="O32" s="12">
@@ -19543,11 +19543,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="19">
-        <f t="shared" ref="P32:P50" si="47">O32</f>
+        <f t="shared" ref="P32:P40" si="47">O32</f>
         <v>0</v>
       </c>
       <c r="Q32" s="21">
-        <f t="shared" ref="Q32:Q50" si="48">P32</f>
+        <f t="shared" ref="Q32:Q47" si="48">P32</f>
         <v>0</v>
       </c>
       <c r="R32" s="11">
@@ -19558,11 +19558,11 @@
         <v>4</v>
       </c>
       <c r="T32" s="19">
-        <f t="shared" ref="T32:T50" si="49">S32</f>
+        <f t="shared" ref="T32:T40" si="49">S32</f>
         <v>4</v>
       </c>
       <c r="U32" s="21">
-        <f t="shared" ref="U32:U50" si="50">T32</f>
+        <f t="shared" ref="U32:U47" si="50">T32</f>
         <v>4</v>
       </c>
       <c r="V32" s="11">
@@ -19573,11 +19573,11 @@
         <v>15</v>
       </c>
       <c r="X32" s="19">
-        <f t="shared" ref="X32:X50" si="51">W32</f>
+        <f t="shared" ref="X32:X40" si="51">W32</f>
         <v>15</v>
       </c>
       <c r="Y32" s="21">
-        <f t="shared" ref="Y32:Y50" si="52">X32</f>
+        <f t="shared" ref="Y32:Y47" si="52">X32</f>
         <v>15</v>
       </c>
       <c r="AA32" s="12">
@@ -19585,11 +19585,11 @@
         <v>0</v>
       </c>
       <c r="AB32" s="19">
-        <f t="shared" ref="AB32:AB50" si="53">AA32</f>
+        <f t="shared" ref="AB32:AB40" si="53">AA32</f>
         <v>0</v>
       </c>
       <c r="AC32" s="21">
-        <f t="shared" ref="AC32:AC50" si="54">AB32</f>
+        <f t="shared" ref="AC32:AC47" si="54">AB32</f>
         <v>0</v>
       </c>
     </row>
@@ -20600,7 +20600,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="19">
-        <f t="shared" ref="L43:L93" si="56">K43</f>
+        <f t="shared" ref="L43:L44" si="56">K43</f>
         <v>0</v>
       </c>
       <c r="M43" s="21">
@@ -20615,7 +20615,7 @@
         <v>85</v>
       </c>
       <c r="P43" s="19">
-        <f t="shared" ref="P43:P93" si="57">O43</f>
+        <f t="shared" ref="P43:P44" si="57">O43</f>
         <v>85</v>
       </c>
       <c r="Q43" s="21">
@@ -20630,7 +20630,7 @@
         <v>90</v>
       </c>
       <c r="T43" s="19">
-        <f t="shared" ref="T43:T93" si="58">S43</f>
+        <f t="shared" ref="T43:T44" si="58">S43</f>
         <v>90</v>
       </c>
       <c r="U43" s="21">
@@ -20645,7 +20645,7 @@
         <v>80</v>
       </c>
       <c r="X43" s="19">
-        <f t="shared" ref="X43:X93" si="59">W43</f>
+        <f t="shared" ref="X43:X44" si="59">W43</f>
         <v>80</v>
       </c>
       <c r="Y43" s="21">
@@ -20660,7 +20660,7 @@
         <v>60</v>
       </c>
       <c r="AB43" s="19">
-        <f t="shared" ref="AB43:AB93" si="60">AA43</f>
+        <f t="shared" ref="AB43:AB44" si="60">AA43</f>
         <v>60</v>
       </c>
       <c r="AC43" s="21">
@@ -20991,7 +20991,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="19">
-        <f t="shared" ref="L47:L93" si="62">K47</f>
+        <f t="shared" ref="L47" si="62">K47</f>
         <v>0</v>
       </c>
       <c r="M47" s="21">
@@ -21006,7 +21006,7 @@
         <v>70</v>
       </c>
       <c r="P47" s="19">
-        <f t="shared" ref="P47:P93" si="63">O47</f>
+        <f t="shared" ref="P47" si="63">O47</f>
         <v>70</v>
       </c>
       <c r="Q47" s="21">
@@ -21021,7 +21021,7 @@
         <v>90</v>
       </c>
       <c r="T47" s="19">
-        <f t="shared" ref="T47:T93" si="64">S47</f>
+        <f t="shared" ref="T47" si="64">S47</f>
         <v>90</v>
       </c>
       <c r="U47" s="21">
@@ -21033,7 +21033,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="19">
-        <f t="shared" ref="X47:X93" si="65">W47</f>
+        <f t="shared" ref="X47" si="65">W47</f>
         <v>0</v>
       </c>
       <c r="Y47" s="21">
@@ -21048,7 +21048,7 @@
         <v>60</v>
       </c>
       <c r="AB47" s="19">
-        <f t="shared" ref="AB47:AB93" si="66">AA47</f>
+        <f t="shared" ref="AB47" si="66">AA47</f>
         <v>60</v>
       </c>
       <c r="AC47" s="21">
@@ -21607,7 +21607,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="19">
-        <f t="shared" ref="L53:L93" si="73">K53</f>
+        <f t="shared" ref="L53:L79" si="73">K53</f>
         <v>0</v>
       </c>
       <c r="M53" s="21">
@@ -21619,7 +21619,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="19">
-        <f t="shared" ref="P53:P93" si="74">O53</f>
+        <f t="shared" ref="P53:P79" si="74">O53</f>
         <v>0</v>
       </c>
       <c r="Q53" s="21">
@@ -21634,7 +21634,7 @@
         <v>1</v>
       </c>
       <c r="T53" s="19">
-        <f t="shared" ref="T53:T93" si="75">S53</f>
+        <f t="shared" ref="T53:T79" si="75">S53</f>
         <v>1</v>
       </c>
       <c r="U53" s="21">
@@ -21649,7 +21649,7 @@
         <v>1.2</v>
       </c>
       <c r="X53" s="19">
-        <f t="shared" ref="X53:X93" si="76">W53</f>
+        <f t="shared" ref="X53:X79" si="76">W53</f>
         <v>1.2</v>
       </c>
       <c r="Y53" s="21">
@@ -21664,7 +21664,7 @@
         <v>0.5</v>
       </c>
       <c r="AB53" s="19">
-        <f t="shared" ref="AB53:AB93" si="77">AA53</f>
+        <f t="shared" ref="AB53:AB79" si="77">AA53</f>
         <v>0.5</v>
       </c>
       <c r="AC53" s="21">
@@ -22284,7 +22284,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="21">
-        <f t="shared" ref="M60:M93" si="78">L60</f>
+        <f t="shared" ref="M60:M79" si="78">L60</f>
         <v>0</v>
       </c>
       <c r="O60" s="12">
@@ -22296,7 +22296,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="21">
-        <f t="shared" ref="Q60:Q93" si="79">P60</f>
+        <f t="shared" ref="Q60:Q79" si="79">P60</f>
         <v>0</v>
       </c>
       <c r="R60" s="11">
@@ -22311,7 +22311,7 @@
         <v>2</v>
       </c>
       <c r="U60" s="21">
-        <f t="shared" ref="U60:U93" si="80">T60</f>
+        <f t="shared" ref="U60:U79" si="80">T60</f>
         <v>2</v>
       </c>
       <c r="W60" s="12">
@@ -22323,7 +22323,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="21">
-        <f t="shared" ref="Y60:Y93" si="81">X60</f>
+        <f t="shared" ref="Y60:Y79" si="81">X60</f>
         <v>0</v>
       </c>
       <c r="AA60" s="12">
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="21">
-        <f t="shared" ref="AC60:AC93" si="82">AB60</f>
+        <f t="shared" ref="AC60:AC79" si="82">AB60</f>
         <v>0</v>
       </c>
     </row>
@@ -24310,7 +24310,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="21">
-        <f t="shared" ref="M82:M93" si="84">L82</f>
+        <f t="shared" ref="M82:M85" si="84">L82</f>
         <v>0</v>
       </c>
       <c r="O82" s="12">
@@ -24322,7 +24322,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="21">
-        <f t="shared" ref="Q82:Q93" si="86">P82</f>
+        <f t="shared" ref="Q82:Q85" si="86">P82</f>
         <v>0</v>
       </c>
       <c r="R82" s="11">
@@ -24337,7 +24337,7 @@
         <v>2.5</v>
       </c>
       <c r="U82" s="21">
-        <f t="shared" ref="U82:U93" si="88">T82</f>
+        <f t="shared" ref="U82:U85" si="88">T82</f>
         <v>2.5</v>
       </c>
       <c r="V82" s="11">
@@ -24352,7 +24352,7 @@
         <v>1</v>
       </c>
       <c r="Y82" s="21">
-        <f t="shared" ref="Y82:Y93" si="90">X82</f>
+        <f t="shared" ref="Y82:Y85" si="90">X82</f>
         <v>1</v>
       </c>
       <c r="AA82" s="12">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="AC82" s="21">
-        <f t="shared" ref="AC82:AC93" si="92">AB82</f>
+        <f t="shared" ref="AC82:AC85" si="92">AB82</f>
         <v>0</v>
       </c>
     </row>

--- a/specifications/5_Insects/ScriptRules_Insects.xlsx
+++ b/specifications/5_Insects/ScriptRules_Insects.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HgRepos\LANDFIRE\landfiredisturbance-clone\specifications\5_Insects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\LFDisturbance\fera-landfiredisturbance\specifications\5_Insects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12180" windowHeight="7215" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12180" windowHeight="7220" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="FBDescriptions" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="53_Insects_HighSeverity" sheetId="14" r:id="rId8"/>
     <sheet name="Expected" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="427">
   <si>
     <t>* = 0.9</t>
   </si>
@@ -1773,11 +1773,14 @@
   <si>
     <t>* = 2, min 4</t>
   </si>
+  <si>
+    <t>|If not present * = (denOtree*dbhOtree + denMidTree*dbhMidTree) / (denOTree + denMidtree)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2403,14 +2406,14 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -2443,7 +2446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2498,7 +2501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2542,7 +2545,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>29</v>
       </c>
@@ -2588,15 +2591,15 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2607,7 +2610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2637,7 +2640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>511</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>512</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>513</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>521</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>522</v>
       </c>
@@ -2721,7 +2724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>523</v>
       </c>
@@ -2735,7 +2738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>531</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>532</v>
       </c>
@@ -2763,7 +2766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>533</v>
       </c>
@@ -2777,47 +2780,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>203</v>
       </c>
@@ -2836,107 +2839,107 @@
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="101.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="101.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -2953,27 +2956,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView topLeftCell="F1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="74" style="29" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="23" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="27" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="28" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="28" customWidth="1"/>
-    <col min="9" max="9" width="51.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="27" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="29"/>
+    <col min="3" max="3" width="28.81640625" style="23" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="27" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7265625" style="28" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="53.26953125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="28.7265625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="51.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="28.7265625" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>273</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>95</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>90</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>92</v>
       </c>
@@ -3059,7 +3062,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
@@ -3067,7 +3070,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>93</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>94</v>
       </c>
@@ -3119,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>85</v>
       </c>
@@ -3127,7 +3130,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>87</v>
       </c>
@@ -3147,7 +3150,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>88</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>89</v>
       </c>
@@ -3207,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>96</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>98</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>97</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>99</v>
       </c>
@@ -3239,7 +3242,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>100</v>
       </c>
@@ -3247,7 +3250,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>71</v>
       </c>
@@ -3273,7 +3276,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>72</v>
       </c>
@@ -3299,7 +3302,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>73</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>76</v>
       </c>
@@ -3352,7 +3355,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>74</v>
       </c>
@@ -3367,19 +3370,19 @@
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="23" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>75</v>
       </c>
@@ -3406,7 +3409,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>77</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>78</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>79</v>
       </c>
@@ -3494,7 +3497,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
         <v>80</v>
       </c>
@@ -3520,7 +3523,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>81</v>
       </c>
@@ -3546,7 +3549,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>82</v>
       </c>
@@ -3572,7 +3575,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>83</v>
       </c>
@@ -3598,7 +3601,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>84</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>69</v>
       </c>
@@ -3632,7 +3635,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>70</v>
       </c>
@@ -3640,7 +3643,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>135</v>
       </c>
@@ -3651,7 +3654,7 @@
       <c r="J34" s="24"/>
       <c r="K34" s="25"/>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>136</v>
       </c>
@@ -3664,7 +3667,7 @@
       </c>
       <c r="K35" s="25"/>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="26" t="s">
         <v>137</v>
       </c>
@@ -3675,7 +3678,7 @@
       <c r="J36" s="24"/>
       <c r="K36" s="25"/>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="26" t="s">
         <v>138</v>
       </c>
@@ -3686,7 +3689,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="25"/>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="26" t="s">
         <v>139</v>
       </c>
@@ -3699,7 +3702,7 @@
       </c>
       <c r="K38" s="25"/>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>140</v>
       </c>
@@ -3710,7 +3713,7 @@
       <c r="J39" s="24"/>
       <c r="K39" s="25"/>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
         <v>113</v>
       </c>
@@ -3722,7 +3725,7 @@
       <c r="J40" s="24"/>
       <c r="K40" s="25"/>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="26" t="s">
         <v>114</v>
       </c>
@@ -3738,7 +3741,7 @@
       </c>
       <c r="K41" s="25"/>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="26" t="s">
         <v>115</v>
       </c>
@@ -3754,7 +3757,7 @@
       </c>
       <c r="K42" s="25"/>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="26" t="s">
         <v>116</v>
       </c>
@@ -3766,7 +3769,7 @@
       <c r="J43" s="24"/>
       <c r="K43" s="25"/>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="26" t="s">
         <v>117</v>
       </c>
@@ -3777,7 +3780,7 @@
       <c r="J44" s="24"/>
       <c r="K44" s="25"/>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
         <v>118</v>
       </c>
@@ -3793,7 +3796,7 @@
       </c>
       <c r="K45" s="25"/>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="26" t="s">
         <v>119</v>
       </c>
@@ -3809,7 +3812,7 @@
       </c>
       <c r="K46" s="25"/>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="26" t="s">
         <v>120</v>
       </c>
@@ -3821,7 +3824,7 @@
       <c r="J47" s="24"/>
       <c r="K47" s="25"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="26" t="s">
         <v>141</v>
       </c>
@@ -3845,7 +3848,7 @@
       </c>
       <c r="K48" s="25"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="26" t="s">
         <v>142</v>
       </c>
@@ -3869,7 +3872,7 @@
       </c>
       <c r="K49" s="25"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="26" t="s">
         <v>146</v>
       </c>
@@ -3895,7 +3898,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="26" t="s">
         <v>147</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="26" t="s">
         <v>148</v>
       </c>
@@ -3947,7 +3950,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="26" t="s">
         <v>190</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="26" t="s">
         <v>191</v>
       </c>
@@ -3983,7 +3986,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="26" t="s">
         <v>192</v>
       </c>
@@ -4001,7 +4004,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="26" t="s">
         <v>193</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="26" t="s">
         <v>194</v>
       </c>
@@ -4035,7 +4038,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="26" t="s">
         <v>195</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
         <v>155</v>
       </c>
@@ -4060,7 +4063,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
         <v>156</v>
       </c>
@@ -4068,7 +4071,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
         <v>157</v>
       </c>
@@ -4076,7 +4079,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
         <v>152</v>
       </c>
@@ -4084,7 +4087,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
         <v>153</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
         <v>154</v>
       </c>
@@ -4100,7 +4103,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
         <v>149</v>
       </c>
@@ -4108,7 +4111,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="26" t="s">
         <v>150</v>
       </c>
@@ -4116,7 +4119,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="26" t="s">
         <v>151</v>
       </c>
@@ -4124,7 +4127,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
         <v>143</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="26" t="s">
         <v>144</v>
       </c>
@@ -4140,7 +4143,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
         <v>145</v>
       </c>
@@ -4148,7 +4151,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
         <v>121</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="26" t="s">
         <v>122</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="26" t="s">
         <v>123</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="26" t="s">
         <v>124</v>
       </c>
@@ -4180,7 +4183,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="26" t="s">
         <v>125</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="26" t="s">
         <v>126</v>
       </c>
@@ -4196,7 +4199,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="26" t="s">
         <v>127</v>
       </c>
@@ -4204,7 +4207,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="26" t="s">
         <v>128</v>
       </c>
@@ -4214,7 +4217,7 @@
       <c r="D78" s="24"/>
       <c r="J78" s="24"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="26" t="s">
         <v>129</v>
       </c>
@@ -4224,7 +4227,7 @@
       <c r="D79" s="24"/>
       <c r="J79" s="24"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="26" t="s">
         <v>130</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="s">
         <v>131</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="26" t="s">
         <v>132</v>
       </c>
@@ -4286,7 +4289,7 @@
       <c r="D82" s="24"/>
       <c r="J82" s="24"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="26" t="s">
         <v>133</v>
       </c>
@@ -4296,7 +4299,7 @@
       <c r="D83" s="24"/>
       <c r="J83" s="24"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="26" t="s">
         <v>106</v>
       </c>
@@ -4305,7 +4308,7 @@
       </c>
       <c r="D84" s="24"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="26" t="s">
         <v>107</v>
       </c>
@@ -4314,7 +4317,7 @@
       </c>
       <c r="D85" s="24"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="26" t="s">
         <v>108</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="26" t="s">
         <v>109</v>
       </c>
@@ -4345,7 +4348,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="26" t="s">
         <v>103</v>
       </c>
@@ -4354,7 +4357,7 @@
       </c>
       <c r="D88" s="24"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="26" t="s">
         <v>104</v>
       </c>
@@ -4363,7 +4366,7 @@
       </c>
       <c r="D89" s="24"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="26" t="s">
         <v>105</v>
       </c>
@@ -4372,7 +4375,7 @@
       </c>
       <c r="D90" s="24"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="26" t="s">
         <v>110</v>
       </c>
@@ -4381,7 +4384,7 @@
       </c>
       <c r="D91" s="24"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="26" t="s">
         <v>111</v>
       </c>
@@ -4390,7 +4393,7 @@
       </c>
       <c r="D92" s="24"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="26" t="s">
         <v>112</v>
       </c>
@@ -4399,864 +4402,864 @@
       </c>
       <c r="D93" s="24"/>
     </row>
-    <row r="94" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="420" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="421" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="422" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="423" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="425" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="426" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="428" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="429" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="430" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="431" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="432" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="434" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="435" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="436" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="437" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="438" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="439" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="440" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="441" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="443" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="444" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="445" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="446" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="447" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="448" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="449" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="450" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="452" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="453" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="454" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="455" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="456" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="457" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="458" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="459" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="461" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="462" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="463" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="464" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="465" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="466" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="467" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="468" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="470" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="471" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="472" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="473" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="474" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="475" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="476" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="477" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="479" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="480" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="481" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="482" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="483" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="484" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="485" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="486" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="488" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="489" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="490" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="491" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="492" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="493" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="494" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="495" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="497" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="498" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="499" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="500" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="501" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="502" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="503" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="504" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="505" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="506" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="507" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="508" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="509" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="510" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="511" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="512" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="513" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="514" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="515" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="516" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="517" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="518" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="519" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="520" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="521" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="522" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="523" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="524" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="525" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="526" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="527" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="528" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="529" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="530" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="531" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="532" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="533" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="534" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="535" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="536" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="537" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="538" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="539" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="540" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="541" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="542" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="543" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="544" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="545" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="546" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="547" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="548" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="549" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="550" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="551" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="552" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="553" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="554" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="555" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="556" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="557" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="558" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="559" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="560" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="561" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="562" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="563" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="564" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="565" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="566" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="567" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="568" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="569" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="570" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="571" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="572" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="573" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="574" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="575" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="576" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="577" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="578" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="579" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="580" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="581" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="582" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="583" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="584" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="585" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="586" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="587" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="588" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="589" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="590" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="591" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="592" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="593" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="594" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="595" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="596" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="597" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="598" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="599" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="600" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="601" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="602" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="603" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="604" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="605" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="606" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="607" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="608" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="609" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="610" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="611" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="612" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="613" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="614" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="615" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="616" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="617" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="618" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="619" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="620" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="621" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="622" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="623" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="624" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="625" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="626" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="627" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="628" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="629" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="630" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="631" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="632" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="633" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="634" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="635" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="636" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="637" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="638" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="639" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="640" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="641" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="642" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="643" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="644" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="645" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="646" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="647" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="648" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="649" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="650" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="651" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="652" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="653" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="654" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="655" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="656" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="657" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="658" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="659" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="660" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="661" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="662" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="663" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="664" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="665" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="666" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="667" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="668" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="669" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="670" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="671" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="672" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="673" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="674" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="675" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="676" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="677" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="678" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="679" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="680" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="681" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="682" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="683" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="684" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="685" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="686" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="687" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="688" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="689" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="690" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="691" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="692" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="693" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="694" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="695" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="696" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="697" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="698" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="699" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="700" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="701" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="702" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="703" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="704" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="705" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="706" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="707" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="708" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="709" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="710" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="711" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="712" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="713" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="714" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="715" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="716" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="717" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="718" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="719" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="720" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="721" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="722" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="723" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="724" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="725" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="726" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="727" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="728" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="729" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="730" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="731" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="732" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="733" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="734" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="735" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="736" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="737" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="738" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="739" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="740" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="741" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="742" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="743" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="744" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="745" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="746" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="747" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="748" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="749" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="750" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="751" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="752" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="753" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="754" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="755" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="756" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="757" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="758" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="759" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="760" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="761" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="762" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="763" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="764" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="765" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="766" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="767" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="768" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="769" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="770" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="771" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="772" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="773" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="774" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="775" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="776" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="777" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="778" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="779" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="780" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="781" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="782" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="783" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="784" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="785" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="786" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="787" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="788" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="789" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="790" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="791" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="792" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="793" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="794" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="795" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="796" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="797" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="798" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="799" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="800" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="801" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="802" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="803" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="804" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="805" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="806" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="807" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="808" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="809" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="810" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="811" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="812" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="813" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="814" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="815" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="816" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="817" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="818" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="819" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="820" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="821" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="822" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="823" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="824" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="825" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="826" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="827" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="828" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="829" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="830" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="831" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="832" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="833" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="834" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="835" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="836" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="837" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="838" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="839" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="840" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="841" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="842" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="843" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="844" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="845" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="846" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="847" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="848" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="849" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="850" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="851" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="852" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="853" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="854" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="855" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="856" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="857" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="858" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="859" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="860" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="861" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="862" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="863" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="864" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="865" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="866" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="867" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="868" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="869" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="870" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="871" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="872" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="873" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="874" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="875" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="876" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="877" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="878" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="879" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="880" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="881" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="882" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="883" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="884" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="885" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="886" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="887" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="888" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="889" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="890" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="891" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="892" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="893" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="894" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="895" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="896" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="897" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="898" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="899" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="900" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="901" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="902" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="903" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="904" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="905" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="906" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="907" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="908" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="909" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="910" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="911" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="912" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="913" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="914" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="915" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="916" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="917" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="918" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="919" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="920" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="921" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="922" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="923" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="924" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="925" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="926" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="927" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="928" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="929" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="930" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="931" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="932" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="933" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="934" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="935" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="936" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="937" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="938" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="939" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="940" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="941" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="942" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="943" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="944" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="945" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="946" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="947" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="948" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="949" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="950" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="951" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" spans="1:11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" spans="1:11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="273" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="274" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="275" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="276" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="277" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="278" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="279" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="280" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="281" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="282" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="283" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="284" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="285" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="286" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="287" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="288" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="289" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="290" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="291" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="292" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="293" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="294" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="295" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="296" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="297" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="298" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="299" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="300" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="301" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="302" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="303" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="304" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="305" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="306" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="307" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="308" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="309" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="310" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="311" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="312" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="313" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="314" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="315" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="316" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="317" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="318" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="319" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="320" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="321" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="322" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="323" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="324" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="325" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="326" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="327" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="328" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="329" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="330" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="331" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="332" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="333" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="334" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="335" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="336" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="337" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="338" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="339" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="340" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="341" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="342" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="343" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="344" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="345" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="346" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="347" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="348" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="349" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="350" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="351" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="352" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="353" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="354" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="355" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="356" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="357" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="358" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="359" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="360" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="361" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="362" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="363" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="364" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="365" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="366" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="367" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="368" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="369" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="370" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="371" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="372" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="373" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="374" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="375" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="376" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="377" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="378" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="379" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="380" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="381" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="382" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="383" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="384" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="385" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="386" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="387" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="388" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="389" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="390" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="391" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="392" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="393" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="394" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="395" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="396" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="397" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="398" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="399" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="400" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="401" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="402" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="403" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="404" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="405" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="406" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="407" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="408" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="409" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="410" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="411" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="412" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="413" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="414" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="415" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="416" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="417" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="418" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="419" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="420" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="421" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="422" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="423" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="424" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="425" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="426" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="427" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="428" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="429" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="430" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="431" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="432" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="433" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="434" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="435" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="436" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="437" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="438" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="439" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="440" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="441" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="442" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="443" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="444" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="445" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="446" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="447" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="448" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="449" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="450" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="451" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="452" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="453" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="454" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="455" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="456" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="457" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="458" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="459" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="460" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="461" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="462" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="463" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="464" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="465" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="466" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="467" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="468" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="469" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="470" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="471" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="472" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="473" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="474" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="475" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="476" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="477" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="478" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="479" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="480" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="481" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="482" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="483" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="484" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="485" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="486" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="487" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="488" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="489" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="490" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="491" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="492" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="493" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="494" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="495" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="496" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="497" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="498" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="499" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="500" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="501" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="502" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="503" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="504" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="505" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="506" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="507" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="508" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="509" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="510" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="511" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="512" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="513" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="514" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="515" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="516" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="517" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="518" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="519" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="520" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="521" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="522" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="523" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="524" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="525" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="526" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="527" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="528" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="529" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="530" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="531" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="532" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="533" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="534" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="535" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="536" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="537" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="538" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="539" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="540" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="541" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="542" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="543" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="544" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="545" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="546" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="547" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="548" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="549" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="550" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="551" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="552" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="553" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="554" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="555" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="556" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="557" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="558" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="559" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="560" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="561" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="562" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="563" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="564" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="565" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="566" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="567" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="568" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="569" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="570" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="571" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="572" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="573" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="574" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="575" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="576" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="577" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="578" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="579" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="580" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="581" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="582" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="583" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="584" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="585" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="586" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="587" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="588" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="589" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="590" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="591" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="592" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="593" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="594" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="595" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="596" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="597" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="598" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="599" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="600" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="601" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="602" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="603" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="604" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="605" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="606" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="607" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="608" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="609" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="610" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="611" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="612" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="613" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="614" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="615" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="616" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="617" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="618" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="619" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="620" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="621" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="622" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="623" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="624" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="625" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="626" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="627" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="628" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="629" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="630" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="631" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="632" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="633" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="634" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="635" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="636" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="637" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="638" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="639" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="640" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="641" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="642" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="643" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="644" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="645" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="646" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="647" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="648" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="649" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="650" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="651" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="652" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="653" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="654" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="655" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="656" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="657" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="658" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="659" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="660" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="661" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="662" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="663" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="664" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="665" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="666" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="667" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="668" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="669" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="670" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="671" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="672" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="673" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="674" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="675" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="676" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="677" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="678" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="679" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="680" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="681" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="682" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="683" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="684" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="685" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="686" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="687" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="688" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="689" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="690" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="691" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="692" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="693" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="694" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="695" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="696" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="697" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="698" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="699" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="700" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="701" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="702" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="703" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="704" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="705" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="706" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="707" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="708" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="709" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="710" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="711" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="712" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="713" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="714" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="715" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="716" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="717" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="718" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="719" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="720" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="721" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="722" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="723" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="724" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="725" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="726" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="727" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="728" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="729" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="730" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="731" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="732" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="733" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="734" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="735" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="736" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="737" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="738" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="739" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="740" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="741" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="742" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="743" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="744" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="745" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="746" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="747" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="748" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="749" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="750" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="751" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="752" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="753" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="754" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="755" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="756" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="757" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="758" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="759" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="760" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="761" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="762" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="763" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="764" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="765" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="766" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="767" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="768" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="769" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="770" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="771" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="772" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="773" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="774" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="775" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="776" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="777" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="778" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="779" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="780" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="781" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="782" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="783" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="784" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="785" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="786" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="787" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="788" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="789" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="790" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="791" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="792" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="793" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="794" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="795" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="796" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="797" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="798" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="799" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="800" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="801" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="802" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="803" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="804" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="805" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="806" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="807" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="808" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="809" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="810" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="811" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="812" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="813" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="814" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="815" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="816" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="817" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="818" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="819" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="820" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="821" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="822" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="823" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="824" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="825" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="826" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="827" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="828" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="829" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="830" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="831" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="832" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="833" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="834" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="835" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="836" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="837" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="838" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="839" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="840" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="841" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="842" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="843" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="844" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="845" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="846" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="847" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="848" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="849" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="850" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="851" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="852" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="853" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="854" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="855" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="856" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="857" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="858" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="859" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="860" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="861" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="862" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="863" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="864" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="865" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="866" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="867" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="868" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="869" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="870" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="871" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="872" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="873" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="874" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="875" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="876" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="877" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="878" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="879" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="880" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="881" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="882" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="883" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="884" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="885" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="886" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="887" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="888" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="889" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="890" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="891" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="892" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="893" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="894" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="895" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="896" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="897" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="898" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="899" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="900" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="901" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="902" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="903" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="904" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="905" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="906" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="907" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="908" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="909" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="910" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="911" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="912" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="913" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="914" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="915" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="916" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="917" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="918" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="919" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="920" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="921" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="922" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="923" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="924" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="925" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="926" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="927" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="928" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="929" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="930" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="931" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="932" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="933" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="934" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="935" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="936" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="937" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="938" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="939" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="940" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="941" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="942" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="943" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="944" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="945" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="946" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="947" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="948" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="949" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="950" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="951" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5269,14 +5272,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="102.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" customWidth="1"/>
-    <col min="9" max="13" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="102.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.1796875" customWidth="1"/>
+    <col min="9" max="13" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -5323,7 +5326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>95</v>
       </c>
@@ -5361,7 +5364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>90</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>92</v>
       </c>
@@ -5437,7 +5440,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>91</v>
       </c>
@@ -5475,7 +5478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>93</v>
       </c>
@@ -5513,7 +5516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>94</v>
       </c>
@@ -5551,7 +5554,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>85</v>
       </c>
@@ -5571,7 +5574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>87</v>
       </c>
@@ -5591,7 +5594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>86</v>
       </c>
@@ -5611,7 +5614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>88</v>
       </c>
@@ -5631,7 +5634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>89</v>
       </c>
@@ -5651,7 +5654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>96</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>98</v>
       </c>
@@ -5703,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>97</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>99</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>100</v>
       </c>
@@ -5781,7 +5784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>71</v>
       </c>
@@ -5795,7 +5798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>72</v>
       </c>
@@ -5809,7 +5812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>73</v>
       </c>
@@ -5823,7 +5826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>76</v>
       </c>
@@ -5837,7 +5840,7 @@
         <v>33.35</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>74</v>
       </c>
@@ -5851,7 +5854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>75</v>
       </c>
@@ -5865,7 +5868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>77</v>
       </c>
@@ -5879,7 +5882,7 @@
         <v>0.10142</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>78</v>
       </c>
@@ -5893,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>79</v>
       </c>
@@ -5919,7 +5922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>80</v>
       </c>
@@ -5945,7 +5948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>81</v>
       </c>
@@ -5971,7 +5974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>82</v>
       </c>
@@ -6000,7 +6003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>83</v>
       </c>
@@ -6029,7 +6032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>84</v>
       </c>
@@ -6058,7 +6061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>69</v>
       </c>
@@ -6075,7 +6078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>70</v>
       </c>
@@ -6092,7 +6095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>135</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>136</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>137</v>
       </c>
@@ -6224,12 +6227,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>138</v>
       </c>
@@ -6252,7 +6255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>139</v>
       </c>
@@ -6275,7 +6278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>140</v>
       </c>
@@ -6298,12 +6301,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>113</v>
       </c>
@@ -6347,7 +6350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>114</v>
       </c>
@@ -6391,7 +6394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>115</v>
       </c>
@@ -6435,7 +6438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>116</v>
       </c>
@@ -6479,7 +6482,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
         <v>117</v>
       </c>
@@ -6502,7 +6505,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>118</v>
       </c>
@@ -6525,7 +6528,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
         <v>119</v>
       </c>
@@ -6548,7 +6551,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>120</v>
       </c>
@@ -6571,7 +6574,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
         <v>141</v>
       </c>
@@ -6609,7 +6612,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>142</v>
       </c>
@@ -6647,7 +6650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>146</v>
       </c>
@@ -6685,7 +6688,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
         <v>147</v>
       </c>
@@ -6723,7 +6726,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>148</v>
       </c>
@@ -6761,7 +6764,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
         <v>185</v>
       </c>
@@ -6799,7 +6802,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>184</v>
       </c>
@@ -6837,7 +6840,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>183</v>
       </c>
@@ -6875,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>182</v>
       </c>
@@ -6901,7 +6904,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>181</v>
       </c>
@@ -6927,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
         <v>180</v>
       </c>
@@ -6953,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>155</v>
       </c>
@@ -6967,7 +6970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
         <v>156</v>
       </c>
@@ -6981,7 +6984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
         <v>157</v>
       </c>
@@ -6995,7 +6998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
         <v>152</v>
       </c>
@@ -7018,7 +7021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
         <v>153</v>
       </c>
@@ -7041,7 +7044,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>154</v>
       </c>
@@ -7064,22 +7067,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
         <v>143</v>
       </c>
@@ -7126,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="s">
         <v>144</v>
       </c>
@@ -7173,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="s">
         <v>145</v>
       </c>
@@ -7220,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
         <v>121</v>
       </c>
@@ -7237,7 +7240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
         <v>122</v>
       </c>
@@ -7257,7 +7260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
         <v>123</v>
       </c>
@@ -7280,7 +7283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
         <v>124</v>
       </c>
@@ -7306,7 +7309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
         <v>125</v>
       </c>
@@ -7326,7 +7329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="s">
         <v>126</v>
       </c>
@@ -7334,7 +7337,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="s">
         <v>127</v>
       </c>
@@ -7342,7 +7345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
         <v>128</v>
       </c>
@@ -7350,7 +7353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
         <v>129</v>
       </c>
@@ -7358,12 +7361,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
         <v>130</v>
       </c>
@@ -7410,7 +7413,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
         <v>131</v>
       </c>
@@ -7457,12 +7460,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
         <v>132</v>
       </c>
@@ -7479,7 +7482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
         <v>133</v>
       </c>
@@ -7496,12 +7499,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
         <v>106</v>
       </c>
@@ -7518,7 +7521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
         <v>107</v>
       </c>
@@ -7535,12 +7538,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="s">
         <v>108</v>
       </c>
@@ -7584,7 +7587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
         <v>109</v>
       </c>
@@ -7628,12 +7631,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
         <v>103</v>
       </c>
@@ -7650,7 +7653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
         <v>104</v>
       </c>
@@ -7667,7 +7670,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
         <v>105</v>
       </c>
@@ -7684,12 +7687,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
         <v>110</v>
       </c>
@@ -7697,7 +7700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
         <v>111</v>
       </c>
@@ -7705,7 +7708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
         <v>112</v>
       </c>
@@ -7713,7 +7716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
         <v>189</v>
       </c>
@@ -7728,32 +7731,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="P1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="80.42578125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="1" max="1" width="80.453125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="38.54296875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="9" width="18.5703125" customWidth="1"/>
+    <col min="7" max="9" width="18.54296875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="13" width="18.5703125" customWidth="1"/>
+    <col min="11" max="13" width="18.54296875" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="17" width="18.5703125" customWidth="1"/>
+    <col min="15" max="17" width="18.54296875" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -7842,7 +7845,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="str">
         <f>'5_Insects_Script'!A2</f>
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
@@ -7942,7 +7945,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="str">
         <f>'5_Insects_Script'!A3</f>
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -8038,7 +8041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="str">
         <f>'5_Insects_Script'!A4</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -8138,7 +8141,7 @@
         <v>63.525000000000013</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="str">
         <f>'5_Insects_Script'!A5</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
@@ -8234,7 +8237,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="str">
         <f>'5_Insects_Script'!A6</f>
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
@@ -8334,7 +8337,7 @@
         <v>42.75</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="str">
         <f>'5_Insects_Script'!A7</f>
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
@@ -8434,7 +8437,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="str">
         <f>'5_Insects_Script'!A8</f>
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -8521,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="str">
         <f>'5_Insects_Script'!A9</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -8612,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="str">
         <f>'5_Insects_Script'!A10</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
@@ -8699,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="str">
         <f>'5_Insects_Script'!A11</f>
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
@@ -8790,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="str">
         <f>'5_Insects_Script'!A12</f>
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
@@ -8881,7 +8884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="str">
         <f>'5_Insects_Script'!A13</f>
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -8974,7 +8977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="str">
         <f>'5_Insects_Script'!A14</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -9067,7 +9070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="str">
         <f>'5_Insects_Script'!A15</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
@@ -9160,7 +9163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="str">
         <f>'5_Insects_Script'!A16</f>
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
@@ -9253,7 +9256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="str">
         <f>'5_Insects_Script'!A17</f>
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
@@ -9346,7 +9349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="str">
         <f>'5_Insects_Script'!A18</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
@@ -9406,11 +9409,11 @@
       </c>
       <c r="T18" s="15">
         <f>S22</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="U18" s="50">
         <f>T22</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="V18" s="11">
         <v>13</v>
@@ -9433,14 +9436,14 @@
       </c>
       <c r="AB18" s="15">
         <f>AA22</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AC18" s="50">
         <f>AB22</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="str">
         <f>'5_Insects_Script'!A19</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
@@ -9534,7 +9537,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="str">
         <f>'5_Insects_Script'!A20</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
@@ -9628,7 +9631,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="str">
         <f>'5_Insects_Script'!A21</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
@@ -9721,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="str">
         <f>'5_Insects_Script'!A22</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
@@ -9729,8 +9732,8 @@
       <c r="B22" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="47" t="s">
-        <v>364</v>
+      <c r="C22" s="23" t="s">
+        <v>426</v>
       </c>
       <c r="D22" s="43" t="s">
         <v>364</v>
@@ -9739,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="12">
-        <f>IF(F22=0,F3,F22)</f>
+        <f>IF(F22=0,((F3*F7+F13*F17)/(F7+F17)),F22)</f>
         <v>9.6</v>
       </c>
       <c r="H22" s="15">
@@ -9775,12 +9778,12 @@
         <v>0</v>
       </c>
       <c r="S22" s="12">
-        <f>IF(R22=0,R3,R22)</f>
-        <v>2.9</v>
+        <f>IF(R22=0,((R3*R7+R13*R17)/(R7+R17)),R22)</f>
+        <v>2.3666666666666667</v>
       </c>
       <c r="T22" s="15">
         <f>IF(S22=0,S3,S22)</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="U22" s="16">
         <f>T22*$E22</f>
@@ -9790,7 +9793,7 @@
         <v>9</v>
       </c>
       <c r="W22" s="12">
-        <f>IF(V22=0,V3,V22)</f>
+        <f>IF(V22=0,((V3*V7+V13*V17)/(V7+V17)),V22)</f>
         <v>9</v>
       </c>
       <c r="X22" s="15">
@@ -9802,19 +9805,19 @@
         <v>0</v>
       </c>
       <c r="AA22" s="12">
-        <f>IF(Z22=0,Z3,Z22)</f>
-        <v>12</v>
+        <f>IF(Z22=0,((Z3*Z7+Z13*Z17)/(Z7+Z17)),Z22)</f>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AB22" s="15">
         <f>IF(AA22=0,AA3,AA22)</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AC22" s="16">
         <f>AB22*$E22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="str">
         <f>'5_Insects_Script'!A23</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
@@ -9907,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="str">
         <f>'5_Insects_Script'!A24</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
@@ -10000,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="str">
         <f>'5_Insects_Script'!A25</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
@@ -10093,7 +10096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="str">
         <f>'5_Insects_Script'!A26</f>
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
@@ -10157,7 +10160,7 @@
       </c>
       <c r="U26" s="16">
         <f t="shared" si="61"/>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="V26" s="11">
         <v>11</v>
@@ -10187,10 +10190,10 @@
       </c>
       <c r="AC26" s="16">
         <f t="shared" si="65"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="str">
         <f>'5_Insects_Script'!A27</f>
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
@@ -10287,7 +10290,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="str">
         <f>'5_Insects_Script'!A28</f>
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
@@ -10384,7 +10387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="str">
         <f>'5_Insects_Script'!A29</f>
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
@@ -10484,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="str">
         <f>'5_Insects_Script'!A30</f>
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
@@ -10584,7 +10587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="str">
         <f>'5_Insects_Script'!A31</f>
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
@@ -10684,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="str">
         <f>'5_Insects_Script'!A32</f>
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
@@ -10774,7 +10777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="str">
         <f>'5_Insects_Script'!A33</f>
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
@@ -10864,7 +10867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="str">
         <f>'5_Insects_Script'!A34</f>
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
@@ -10966,7 +10969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="str">
         <f>'5_Insects_Script'!A35</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -11068,7 +11071,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="str">
         <f>'5_Insects_Script'!A36</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -11170,7 +11173,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="str">
         <f>'5_Insects_Script'!A37</f>
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
@@ -11263,7 +11266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="str">
         <f>'5_Insects_Script'!A38</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -11356,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="str">
         <f>'5_Insects_Script'!A39</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -11449,7 +11452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="str">
         <f>'5_Insects_Script'!A40</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
@@ -11548,7 +11551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="str">
         <f>'5_Insects_Script'!A41</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
@@ -11647,7 +11650,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="str">
         <f>'5_Insects_Script'!A42</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -11746,7 +11749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="str">
         <f>'5_Insects_Script'!A43</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -11845,7 +11848,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="str">
         <f>'5_Insects_Script'!A44</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
@@ -11941,7 +11944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="str">
         <f>'5_Insects_Script'!A45</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
@@ -12037,7 +12040,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="str">
         <f>'5_Insects_Script'!A46</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -12133,7 +12136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="str">
         <f>'5_Insects_Script'!A47</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -12229,7 +12232,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="str">
         <f>'5_Insects_Script'!A48</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
@@ -12332,7 +12335,7 @@
         <v>0.60500000000000009</v>
       </c>
     </row>
-    <row r="49" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="str">
         <f>'5_Insects_Script'!A49</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
@@ -12435,7 +12438,7 @@
         <v>18.150000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="str">
         <f>'5_Insects_Script'!A50</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
@@ -12538,7 +12541,7 @@
         <v>0.36300000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="str">
         <f>'5_Insects_Script'!A51</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
@@ -12641,7 +12644,7 @@
         <v>0.4840000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="str">
         <f>'5_Insects_Script'!A52</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
@@ -12744,7 +12747,7 @@
         <v>2.4200000000000003E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="str">
         <f>'5_Insects_Script'!A53</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -12845,7 +12848,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="str">
         <f>'5_Insects_Script'!A54</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -12946,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="str">
         <f>'5_Insects_Script'!A55</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -13047,7 +13050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="str">
         <f>'5_Insects_Script'!A56</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -13142,7 +13145,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="57" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="str">
         <f>'5_Insects_Script'!A57</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -13237,7 +13240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="str">
         <f>'5_Insects_Script'!A58</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -13332,7 +13335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="str">
         <f>'5_Insects_Script'!A59</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
@@ -13422,7 +13425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="str">
         <f>'5_Insects_Script'!A60</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
@@ -13512,7 +13515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="str">
         <f>'5_Insects_Script'!A61</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
@@ -13602,7 +13605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="str">
         <f>'5_Insects_Script'!A62</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
@@ -13698,7 +13701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="str">
         <f>'5_Insects_Script'!A63</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
@@ -13794,7 +13797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="str">
         <f>'5_Insects_Script'!A64</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
@@ -13890,7 +13893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="str">
         <f>'5_Insects_Script'!A65</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
@@ -13974,7 +13977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="str">
         <f>'5_Insects_Script'!A66</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
@@ -14058,7 +14061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="str">
         <f>'5_Insects_Script'!A67</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
@@ -14142,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="str">
         <f>'5_Insects_Script'!A68</f>
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
@@ -14244,7 +14247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="str">
         <f>'5_Insects_Script'!A69</f>
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
@@ -14346,7 +14349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="str">
         <f>'5_Insects_Script'!A70</f>
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
@@ -14448,7 +14451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="str">
         <f>'5_Insects_Script'!A71</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
@@ -14535,7 +14538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="str">
         <f>'5_Insects_Script'!A72</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
@@ -14622,7 +14625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="str">
         <f>'5_Insects_Script'!A73</f>
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
@@ -14709,7 +14712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="str">
         <f>'5_Insects_Script'!A74</f>
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -14802,7 +14805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="str">
         <f>'5_Insects_Script'!A75</f>
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
@@ -14892,7 +14895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="str">
         <f>'5_Insects_Script'!A76</f>
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
@@ -14979,7 +14982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="str">
         <f>'5_Insects_Script'!A77</f>
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -15063,7 +15066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="str">
         <f>'5_Insects_Script'!A78</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
@@ -15150,7 +15153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="str">
         <f>'5_Insects_Script'!A79</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
@@ -15237,7 +15240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="str">
         <f>'5_Insects_Script'!A80</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
@@ -15344,7 +15347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="str">
         <f>'5_Insects_Script'!A81</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
@@ -15451,7 +15454,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="str">
         <f>'5_Insects_Script'!A82</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
@@ -15541,7 +15544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="str">
         <f>'5_Insects_Script'!A83</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
@@ -15631,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="str">
         <f>'5_Insects_Script'!A84</f>
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
@@ -15721,7 +15724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="str">
         <f>'5_Insects_Script'!A85</f>
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
@@ -15811,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="str">
         <f>'5_Insects_Script'!A86</f>
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
@@ -15913,7 +15916,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="str">
         <f>'5_Insects_Script'!A87</f>
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
@@ -16015,7 +16018,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="str">
         <f>'5_Insects_Script'!A88</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
@@ -16099,7 +16102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="str">
         <f>'5_Insects_Script'!A89</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
@@ -16183,7 +16186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="str">
         <f>'5_Insects_Script'!A90</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
@@ -16267,7 +16270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="str">
         <f>'5_Insects_Script'!A91</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
@@ -16354,7 +16357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="str">
         <f>'5_Insects_Script'!A92</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
@@ -16441,7 +16444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="str">
         <f>'5_Insects_Script'!A93</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
@@ -16538,45 +16541,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView topLeftCell="P1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="101.85546875" style="31" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="101.81640625" style="31" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="31" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="36.1796875" style="31" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" style="31" customWidth="1"/>
     <col min="6" max="6" width="14" style="31" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" style="21" customWidth="1"/>
     <col min="10" max="10" width="14" style="31" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="31" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="19" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="18.54296875" style="31" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" style="19" customWidth="1"/>
+    <col min="13" max="13" width="18.54296875" style="21" customWidth="1"/>
     <col min="14" max="14" width="14" style="31" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="31" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="21" customWidth="1"/>
+    <col min="15" max="15" width="18.54296875" style="31" customWidth="1"/>
+    <col min="16" max="16" width="18.54296875" style="19" customWidth="1"/>
+    <col min="17" max="17" width="18.54296875" style="21" customWidth="1"/>
     <col min="18" max="18" width="14" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.54296875" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.54296875" style="21" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="31" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.54296875" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" style="21" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" style="31" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="31"/>
+    <col min="27" max="27" width="18.54296875" style="31" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.54296875" style="21" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1796875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -16665,7 +16668,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="str">
         <f>'5_Insects_Script'!A2</f>
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
@@ -16765,7 +16768,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="str">
         <f>'5_Insects_Script'!A3</f>
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -16861,7 +16864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="str">
         <f>'5_Insects_Script'!A4</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -16959,7 +16962,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="str">
         <f>'5_Insects_Script'!A5</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
@@ -17055,7 +17058,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="str">
         <f>'5_Insects_Script'!A6</f>
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
@@ -17155,7 +17158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="str">
         <f>'5_Insects_Script'!A7</f>
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
@@ -17255,7 +17258,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="str">
         <f>'5_Insects_Script'!A8</f>
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -17342,7 +17345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="str">
         <f>'5_Insects_Script'!A9</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -17431,7 +17434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="str">
         <f>'5_Insects_Script'!A10</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
@@ -17518,7 +17521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="str">
         <f>'5_Insects_Script'!A11</f>
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
@@ -17609,7 +17612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="str">
         <f>'5_Insects_Script'!A12</f>
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
@@ -17700,7 +17703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="str">
         <f>'5_Insects_Script'!A13</f>
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -17793,7 +17796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="str">
         <f>'5_Insects_Script'!A14</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -17886,7 +17889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="str">
         <f>'5_Insects_Script'!A15</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
@@ -17979,7 +17982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="str">
         <f>'5_Insects_Script'!A16</f>
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
@@ -18072,7 +18075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="str">
         <f>'5_Insects_Script'!A17</f>
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
@@ -18165,7 +18168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="str">
         <f>'5_Insects_Script'!A18</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
@@ -18225,11 +18228,11 @@
       </c>
       <c r="T18" s="15">
         <f>S22</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="U18" s="21">
         <f>T22</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="V18" s="11">
         <v>13</v>
@@ -18252,14 +18255,14 @@
       </c>
       <c r="AB18" s="15">
         <f>AA22</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AC18" s="21">
         <f>AB22</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="str">
         <f>'5_Insects_Script'!A19</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
@@ -18353,7 +18356,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="str">
         <f>'5_Insects_Script'!A20</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
@@ -18447,7 +18450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="str">
         <f>'5_Insects_Script'!A21</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
@@ -18540,7 +18543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="str">
         <f>'5_Insects_Script'!A22</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
@@ -18548,8 +18551,8 @@
       <c r="B22" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>364</v>
+      <c r="C22" s="23" t="s">
+        <v>426</v>
       </c>
       <c r="D22" s="43" t="s">
         <v>364</v>
@@ -18558,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="12">
-        <f>IF(F22=0,F3,F22)</f>
+        <f>IF(F22=0,((F3*F7+F13*F17)/(F7+F17)),F22)</f>
         <v>9.6</v>
       </c>
       <c r="H22" s="15">
@@ -18594,12 +18597,12 @@
         <v>0</v>
       </c>
       <c r="S22" s="12">
-        <f>IF(R22=0,R3,R22)</f>
-        <v>2.9</v>
+        <f>IF(R22=0,((R3*R7+R13*R17)/(R7+R17)),R22)</f>
+        <v>2.3666666666666667</v>
       </c>
       <c r="T22" s="15">
         <f>IF(S22=0,S3,S22)</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="U22" s="21">
         <f>T22*$E22</f>
@@ -18609,7 +18612,7 @@
         <v>9</v>
       </c>
       <c r="W22" s="12">
-        <f>IF(V22=0,V3,V22)</f>
+        <f>IF(V22=0,((V3*V7+V13*V17)/(V7+V17)),V22)</f>
         <v>9</v>
       </c>
       <c r="X22" s="15">
@@ -18621,19 +18624,19 @@
         <v>0</v>
       </c>
       <c r="AA22" s="12">
-        <f>IF(Z22=0,Z3,Z22)</f>
-        <v>12</v>
+        <f>IF(Z22=0,((Z3*Z7+Z13*Z17)/(Z7+Z17)),Z22)</f>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AB22" s="15">
         <f>IF(AA22=0,AA3,AA22)</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AC22" s="21">
         <f>AB22*$E22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="str">
         <f>'5_Insects_Script'!A23</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
@@ -18726,7 +18729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="str">
         <f>'5_Insects_Script'!A24</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
@@ -18819,7 +18822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="str">
         <f>'5_Insects_Script'!A25</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
@@ -18912,7 +18915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="str">
         <f>'5_Insects_Script'!A26</f>
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
@@ -18976,7 +18979,7 @@
       </c>
       <c r="U26" s="21">
         <f>T18</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="V26" s="11">
         <v>11</v>
@@ -19006,10 +19009,10 @@
       </c>
       <c r="AC26" s="21">
         <f>AB18</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="str">
         <f>'5_Insects_Script'!A27</f>
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
@@ -19106,7 +19109,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="str">
         <f>'5_Insects_Script'!A28</f>
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
@@ -19203,7 +19206,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="str">
         <f>'5_Insects_Script'!A29</f>
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
@@ -19303,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="str">
         <f>'5_Insects_Script'!A30</f>
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
@@ -19403,7 +19406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="str">
         <f>'5_Insects_Script'!A31</f>
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
@@ -19503,7 +19506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="str">
         <f>'5_Insects_Script'!A32</f>
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
@@ -19593,7 +19596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="str">
         <f>'5_Insects_Script'!A33</f>
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
@@ -19683,7 +19686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="str">
         <f>'5_Insects_Script'!A34</f>
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
@@ -19785,7 +19788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="32" t="str">
         <f>'5_Insects_Script'!A35</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -19887,7 +19890,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="str">
         <f>'5_Insects_Script'!A36</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -19989,7 +19992,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="32" t="str">
         <f>'5_Insects_Script'!A37</f>
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
@@ -20082,7 +20085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="str">
         <f>'5_Insects_Script'!A38</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -20175,7 +20178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="str">
         <f>'5_Insects_Script'!A39</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -20268,7 +20271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="str">
         <f>'5_Insects_Script'!A40</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
@@ -20367,7 +20370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="str">
         <f>'5_Insects_Script'!A41</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
@@ -20468,7 +20471,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="str">
         <f>'5_Insects_Script'!A42</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -20569,7 +20572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="str">
         <f>'5_Insects_Script'!A43</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -20668,7 +20671,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="str">
         <f>'5_Insects_Script'!A44</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
@@ -20764,7 +20767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="str">
         <f>'5_Insects_Script'!A45</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
@@ -20862,7 +20865,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="32" t="str">
         <f>'5_Insects_Script'!A46</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -20960,7 +20963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="32" t="str">
         <f>'5_Insects_Script'!A47</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -21056,7 +21059,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="str">
         <f>'5_Insects_Script'!A48</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
@@ -21159,7 +21162,7 @@
         <v>0.78125</v>
       </c>
     </row>
-    <row r="49" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="32" t="str">
         <f>'5_Insects_Script'!A49</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
@@ -21262,7 +21265,7 @@
         <v>23.4375</v>
       </c>
     </row>
-    <row r="50" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="32" t="str">
         <f>'5_Insects_Script'!A50</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
@@ -21365,7 +21368,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="str">
         <f>'5_Insects_Script'!A51</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
@@ -21468,7 +21471,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="str">
         <f>'5_Insects_Script'!A52</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
@@ -21571,7 +21574,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="str">
         <f>'5_Insects_Script'!A53</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -21672,7 +21675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="32" t="str">
         <f>'5_Insects_Script'!A54</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -21773,7 +21776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="32" t="str">
         <f>'5_Insects_Script'!A55</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -21874,7 +21877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="str">
         <f>'5_Insects_Script'!A56</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -21969,7 +21972,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="57" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="32" t="str">
         <f>'5_Insects_Script'!A57</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -22064,7 +22067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="str">
         <f>'5_Insects_Script'!A58</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -22159,7 +22162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="32" t="str">
         <f>'5_Insects_Script'!A59</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
@@ -22249,7 +22252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="str">
         <f>'5_Insects_Script'!A60</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
@@ -22339,7 +22342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="32" t="str">
         <f>'5_Insects_Script'!A61</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
@@ -22429,7 +22432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="str">
         <f>'5_Insects_Script'!A62</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
@@ -22525,7 +22528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="str">
         <f>'5_Insects_Script'!A63</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
@@ -22621,7 +22624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="32" t="str">
         <f>'5_Insects_Script'!A64</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
@@ -22717,7 +22720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="32" t="str">
         <f>'5_Insects_Script'!A65</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
@@ -22801,7 +22804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="32" t="str">
         <f>'5_Insects_Script'!A66</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
@@ -22885,7 +22888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="32" t="str">
         <f>'5_Insects_Script'!A67</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
@@ -22969,7 +22972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="32" t="str">
         <f>'5_Insects_Script'!A68</f>
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
@@ -23071,7 +23074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="32" t="str">
         <f>'5_Insects_Script'!A69</f>
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
@@ -23173,7 +23176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="32" t="str">
         <f>'5_Insects_Script'!A70</f>
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
@@ -23275,7 +23278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="32" t="str">
         <f>'5_Insects_Script'!A71</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
@@ -23362,7 +23365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="32" t="str">
         <f>'5_Insects_Script'!A72</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
@@ -23449,7 +23452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="32" t="str">
         <f>'5_Insects_Script'!A73</f>
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
@@ -23536,7 +23539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="32" t="str">
         <f>'5_Insects_Script'!A74</f>
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -23629,7 +23632,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="32" t="str">
         <f>'5_Insects_Script'!A75</f>
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
@@ -23719,7 +23722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="str">
         <f>'5_Insects_Script'!A76</f>
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
@@ -23806,7 +23809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="32" t="str">
         <f>'5_Insects_Script'!A77</f>
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -23890,7 +23893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="32" t="str">
         <f>'5_Insects_Script'!A78</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
@@ -23977,7 +23980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="str">
         <f>'5_Insects_Script'!A79</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
@@ -24064,7 +24067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="32" t="str">
         <f>'5_Insects_Script'!A80</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
@@ -24171,7 +24174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="32" t="str">
         <f>'5_Insects_Script'!A81</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
@@ -24278,7 +24281,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="82" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="32" t="str">
         <f>'5_Insects_Script'!A82</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
@@ -24368,7 +24371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="32" t="str">
         <f>'5_Insects_Script'!A83</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
@@ -24458,7 +24461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="32" t="str">
         <f>'5_Insects_Script'!A84</f>
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
@@ -24548,7 +24551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="32" t="str">
         <f>'5_Insects_Script'!A85</f>
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
@@ -24638,7 +24641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="32" t="str">
         <f>'5_Insects_Script'!A86</f>
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
@@ -24742,7 +24745,7 @@
         <v>1.6500000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="32" t="str">
         <f>'5_Insects_Script'!A87</f>
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
@@ -24846,7 +24849,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="32" t="str">
         <f>'5_Insects_Script'!A88</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
@@ -24930,7 +24933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="32" t="str">
         <f>'5_Insects_Script'!A89</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
@@ -25014,7 +25017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="32" t="str">
         <f>'5_Insects_Script'!A90</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
@@ -25098,7 +25101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="32" t="str">
         <f>'5_Insects_Script'!A91</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
@@ -25185,7 +25188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="32" t="str">
         <f>'5_Insects_Script'!A92</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
@@ -25272,7 +25275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="32" t="str">
         <f>'5_Insects_Script'!A93</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
@@ -25369,38 +25372,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="P1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="131.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="131.1796875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="4" max="4" width="38.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.54296875" style="21" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.54296875" style="21" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.54296875" style="21" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" style="21" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.54296875" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -25489,7 +25492,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="str">
         <f>'5_Insects_Script'!A2</f>
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
@@ -25589,7 +25592,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="str">
         <f>'5_Insects_Script'!A3</f>
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -25685,7 +25688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="str">
         <f>'5_Insects_Script'!A4</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -25783,7 +25786,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="str">
         <f>'5_Insects_Script'!A5</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
@@ -25879,7 +25882,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="str">
         <f>'5_Insects_Script'!A6</f>
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
@@ -25979,7 +25982,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="str">
         <f>'5_Insects_Script'!A7</f>
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
@@ -26079,7 +26082,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="str">
         <f>'5_Insects_Script'!A8</f>
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -26166,7 +26169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="str">
         <f>'5_Insects_Script'!A9</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -26255,7 +26258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="str">
         <f>'5_Insects_Script'!A10</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
@@ -26342,7 +26345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="str">
         <f>'5_Insects_Script'!A11</f>
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
@@ -26433,7 +26436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="str">
         <f>'5_Insects_Script'!A12</f>
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
@@ -26524,7 +26527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="str">
         <f>'5_Insects_Script'!A13</f>
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -26617,7 +26620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="str">
         <f>'5_Insects_Script'!A14</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -26710,7 +26713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="str">
         <f>'5_Insects_Script'!A15</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
@@ -26803,7 +26806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="str">
         <f>'5_Insects_Script'!A16</f>
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
@@ -26896,7 +26899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="str">
         <f>'5_Insects_Script'!A17</f>
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
@@ -26989,7 +26992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="str">
         <f>'5_Insects_Script'!A18</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
@@ -27049,11 +27052,11 @@
       </c>
       <c r="T18" s="15">
         <f>S22</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="U18" s="20">
         <f>T22</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="V18" s="11">
         <v>13</v>
@@ -27076,14 +27079,14 @@
       </c>
       <c r="AB18" s="15">
         <f>AA22</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AC18" s="20">
         <f>AB22</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="str">
         <f>'5_Insects_Script'!A19</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
@@ -27177,7 +27180,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="str">
         <f>'5_Insects_Script'!A20</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
@@ -27271,7 +27274,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="str">
         <f>'5_Insects_Script'!A21</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
@@ -27364,7 +27367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="str">
         <f>'5_Insects_Script'!A22</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
@@ -27372,8 +27375,8 @@
       <c r="B22" t="s">
         <v>294</v>
       </c>
-      <c r="C22" s="47" t="s">
-        <v>364</v>
+      <c r="C22" s="23" t="s">
+        <v>426</v>
       </c>
       <c r="D22" s="43" t="s">
         <v>364</v>
@@ -27382,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="12">
-        <f>IF(F22=0,F3,F22)</f>
+        <f>IF(F22=0,((F3*F7+F13*F17)/(F7+F17)),F22)</f>
         <v>9.6</v>
       </c>
       <c r="H22" s="15">
@@ -27418,12 +27421,12 @@
         <v>0</v>
       </c>
       <c r="S22" s="12">
-        <f>IF(R22=0,R3,R22)</f>
-        <v>2.9</v>
+        <f>IF(R22=0,((R3*R7+R13*R17)/(R7+R17)),R22)</f>
+        <v>2.3666666666666667</v>
       </c>
       <c r="T22" s="15">
         <f>IF(S22=0,S3,S22)</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="U22" s="16">
         <f>$E22*T22</f>
@@ -27433,7 +27436,7 @@
         <v>9</v>
       </c>
       <c r="W22" s="12">
-        <f>IF(V22=0,V3,V22)</f>
+        <f>IF(V22=0,((V3*V7+V13*V17)/(V7+V17)),V22)</f>
         <v>9</v>
       </c>
       <c r="X22" s="15">
@@ -27445,19 +27448,19 @@
         <v>0</v>
       </c>
       <c r="AA22" s="12">
-        <f>IF(Z22=0,Z3,Z22)</f>
-        <v>12</v>
+        <f>IF(Z22=0,((Z3*Z7+Z13*Z17)/(Z7+Z17)),Z22)</f>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AB22" s="15">
         <f>IF(AA22=0,AA3,AA22)</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AC22" s="16">
         <f>$E22*AB22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="str">
         <f>'5_Insects_Script'!A23</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
@@ -27550,7 +27553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="str">
         <f>'5_Insects_Script'!A24</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
@@ -27643,7 +27646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="str">
         <f>'5_Insects_Script'!A25</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
@@ -27736,7 +27739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="str">
         <f>'5_Insects_Script'!A26</f>
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
@@ -27800,7 +27803,7 @@
       </c>
       <c r="U26" s="20">
         <f>T18</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="V26" s="11">
         <v>11</v>
@@ -27830,10 +27833,10 @@
       </c>
       <c r="AC26" s="20">
         <f>AB18</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="str">
         <f>'5_Insects_Script'!A27</f>
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
@@ -27930,7 +27933,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="str">
         <f>'5_Insects_Script'!A28</f>
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
@@ -28027,7 +28030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="str">
         <f>'5_Insects_Script'!A29</f>
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
@@ -28127,7 +28130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="str">
         <f>'5_Insects_Script'!A30</f>
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
@@ -28227,7 +28230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="str">
         <f>'5_Insects_Script'!A31</f>
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
@@ -28327,7 +28330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="str">
         <f>'5_Insects_Script'!A32</f>
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
@@ -28417,7 +28420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="str">
         <f>'5_Insects_Script'!A33</f>
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
@@ -28507,7 +28510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="str">
         <f>'5_Insects_Script'!A34</f>
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
@@ -28609,7 +28612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="str">
         <f>'5_Insects_Script'!A35</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -28713,7 +28716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="str">
         <f>'5_Insects_Script'!A36</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -28815,7 +28818,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="str">
         <f>'5_Insects_Script'!A37</f>
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
@@ -28908,7 +28911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="str">
         <f>'5_Insects_Script'!A38</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -29003,7 +29006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="str">
         <f>'5_Insects_Script'!A39</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -29096,7 +29099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="str">
         <f>'5_Insects_Script'!A40</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
@@ -29195,7 +29198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="str">
         <f>'5_Insects_Script'!A41</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
@@ -29296,7 +29299,7 @@
         <v>0.13999999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="str">
         <f>'5_Insects_Script'!A42</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -29397,7 +29400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="str">
         <f>'5_Insects_Script'!A43</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -29496,7 +29499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="str">
         <f>'5_Insects_Script'!A44</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
@@ -29592,7 +29595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="str">
         <f>'5_Insects_Script'!A45</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
@@ -29690,7 +29693,7 @@
         <v>0.13999999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="str">
         <f>'5_Insects_Script'!A46</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -29788,7 +29791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="str">
         <f>'5_Insects_Script'!A47</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -29884,7 +29887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="str">
         <f>'5_Insects_Script'!A48</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
@@ -29985,7 +29988,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="49" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="str">
         <f>'5_Insects_Script'!A49</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
@@ -30086,7 +30089,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="50" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="str">
         <f>'5_Insects_Script'!A50</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
@@ -30189,7 +30192,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="str">
         <f>'5_Insects_Script'!A51</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
@@ -30292,7 +30295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="str">
         <f>'5_Insects_Script'!A52</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
@@ -30395,7 +30398,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="str">
         <f>'5_Insects_Script'!A53</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -30496,7 +30499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="str">
         <f>'5_Insects_Script'!A54</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -30597,7 +30600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="str">
         <f>'5_Insects_Script'!A55</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -30698,7 +30701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="str">
         <f>'5_Insects_Script'!A56</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -30793,7 +30796,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="57" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="str">
         <f>'5_Insects_Script'!A57</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -30888,7 +30891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="str">
         <f>'5_Insects_Script'!A58</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -30983,7 +30986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="str">
         <f>'5_Insects_Script'!A59</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
@@ -31073,7 +31076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="str">
         <f>'5_Insects_Script'!A60</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
@@ -31163,7 +31166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="str">
         <f>'5_Insects_Script'!A61</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
@@ -31253,7 +31256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="str">
         <f>'5_Insects_Script'!A62</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
@@ -31349,7 +31352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="str">
         <f>'5_Insects_Script'!A63</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
@@ -31445,7 +31448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="str">
         <f>'5_Insects_Script'!A64</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
@@ -31541,7 +31544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="str">
         <f>'5_Insects_Script'!A65</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
@@ -31625,7 +31628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="str">
         <f>'5_Insects_Script'!A66</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
@@ -31709,7 +31712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="str">
         <f>'5_Insects_Script'!A67</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
@@ -31793,7 +31796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="str">
         <f>'5_Insects_Script'!A68</f>
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
@@ -31895,7 +31898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="str">
         <f>'5_Insects_Script'!A69</f>
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
@@ -31997,7 +32000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="str">
         <f>'5_Insects_Script'!A70</f>
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
@@ -32099,7 +32102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="str">
         <f>'5_Insects_Script'!A71</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
@@ -32186,7 +32189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="str">
         <f>'5_Insects_Script'!A72</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
@@ -32273,7 +32276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="str">
         <f>'5_Insects_Script'!A73</f>
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
@@ -32360,7 +32363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="str">
         <f>'5_Insects_Script'!A74</f>
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -32453,7 +32456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="str">
         <f>'5_Insects_Script'!A75</f>
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
@@ -32543,7 +32546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="str">
         <f>'5_Insects_Script'!A76</f>
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
@@ -32630,7 +32633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="str">
         <f>'5_Insects_Script'!A77</f>
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -32714,7 +32717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="str">
         <f>'5_Insects_Script'!A78</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
@@ -32801,7 +32804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="str">
         <f>'5_Insects_Script'!A79</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
@@ -32888,7 +32891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="str">
         <f>'5_Insects_Script'!A80</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
@@ -32994,7 +32997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="str">
         <f>'5_Insects_Script'!A81</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
@@ -33100,7 +33103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="str">
         <f>'5_Insects_Script'!A82</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
@@ -33190,7 +33193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="str">
         <f>'5_Insects_Script'!A83</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
@@ -33280,7 +33283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="str">
         <f>'5_Insects_Script'!A84</f>
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
@@ -33370,7 +33373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="str">
         <f>'5_Insects_Script'!A85</f>
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
@@ -33460,7 +33463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="str">
         <f>'5_Insects_Script'!A86</f>
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
@@ -33564,7 +33567,7 @@
         <v>1.9500000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="str">
         <f>'5_Insects_Script'!A87</f>
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
@@ -33668,7 +33671,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="str">
         <f>'5_Insects_Script'!A88</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
@@ -33752,7 +33755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="str">
         <f>'5_Insects_Script'!A89</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
@@ -33836,7 +33839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="str">
         <f>'5_Insects_Script'!A90</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
@@ -33920,7 +33923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="str">
         <f>'5_Insects_Script'!A91</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
@@ -34007,7 +34010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="str">
         <f>'5_Insects_Script'!A92</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
@@ -34094,7 +34097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="str">
         <f>'5_Insects_Script'!A93</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
@@ -34191,28 +34194,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BG22" sqref="BG22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="77.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="31" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="41" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="51" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="61" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.1796875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="31" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="41" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="43" max="51" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="53" max="61" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -34397,7 +34400,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="str">
         <f>'5_Insects_Script'!A2</f>
         <v>eCANOPY_TREES_TOTAL_PERCENT_COVER</v>
@@ -34643,7 +34646,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="str">
         <f>'5_Insects_Script'!A3</f>
         <v>eCANOPY_TREES_OVERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -34889,7 +34892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="str">
         <f>'5_Insects_Script'!A4</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -35135,7 +35138,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="str">
         <f>'5_Insects_Script'!A5</f>
         <v>eCANOPY_TREES_OVERSTORY_HEIGHT</v>
@@ -35381,7 +35384,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="str">
         <f>'5_Insects_Script'!A6</f>
         <v>eCANOPY_TREES_OVERSTORY_PERCENT_COVER</v>
@@ -35627,7 +35630,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="str">
         <f>'5_Insects_Script'!A7</f>
         <v>eCANOPY_TREES_OVERSTORY_STEM_DENSITY</v>
@@ -35873,7 +35876,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="str">
         <f>'5_Insects_Script'!A8</f>
         <v>eCANOPY_TREES_MIDSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -36119,7 +36122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="str">
         <f>'5_Insects_Script'!A9</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -36365,7 +36368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="str">
         <f>'5_Insects_Script'!A10</f>
         <v>eCANOPY_TREES_MIDSTORY_HEIGHT</v>
@@ -36611,7 +36614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="str">
         <f>'5_Insects_Script'!A11</f>
         <v>eCANOPY_TREES_MIDSTORY_PERCENT_COVER</v>
@@ -36857,7 +36860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="str">
         <f>'5_Insects_Script'!A12</f>
         <v>eCANOPY_TREES_MIDSTORY_STEM_DENSITY</v>
@@ -37103,7 +37106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="str">
         <f>'5_Insects_Script'!A13</f>
         <v>eCANOPY_TREES_UNDERSTORY_DIAMETER_AT_BREAST_HEIGHT</v>
@@ -37349,7 +37352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="str">
         <f>'5_Insects_Script'!A14</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT_TO_LIVE_CROWN</v>
@@ -37595,7 +37598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="str">
         <f>'5_Insects_Script'!A15</f>
         <v>eCANOPY_TREES_UNDERSTORY_HEIGHT</v>
@@ -37841,7 +37844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="str">
         <f>'5_Insects_Script'!A16</f>
         <v>eCANOPY_TREES_UNDERSTORY_PERCENT_COVER</v>
@@ -38087,7 +38090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="str">
         <f>'5_Insects_Script'!A17</f>
         <v>eCANOPY_TREES_UNDERSTORY_STEM_DENSITY</v>
@@ -38333,7 +38336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="str">
         <f>'5_Insects_Script'!A18</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_DIAMETER</v>
@@ -38468,11 +38471,11 @@
       </c>
       <c r="AH18">
         <f>'51_Insects_LowSeverity'!T18</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AI18">
         <f>'51_Insects_LowSeverity'!U18</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AJ18">
         <f>'52_Insects_ModSeverity'!S18</f>
@@ -38480,11 +38483,11 @@
       </c>
       <c r="AK18">
         <f>'52_Insects_ModSeverity'!T18</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AL18">
         <f>'52_Insects_ModSeverity'!U18</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AM18">
         <f>'53_Insects_HighSeverity'!S18</f>
@@ -38492,11 +38495,11 @@
       </c>
       <c r="AN18">
         <f>'53_Insects_HighSeverity'!T18</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AO18">
         <f>'53_Insects_HighSeverity'!U18</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AP18">
         <f>'51_Insects_LowSeverity'!V18</f>
@@ -38548,11 +38551,11 @@
       </c>
       <c r="BB18">
         <f>'51_Insects_LowSeverity'!AB18</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BC18">
         <f>'51_Insects_LowSeverity'!AC18</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BD18">
         <f>'52_Insects_ModSeverity'!AA18</f>
@@ -38560,11 +38563,11 @@
       </c>
       <c r="BE18">
         <f>'52_Insects_ModSeverity'!AB18</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BF18">
         <f>'52_Insects_ModSeverity'!AC18</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BG18">
         <f>'53_Insects_HighSeverity'!AA18</f>
@@ -38572,14 +38575,14 @@
       </c>
       <c r="BH18">
         <f>'53_Insects_HighSeverity'!AB18</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BI18">
         <f>'53_Insects_HighSeverity'!AC18</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="str">
         <f>'5_Insects_Script'!A19</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_HEIGHT</v>
@@ -38825,7 +38828,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="str">
         <f>'5_Insects_Script'!A20</f>
         <v>eCANOPY_SNAGS_CLASS_1_ALL_OTHERS_STEM_DENSITY</v>
@@ -39071,7 +39074,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="str">
         <f>'5_Insects_Script'!A21</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT_TO_CROWN_BASE</v>
@@ -39317,7 +39320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="str">
         <f>'5_Insects_Script'!A22</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_DIAMETER</v>
@@ -39448,11 +39451,11 @@
       </c>
       <c r="AG22">
         <f>'51_Insects_LowSeverity'!S22</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AH22">
         <f>'51_Insects_LowSeverity'!T22</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AI22">
         <f>'51_Insects_LowSeverity'!U22</f>
@@ -39460,11 +39463,11 @@
       </c>
       <c r="AJ22">
         <f>'52_Insects_ModSeverity'!S22</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AK22">
         <f>'52_Insects_ModSeverity'!T22</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AL22">
         <f>'52_Insects_ModSeverity'!U22</f>
@@ -39472,11 +39475,11 @@
       </c>
       <c r="AM22">
         <f>'53_Insects_HighSeverity'!S22</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AN22">
         <f>'53_Insects_HighSeverity'!T22</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AO22">
         <f>'53_Insects_HighSeverity'!U22</f>
@@ -39528,11 +39531,11 @@
       </c>
       <c r="BA22">
         <f>'51_Insects_LowSeverity'!AA22</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BB22">
         <f>'51_Insects_LowSeverity'!AB22</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BC22">
         <f>'51_Insects_LowSeverity'!AC22</f>
@@ -39540,11 +39543,11 @@
       </c>
       <c r="BD22">
         <f>'52_Insects_ModSeverity'!AA22</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BE22">
         <f>'52_Insects_ModSeverity'!AB22</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BF22">
         <f>'52_Insects_ModSeverity'!AC22</f>
@@ -39552,18 +39555,18 @@
       </c>
       <c r="BG22">
         <f>'53_Insects_HighSeverity'!AA22</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BH22">
         <f>'53_Insects_HighSeverity'!AB22</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BI22">
         <f>'53_Insects_HighSeverity'!AC22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="str">
         <f>'5_Insects_Script'!A23</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_HEIGHT</v>
@@ -39809,7 +39812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="str">
         <f>'5_Insects_Script'!A24</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_PERCENT_COVER</v>
@@ -40055,7 +40058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="str">
         <f>'5_Insects_Script'!A25</f>
         <v>eCANOPY_SNAGS_CLASS_1_CONIFERS_WITH_FOLIAGE_STEM_DENSITY</v>
@@ -40301,7 +40304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="str">
         <f>'5_Insects_Script'!A26</f>
         <v>eCANOPY_SNAGS_CLASS_2_DIAMETER</v>
@@ -40440,7 +40443,7 @@
       </c>
       <c r="AI26">
         <f>'51_Insects_LowSeverity'!U26</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AJ26">
         <f>'52_Insects_ModSeverity'!S26</f>
@@ -40452,7 +40455,7 @@
       </c>
       <c r="AL26">
         <f>'52_Insects_ModSeverity'!U26</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AM26">
         <f>'53_Insects_HighSeverity'!S26</f>
@@ -40464,7 +40467,7 @@
       </c>
       <c r="AO26">
         <f>'53_Insects_HighSeverity'!U26</f>
-        <v>2.9</v>
+        <v>2.3666666666666667</v>
       </c>
       <c r="AP26">
         <f>'51_Insects_LowSeverity'!V26</f>
@@ -40520,7 +40523,7 @@
       </c>
       <c r="BC26">
         <f>'51_Insects_LowSeverity'!AC26</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BD26">
         <f>'52_Insects_ModSeverity'!AA26</f>
@@ -40532,7 +40535,7 @@
       </c>
       <c r="BF26">
         <f>'52_Insects_ModSeverity'!AC26</f>
-        <v>12</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BG26">
         <f>'53_Insects_HighSeverity'!AA26</f>
@@ -40544,10 +40547,10 @@
       </c>
       <c r="BI26">
         <f>'53_Insects_HighSeverity'!AC26</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="str">
         <f>'5_Insects_Script'!A27</f>
         <v>eCANOPY_SNAGS_CLASS_2_HEIGHT</v>
@@ -40793,7 +40796,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="str">
         <f>'5_Insects_Script'!A28</f>
         <v>eCANOPY_SNAGS_CLASS_2_STEM_DENSITY</v>
@@ -41039,7 +41042,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="str">
         <f>'5_Insects_Script'!A29</f>
         <v>eCANOPY_SNAGS_CLASS_3_DIAMETER</v>
@@ -41285,7 +41288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="str">
         <f>'5_Insects_Script'!A30</f>
         <v>eCANOPY_SNAGS_CLASS_3_HEIGHT</v>
@@ -41531,7 +41534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="str">
         <f>'5_Insects_Script'!A31</f>
         <v>eCANOPY_SNAGS_CLASS_3_STEM_DENSITY</v>
@@ -41777,7 +41780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="str">
         <f>'5_Insects_Script'!A32</f>
         <v>eCANOPY_LADDER_FUELS_MAXIMUM_HEIGHT</v>
@@ -42023,7 +42026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="str">
         <f>'5_Insects_Script'!A33</f>
         <v>eCANOPY_LADDER_FUELS_MINIMUM_HEIGHT</v>
@@ -42269,7 +42272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="str">
         <f>'5_Insects_Script'!A34</f>
         <v>eSHRUBS_PRIMARY_LAYER_HEIGHT</v>
@@ -42515,7 +42518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="str">
         <f>'5_Insects_Script'!A35</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -42761,7 +42764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="str">
         <f>'5_Insects_Script'!A36</f>
         <v>eSHRUBS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -43007,7 +43010,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="str">
         <f>'5_Insects_Script'!A37</f>
         <v>eSHRUBS_SECONDARY_LAYER_HEIGHT</v>
@@ -43253,7 +43256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="str">
         <f>'5_Insects_Script'!A38</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -43499,7 +43502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="str">
         <f>'5_Insects_Script'!A39</f>
         <v>eSHRUBS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -43745,7 +43748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="str">
         <f>'5_Insects_Script'!A40</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_HEIGHT</v>
@@ -43991,7 +43994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="str">
         <f>'5_Insects_Script'!A41</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_LOADING</v>
@@ -44237,7 +44240,7 @@
         <v>0.13999999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="str">
         <f>'5_Insects_Script'!A42</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_COVER</v>
@@ -44483,7 +44486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="str">
         <f>'5_Insects_Script'!A43</f>
         <v>eHERBACEOUS_PRIMARY_LAYER_PERCENT_LIVE</v>
@@ -44729,7 +44732,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="str">
         <f>'5_Insects_Script'!A44</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_HEIGHT</v>
@@ -44975,7 +44978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="str">
         <f>'5_Insects_Script'!A45</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_LOADING</v>
@@ -45221,7 +45224,7 @@
         <v>0.13999999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="str">
         <f>'5_Insects_Script'!A46</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_COVER</v>
@@ -45467,7 +45470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="str">
         <f>'5_Insects_Script'!A47</f>
         <v>eHERBACEOUS_SECONDARY_LAYER_PERCENT_LIVE</v>
@@ -45713,7 +45716,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="str">
         <f>'5_Insects_Script'!A48</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_DEPTH</v>
@@ -45959,7 +45962,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="str">
         <f>'5_Insects_Script'!A49</f>
         <v>eWOODY_FUEL_ALL_DOWNED_WOODY_FUEL_TOTAL_PERCENT_COVER</v>
@@ -46205,7 +46208,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="str">
         <f>'5_Insects_Script'!A50</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ONE_TO_THREE_INCHES</v>
@@ -46451,7 +46454,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="str">
         <f>'5_Insects_Script'!A51</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_QUARTER_INCH_TO_ONE_INCH</v>
@@ -46697,7 +46700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="str">
         <f>'5_Insects_Script'!A52</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_ZERO_TO_THREE_INCHES_ZERO_TO_QUARTER_INCH</v>
@@ -46943,7 +46946,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="str">
         <f>'5_Insects_Script'!A53</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -47189,7 +47192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="str">
         <f>'5_Insects_Script'!A54</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -47435,7 +47438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="str">
         <f>'5_Insects_Script'!A55</f>
         <v>eWOODY_FUEL_SOUND_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -47681,7 +47684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="str">
         <f>'5_Insects_Script'!A56</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_THREE_TO_NINE_INCHES</v>
@@ -47927,7 +47930,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="str">
         <f>'5_Insects_Script'!A57</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_NINE_TO_TWENTY_INCHES</v>
@@ -48173,7 +48176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="str">
         <f>'5_Insects_Script'!A58</f>
         <v>eWOODY_FUEL_ROTTEN_WOOD_LOADINGS_GREATER_THAN_THREE_INCHES_GREATER_THAN_TWENTY_INCHES</v>
@@ -48419,7 +48422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="str">
         <f>'5_Insects_Script'!A59</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_DIAMETER</v>
@@ -48665,7 +48668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="str">
         <f>'5_Insects_Script'!A60</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_HEIGHT</v>
@@ -48911,7 +48914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="str">
         <f>'5_Insects_Script'!A61</f>
         <v>eWOODY_FUEL_STUMPS_SOUND_STEM_DENSITY</v>
@@ -49157,7 +49160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="str">
         <f>'5_Insects_Script'!A62</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_DIAMETER</v>
@@ -49403,7 +49406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="str">
         <f>'5_Insects_Script'!A63</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_HEIGHT</v>
@@ -49649,7 +49652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="str">
         <f>'5_Insects_Script'!A64</f>
         <v>eWOODY_FUEL_STUMPS_ROTTEN_STEM_DENSITY</v>
@@ -49895,7 +49898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="str">
         <f>'5_Insects_Script'!A65</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_DIAMETER</v>
@@ -50141,7 +50144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="str">
         <f>'5_Insects_Script'!A66</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_HEIGHT</v>
@@ -50387,7 +50390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="str">
         <f>'5_Insects_Script'!A67</f>
         <v>eWOODY_FUEL_STUMPS_LIGHTERED_PITCHY_STEM_DENSITY</v>
@@ -50633,7 +50636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="str">
         <f>'5_Insects_Script'!A68</f>
         <v>eWOODY_FUEL_PILES_CLEAN_LOADING</v>
@@ -50879,7 +50882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="str">
         <f>'5_Insects_Script'!A69</f>
         <v>eWOODY_FUEL_PILES_DIRTY_LOADING</v>
@@ -51125,7 +51128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="str">
         <f>'5_Insects_Script'!A70</f>
         <v>eWOODY_FUEL_PILES_VERYDIRTY_LOADING</v>
@@ -51371,7 +51374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="str">
         <f>'5_Insects_Script'!A71</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_DECIDUOUS_RELATIVE_COVER</v>
@@ -51617,7 +51620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="str">
         <f>'5_Insects_Script'!A72</f>
         <v>eLITTER_LITTER_TYPE_BROADLEAF_EVERGREEN_RELATIVE_COVER</v>
@@ -51863,7 +51866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="str">
         <f>'5_Insects_Script'!A73</f>
         <v>eLITTER_LITTER_TYPE_GRASS_RELATIVE_COVER</v>
@@ -52109,7 +52112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="str">
         <f>'5_Insects_Script'!A74</f>
         <v>eLITTER_LITTER_TYPE_LONG_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -52355,7 +52358,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="str">
         <f>'5_Insects_Script'!A75</f>
         <v>eLITTER_LITTER_TYPE_OTHER_CONIFER_RELATIVE_COVER</v>
@@ -52601,7 +52604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="str">
         <f>'5_Insects_Script'!A76</f>
         <v>eLITTER_LITTER_TYPE_PALM_FROND_RELATIVE_COVER</v>
@@ -52847,7 +52850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="str">
         <f>'5_Insects_Script'!A77</f>
         <v>eLITTER_LITTER_TYPE_SHORT_NEEDLE_PINE_RELATIVE_COVER</v>
@@ -53093,7 +53096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="str">
         <f>'5_Insects_Script'!A78</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_DEPTH</v>
@@ -53339,7 +53342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="str">
         <f>'5_Insects_Script'!A79</f>
         <v>eMOSS_LICHEN_LITTER_GROUND_LICHEN_PERCENT_COVER</v>
@@ -53585,7 +53588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="str">
         <f>'5_Insects_Script'!A80</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_DEPTH</v>
@@ -53831,7 +53834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="str">
         <f>'5_Insects_Script'!A81</f>
         <v>eMOSS_LICHEN_LITTER_LITTER_PERCENT_COVER</v>
@@ -54077,7 +54080,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="str">
         <f>'5_Insects_Script'!A82</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_DEPTH</v>
@@ -54323,7 +54326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="str">
         <f>'5_Insects_Script'!A83</f>
         <v>eMOSS_LICHEN_LITTER_MOSS_PERCENT_COVER</v>
@@ -54569,7 +54572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="str">
         <f>'5_Insects_Script'!A84</f>
         <v>eGROUND_FUEL_DUFF_LOWER_DEPTH</v>
@@ -54815,7 +54818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="str">
         <f>'5_Insects_Script'!A85</f>
         <v>eGROUND_FUEL_DUFF_LOWER_PERCENT_COVER</v>
@@ -55061,7 +55064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="str">
         <f>'5_Insects_Script'!A86</f>
         <v>eGROUND_FUEL_DUFF_UPPER_DEPTH</v>
@@ -55307,7 +55310,7 @@
         <v>1.9500000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="str">
         <f>'5_Insects_Script'!A87</f>
         <v>eGROUND_FUEL_DUFF_UPPER_PERCENT_COVER</v>
@@ -55553,7 +55556,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="str">
         <f>'5_Insects_Script'!A88</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_DEPTH</v>
@@ -55799,7 +55802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="str">
         <f>'5_Insects_Script'!A89</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_NUMBER_PER_UNIT_AREA</v>
@@ -56045,7 +56048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="str">
         <f>'5_Insects_Script'!A90</f>
         <v>eGROUND_FUEL_BASAL_ACCUMULATION_RADIUS</v>
@@ -56291,7 +56294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="str">
         <f>'5_Insects_Script'!A91</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_DEPTH</v>
@@ -56537,7 +56540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="str">
         <f>'5_Insects_Script'!A92</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_NUMBER_PER_UNIT_AREA</v>
@@ -56783,7 +56786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="str">
         <f>'5_Insects_Script'!A93</f>
         <v>eGROUND_FUEL_SQUIRREL_MIDDENS_RADIUS</v>
